--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50400</v>
+        <v>34400</v>
       </c>
       <c r="E8" s="3">
-        <v>48300</v>
+        <v>56100</v>
       </c>
       <c r="F8" s="3">
-        <v>50500</v>
+        <v>49200</v>
       </c>
       <c r="G8" s="3">
-        <v>46100</v>
+        <v>47100</v>
       </c>
       <c r="H8" s="3">
-        <v>40900</v>
+        <v>49200</v>
       </c>
       <c r="I8" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K8" s="3">
         <v>33900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>35700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>46200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>41300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>39700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>29000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>33300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18000</v>
+        <v>12700</v>
       </c>
       <c r="E9" s="3">
-        <v>18100</v>
+        <v>22000</v>
       </c>
       <c r="F9" s="3">
-        <v>18800</v>
+        <v>17600</v>
       </c>
       <c r="G9" s="3">
-        <v>22200</v>
+        <v>17600</v>
       </c>
       <c r="H9" s="3">
-        <v>16300</v>
+        <v>18300</v>
       </c>
       <c r="I9" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K9" s="3">
         <v>11600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>23200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>27200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>13100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32400</v>
+        <v>21800</v>
       </c>
       <c r="E10" s="3">
-        <v>30200</v>
+        <v>34100</v>
       </c>
       <c r="F10" s="3">
-        <v>31700</v>
+        <v>31600</v>
       </c>
       <c r="G10" s="3">
-        <v>23900</v>
+        <v>29500</v>
       </c>
       <c r="H10" s="3">
-        <v>24600</v>
+        <v>30900</v>
       </c>
       <c r="I10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K10" s="3">
         <v>22300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>12500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>19000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>35400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>26600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>17900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>22900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1600</v>
-      </c>
       <c r="I12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>400</v>
+      </c>
+      <c r="R12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1100</v>
+        <v>10800</v>
       </c>
       <c r="E14" s="3">
+        <v>900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-2000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>37500</v>
+        <v>45800</v>
       </c>
       <c r="E17" s="3">
-        <v>36200</v>
+        <v>44900</v>
       </c>
       <c r="F17" s="3">
-        <v>40500</v>
+        <v>36600</v>
       </c>
       <c r="G17" s="3">
-        <v>41000</v>
+        <v>35300</v>
       </c>
       <c r="H17" s="3">
-        <v>30000</v>
+        <v>39500</v>
       </c>
       <c r="I17" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K17" s="3">
         <v>23600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>22300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>40400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>14900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12900</v>
+        <v>-11400</v>
       </c>
       <c r="E18" s="3">
-        <v>12100</v>
+        <v>11200</v>
       </c>
       <c r="F18" s="3">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="G18" s="3">
-        <v>5100</v>
+        <v>11800</v>
       </c>
       <c r="H18" s="3">
-        <v>10900</v>
+        <v>9700</v>
       </c>
       <c r="I18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K18" s="3">
         <v>10300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>13400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>26000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>23200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>14800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>18400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>8600</v>
+        <v>6100</v>
       </c>
       <c r="E20" s="3">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="F20" s="3">
-        <v>5400</v>
+        <v>8400</v>
       </c>
       <c r="G20" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="H20" s="3">
-        <v>10100</v>
+        <v>5200</v>
       </c>
       <c r="I20" s="3">
         <v>3000</v>
       </c>
       <c r="J20" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L20" s="3">
         <v>3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-700</v>
       </c>
       <c r="N20" s="3">
         <v>800</v>
       </c>
       <c r="O20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P20" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,40 +1318,46 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>17200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>15600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>18500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>800</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
@@ -1293,113 +1372,131 @@
         <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>21000</v>
+        <v>-5500</v>
       </c>
       <c r="E23" s="3">
-        <v>14800</v>
+        <v>19100</v>
       </c>
       <c r="F23" s="3">
+        <v>20500</v>
+      </c>
+      <c r="G23" s="3">
         <v>14500</v>
       </c>
-      <c r="G23" s="3">
-        <v>7500</v>
-      </c>
       <c r="H23" s="3">
-        <v>20400</v>
+        <v>14200</v>
       </c>
       <c r="I23" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K23" s="3">
         <v>12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>16300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>26000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>21900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>15300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>18300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3500</v>
+        <v>-600</v>
       </c>
       <c r="E24" s="3">
-        <v>1300</v>
+        <v>3200</v>
       </c>
       <c r="F24" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H24" s="3">
-        <v>5100</v>
+        <v>3800</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K24" s="3">
         <v>3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17500</v>
+        <v>-4900</v>
       </c>
       <c r="E26" s="3">
-        <v>13600</v>
+        <v>15900</v>
       </c>
       <c r="F26" s="3">
-        <v>10700</v>
+        <v>17100</v>
       </c>
       <c r="G26" s="3">
-        <v>7500</v>
+        <v>13200</v>
       </c>
       <c r="H26" s="3">
-        <v>15200</v>
+        <v>10400</v>
       </c>
       <c r="I26" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K26" s="3">
         <v>9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>12100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="3">
         <v>11000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>13500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16900</v>
+        <v>-5400</v>
       </c>
       <c r="E27" s="3">
-        <v>13100</v>
+        <v>14800</v>
       </c>
       <c r="F27" s="3">
-        <v>10900</v>
+        <v>16500</v>
       </c>
       <c r="G27" s="3">
-        <v>7900</v>
+        <v>12800</v>
       </c>
       <c r="H27" s="3">
-        <v>15800</v>
+        <v>10700</v>
       </c>
       <c r="I27" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K27" s="3">
         <v>8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>11500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="3">
         <v>5500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8600</v>
+        <v>-6100</v>
       </c>
       <c r="E32" s="3">
-        <v>-3400</v>
+        <v>-7900</v>
       </c>
       <c r="F32" s="3">
-        <v>-5400</v>
+        <v>-8400</v>
       </c>
       <c r="G32" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="H32" s="3">
-        <v>-10100</v>
+        <v>-5200</v>
       </c>
       <c r="I32" s="3">
         <v>-3000</v>
       </c>
       <c r="J32" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>700</v>
       </c>
       <c r="N32" s="3">
         <v>-800</v>
       </c>
       <c r="O32" s="3">
+        <v>700</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16900</v>
+        <v>-5400</v>
       </c>
       <c r="E33" s="3">
-        <v>13100</v>
+        <v>14800</v>
       </c>
       <c r="F33" s="3">
-        <v>10900</v>
+        <v>16500</v>
       </c>
       <c r="G33" s="3">
-        <v>7900</v>
+        <v>12800</v>
       </c>
       <c r="H33" s="3">
-        <v>15800</v>
+        <v>10700</v>
       </c>
       <c r="I33" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K33" s="3">
         <v>8200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>11500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="3">
         <v>5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16900</v>
+        <v>-5400</v>
       </c>
       <c r="E35" s="3">
-        <v>13100</v>
+        <v>14800</v>
       </c>
       <c r="F35" s="3">
-        <v>10900</v>
+        <v>16500</v>
       </c>
       <c r="G35" s="3">
-        <v>7900</v>
+        <v>12800</v>
       </c>
       <c r="H35" s="3">
-        <v>15800</v>
+        <v>10700</v>
       </c>
       <c r="I35" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K35" s="3">
         <v>8200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>11500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="3">
         <v>5500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2138,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>265600</v>
+        <v>383600</v>
       </c>
       <c r="E41" s="3">
-        <v>230900</v>
+        <v>280200</v>
       </c>
       <c r="F41" s="3">
-        <v>312500</v>
+        <v>259100</v>
       </c>
       <c r="G41" s="3">
-        <v>417900</v>
+        <v>225300</v>
       </c>
       <c r="H41" s="3">
-        <v>522700</v>
+        <v>304800</v>
       </c>
       <c r="I41" s="3">
+        <v>407700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>509800</v>
+      </c>
+      <c r="K41" s="3">
         <v>447900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>281600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>119200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>93600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66200</v>
+        <v>103800</v>
       </c>
       <c r="E42" s="3">
-        <v>78400</v>
+        <v>83600</v>
       </c>
       <c r="F42" s="3">
-        <v>16000</v>
+        <v>64600</v>
       </c>
       <c r="G42" s="3">
-        <v>38100</v>
+        <v>76400</v>
       </c>
       <c r="H42" s="3">
-        <v>28900</v>
+        <v>15600</v>
       </c>
       <c r="I42" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K42" s="3">
         <v>12800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>86000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>9300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>13300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>237700</v>
+        <v>255000</v>
       </c>
       <c r="E43" s="3">
-        <v>236400</v>
+        <v>259300</v>
       </c>
       <c r="F43" s="3">
-        <v>222100</v>
+        <v>231900</v>
       </c>
       <c r="G43" s="3">
-        <v>174400</v>
+        <v>230600</v>
       </c>
       <c r="H43" s="3">
-        <v>122300</v>
+        <v>216700</v>
       </c>
       <c r="I43" s="3">
+        <v>170100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>119300</v>
+      </c>
+      <c r="K43" s="3">
         <v>12800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>18200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>23000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>25000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2334,264 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>101400</v>
+        <v>107200</v>
       </c>
       <c r="E45" s="3">
-        <v>95400</v>
+        <v>152300</v>
       </c>
       <c r="F45" s="3">
-        <v>90700</v>
+        <v>98900</v>
       </c>
       <c r="G45" s="3">
-        <v>51700</v>
+        <v>93000</v>
       </c>
       <c r="H45" s="3">
-        <v>10500</v>
+        <v>88500</v>
       </c>
       <c r="I45" s="3">
+        <v>50400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K45" s="3">
         <v>163300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>23000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>32900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>670900</v>
+        <v>849600</v>
       </c>
       <c r="E46" s="3">
-        <v>641100</v>
+        <v>775500</v>
       </c>
       <c r="F46" s="3">
-        <v>641400</v>
+        <v>654400</v>
       </c>
       <c r="G46" s="3">
-        <v>682200</v>
+        <v>625400</v>
       </c>
       <c r="H46" s="3">
-        <v>684400</v>
+        <v>625600</v>
       </c>
       <c r="I46" s="3">
+        <v>665500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K46" s="3">
         <v>636800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>408800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>164500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>164700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>299900</v>
+        <v>255100</v>
       </c>
       <c r="E47" s="3">
-        <v>289700</v>
+        <v>281100</v>
       </c>
       <c r="F47" s="3">
-        <v>302800</v>
+        <v>292500</v>
       </c>
       <c r="G47" s="3">
-        <v>226100</v>
+        <v>282600</v>
       </c>
       <c r="H47" s="3">
-        <v>149400</v>
+        <v>295400</v>
       </c>
       <c r="I47" s="3">
+        <v>220600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K47" s="3">
         <v>51000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>50900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>71900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>64200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25700</v>
+        <v>26600</v>
       </c>
       <c r="E49" s="3">
-        <v>25700</v>
+        <v>26600</v>
       </c>
       <c r="F49" s="3">
-        <v>25700</v>
+        <v>25100</v>
       </c>
       <c r="G49" s="3">
-        <v>21100</v>
+        <v>25000</v>
       </c>
       <c r="H49" s="3">
-        <v>21100</v>
+        <v>25000</v>
       </c>
       <c r="I49" s="3">
+        <v>20500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>130300</v>
+        <v>146100</v>
       </c>
       <c r="E52" s="3">
-        <v>128600</v>
+        <v>137500</v>
       </c>
       <c r="F52" s="3">
-        <v>129400</v>
+        <v>127100</v>
       </c>
       <c r="G52" s="3">
-        <v>115600</v>
+        <v>125400</v>
       </c>
       <c r="H52" s="3">
-        <v>97500</v>
+        <v>126300</v>
       </c>
       <c r="I52" s="3">
+        <v>112700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K52" s="3">
         <v>83500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>77000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>58300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>26900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1129000</v>
+        <v>1279200</v>
       </c>
       <c r="E54" s="3">
-        <v>1087500</v>
+        <v>1222800</v>
       </c>
       <c r="F54" s="3">
-        <v>1101900</v>
+        <v>1101300</v>
       </c>
       <c r="G54" s="3">
-        <v>1047600</v>
+        <v>1060800</v>
       </c>
       <c r="H54" s="3">
-        <v>955100</v>
+        <v>1074900</v>
       </c>
       <c r="I54" s="3">
+        <v>1021900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>931700</v>
+      </c>
+      <c r="K54" s="3">
         <v>774000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>538700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>296400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>257200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>264900</v>
+        <v>355700</v>
       </c>
       <c r="E58" s="3">
-        <v>237100</v>
+        <v>322400</v>
       </c>
       <c r="F58" s="3">
-        <v>229500</v>
+        <v>258400</v>
       </c>
       <c r="G58" s="3">
-        <v>161700</v>
+        <v>231300</v>
       </c>
       <c r="H58" s="3">
-        <v>68100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
+        <v>223800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>157800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>66500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="3">
         <v>13800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>60300</v>
+        <v>84000</v>
       </c>
       <c r="E59" s="3">
-        <v>60100</v>
+        <v>84800</v>
       </c>
       <c r="F59" s="3">
-        <v>68900</v>
+        <v>58800</v>
       </c>
       <c r="G59" s="3">
-        <v>62900</v>
+        <v>58600</v>
       </c>
       <c r="H59" s="3">
-        <v>53600</v>
+        <v>67200</v>
       </c>
       <c r="I59" s="3">
+        <v>61300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K59" s="3">
         <v>60000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>63400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>76700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>39900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>325200</v>
+        <v>439700</v>
       </c>
       <c r="E60" s="3">
-        <v>297200</v>
+        <v>407200</v>
       </c>
       <c r="F60" s="3">
-        <v>298400</v>
+        <v>317200</v>
       </c>
       <c r="G60" s="3">
-        <v>224600</v>
+        <v>289900</v>
       </c>
       <c r="H60" s="3">
-        <v>121800</v>
+        <v>291100</v>
       </c>
       <c r="I60" s="3">
+        <v>219100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>118800</v>
+      </c>
+      <c r="K60" s="3">
         <v>60000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>63400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>78100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>54300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33000</v>
+        <v>67900</v>
       </c>
       <c r="E61" s="3">
-        <v>45100</v>
+        <v>42200</v>
       </c>
       <c r="F61" s="3">
-        <v>43100</v>
+        <v>32200</v>
       </c>
       <c r="G61" s="3">
-        <v>67800</v>
+        <v>44000</v>
       </c>
       <c r="H61" s="3">
-        <v>83500</v>
+        <v>42000</v>
       </c>
       <c r="I61" s="3">
+        <v>66200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>81400</v>
+      </c>
+      <c r="K61" s="3">
         <v>25100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>25100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>26000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>359000</v>
+        <v>511600</v>
       </c>
       <c r="E66" s="3">
-        <v>342500</v>
+        <v>456100</v>
       </c>
       <c r="F66" s="3">
-        <v>341300</v>
+        <v>350200</v>
       </c>
       <c r="G66" s="3">
-        <v>294000</v>
+        <v>334100</v>
       </c>
       <c r="H66" s="3">
-        <v>211200</v>
+        <v>333000</v>
       </c>
       <c r="I66" s="3">
+        <v>286800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>206000</v>
+      </c>
+      <c r="K66" s="3">
         <v>92000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>94800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>113200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>79200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,31 +3521,37 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>771700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>565600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>585000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>585000</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>104700</v>
+        <v>114000</v>
       </c>
       <c r="E72" s="3">
-        <v>87800</v>
+        <v>119300</v>
       </c>
       <c r="F72" s="3">
-        <v>111100</v>
+        <v>102100</v>
       </c>
       <c r="G72" s="3">
-        <v>100200</v>
+        <v>85600</v>
       </c>
       <c r="H72" s="3">
-        <v>725800</v>
+        <v>108400</v>
       </c>
       <c r="I72" s="3">
+        <v>97700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>708000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-96700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-122100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-402400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-407600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>770000</v>
+        <v>767600</v>
       </c>
       <c r="E76" s="3">
-        <v>744900</v>
+        <v>766700</v>
       </c>
       <c r="F76" s="3">
-        <v>760600</v>
+        <v>751100</v>
       </c>
       <c r="G76" s="3">
-        <v>753500</v>
+        <v>726700</v>
       </c>
       <c r="H76" s="3">
-        <v>744000</v>
+        <v>742000</v>
       </c>
       <c r="I76" s="3">
+        <v>735000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>725700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-89700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-121600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-401800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-407000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16900</v>
+        <v>-5400</v>
       </c>
       <c r="E81" s="3">
-        <v>13100</v>
+        <v>14800</v>
       </c>
       <c r="F81" s="3">
-        <v>10900</v>
+        <v>16500</v>
       </c>
       <c r="G81" s="3">
-        <v>7900</v>
+        <v>12800</v>
       </c>
       <c r="H81" s="3">
-        <v>15800</v>
+        <v>10700</v>
       </c>
       <c r="I81" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K81" s="3">
         <v>8200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>11500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P81" s="3">
         <v>5500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,41 +4023,43 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,41 +4319,47 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="3">
         <v>-6100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>42600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,41 +4393,43 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,41 +4539,47 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="3">
         <v>-61400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,41 +4809,47 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="3">
         <v>252400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4368,41 +4859,47 @@
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
@@ -4412,41 +4909,47 @@
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3">
         <v>184600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>36800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>16</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34400</v>
+        <v>39800</v>
       </c>
       <c r="E8" s="3">
-        <v>56100</v>
+        <v>35700</v>
       </c>
       <c r="F8" s="3">
-        <v>49200</v>
+        <v>58200</v>
       </c>
       <c r="G8" s="3">
-        <v>47100</v>
+        <v>51000</v>
       </c>
       <c r="H8" s="3">
-        <v>49200</v>
+        <v>48800</v>
       </c>
       <c r="I8" s="3">
-        <v>44900</v>
+        <v>51100</v>
       </c>
       <c r="J8" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K8" s="3">
         <v>39900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12700</v>
+        <v>14900</v>
       </c>
       <c r="E9" s="3">
-        <v>22000</v>
+        <v>13200</v>
       </c>
       <c r="F9" s="3">
-        <v>17600</v>
+        <v>22800</v>
       </c>
       <c r="G9" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="H9" s="3">
         <v>18300</v>
       </c>
       <c r="I9" s="3">
-        <v>21600</v>
+        <v>19000</v>
       </c>
       <c r="J9" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K9" s="3">
         <v>15900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21800</v>
+        <v>24900</v>
       </c>
       <c r="E10" s="3">
-        <v>34100</v>
+        <v>22600</v>
       </c>
       <c r="F10" s="3">
-        <v>31600</v>
+        <v>35400</v>
       </c>
       <c r="G10" s="3">
-        <v>29500</v>
+        <v>32800</v>
       </c>
       <c r="H10" s="3">
-        <v>30900</v>
+        <v>30600</v>
       </c>
       <c r="I10" s="3">
-        <v>23300</v>
+        <v>32100</v>
       </c>
       <c r="J10" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K10" s="3">
         <v>24000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
-        <v>2600</v>
-      </c>
       <c r="F12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
-        <v>2800</v>
-      </c>
       <c r="J12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>10800</v>
+        <v>-6200</v>
       </c>
       <c r="E14" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
-        <v>1000</v>
-      </c>
       <c r="G14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>2500</v>
-      </c>
       <c r="I14" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="J14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>45800</v>
+        <v>30100</v>
       </c>
       <c r="E17" s="3">
-        <v>44900</v>
+        <v>47500</v>
       </c>
       <c r="F17" s="3">
+        <v>46600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>38000</v>
+      </c>
+      <c r="H17" s="3">
         <v>36600</v>
       </c>
-      <c r="G17" s="3">
-        <v>35300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>39500</v>
-      </c>
       <c r="I17" s="3">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="J17" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K17" s="3">
         <v>29200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-11400</v>
+        <v>9700</v>
       </c>
       <c r="E18" s="3">
-        <v>11200</v>
+        <v>-11800</v>
       </c>
       <c r="F18" s="3">
-        <v>12600</v>
+        <v>11600</v>
       </c>
       <c r="G18" s="3">
-        <v>11800</v>
+        <v>13000</v>
       </c>
       <c r="H18" s="3">
-        <v>9700</v>
+        <v>12200</v>
       </c>
       <c r="I18" s="3">
-        <v>5000</v>
+        <v>10100</v>
       </c>
       <c r="J18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K18" s="3">
         <v>10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6100</v>
+        <v>4200</v>
       </c>
       <c r="E20" s="3">
-        <v>7900</v>
+        <v>6300</v>
       </c>
       <c r="F20" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="G20" s="3">
-        <v>3300</v>
+        <v>8700</v>
       </c>
       <c r="H20" s="3">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="I20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
-        <v>9900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1324,49 +1361,52 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>17200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>15600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>700</v>
       </c>
       <c r="I22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
@@ -1378,125 +1418,134 @@
         <v>700</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5500</v>
+        <v>13900</v>
       </c>
       <c r="E23" s="3">
-        <v>19100</v>
+        <v>-5700</v>
       </c>
       <c r="F23" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="G23" s="3">
-        <v>14500</v>
+        <v>21300</v>
       </c>
       <c r="H23" s="3">
-        <v>14200</v>
+        <v>15000</v>
       </c>
       <c r="I23" s="3">
-        <v>7300</v>
+        <v>14700</v>
       </c>
       <c r="J23" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K23" s="3">
         <v>19900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>18300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-600</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>3200</v>
+        <v>-700</v>
       </c>
       <c r="F24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4900</v>
+        <v>10200</v>
       </c>
       <c r="E26" s="3">
-        <v>15900</v>
+        <v>-5000</v>
       </c>
       <c r="F26" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="G26" s="3">
-        <v>13200</v>
+        <v>17700</v>
       </c>
       <c r="H26" s="3">
-        <v>10400</v>
+        <v>13700</v>
       </c>
       <c r="I26" s="3">
-        <v>7300</v>
+        <v>10800</v>
       </c>
       <c r="J26" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K26" s="3">
         <v>14900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="3">
         <v>11000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5400</v>
+        <v>10200</v>
       </c>
       <c r="E27" s="3">
-        <v>14800</v>
+        <v>-5600</v>
       </c>
       <c r="F27" s="3">
-        <v>16500</v>
+        <v>15300</v>
       </c>
       <c r="G27" s="3">
-        <v>12800</v>
+        <v>17100</v>
       </c>
       <c r="H27" s="3">
-        <v>10700</v>
+        <v>13300</v>
       </c>
       <c r="I27" s="3">
-        <v>7700</v>
+        <v>11100</v>
       </c>
       <c r="J27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K27" s="3">
         <v>15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="3">
         <v>5500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6100</v>
+        <v>-4200</v>
       </c>
       <c r="E32" s="3">
-        <v>-7900</v>
+        <v>-6300</v>
       </c>
       <c r="F32" s="3">
-        <v>-8400</v>
+        <v>-8200</v>
       </c>
       <c r="G32" s="3">
-        <v>-3300</v>
+        <v>-8700</v>
       </c>
       <c r="H32" s="3">
-        <v>-5200</v>
+        <v>-3500</v>
       </c>
       <c r="I32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5400</v>
+        <v>10200</v>
       </c>
       <c r="E33" s="3">
-        <v>14800</v>
+        <v>-5600</v>
       </c>
       <c r="F33" s="3">
-        <v>16500</v>
+        <v>15300</v>
       </c>
       <c r="G33" s="3">
-        <v>12800</v>
+        <v>17100</v>
       </c>
       <c r="H33" s="3">
-        <v>10700</v>
+        <v>13300</v>
       </c>
       <c r="I33" s="3">
-        <v>7700</v>
+        <v>11100</v>
       </c>
       <c r="J33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K33" s="3">
         <v>15400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="3">
         <v>5500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5400</v>
+        <v>10200</v>
       </c>
       <c r="E35" s="3">
-        <v>14800</v>
+        <v>-5600</v>
       </c>
       <c r="F35" s="3">
-        <v>16500</v>
+        <v>15300</v>
       </c>
       <c r="G35" s="3">
-        <v>12800</v>
+        <v>17100</v>
       </c>
       <c r="H35" s="3">
-        <v>10700</v>
+        <v>13300</v>
       </c>
       <c r="I35" s="3">
-        <v>7700</v>
+        <v>11100</v>
       </c>
       <c r="J35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K35" s="3">
         <v>15400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="3">
         <v>5500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,47 +2226,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>383600</v>
+        <v>292000</v>
       </c>
       <c r="E41" s="3">
-        <v>280200</v>
+        <v>398100</v>
       </c>
       <c r="F41" s="3">
-        <v>259100</v>
+        <v>290800</v>
       </c>
       <c r="G41" s="3">
-        <v>225300</v>
+        <v>268900</v>
       </c>
       <c r="H41" s="3">
-        <v>304800</v>
+        <v>233800</v>
       </c>
       <c r="I41" s="3">
-        <v>407700</v>
+        <v>316300</v>
       </c>
       <c r="J41" s="3">
+        <v>423000</v>
+      </c>
+      <c r="K41" s="3">
         <v>509800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>447900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>281600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>119200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2190,47 +2277,50 @@
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>103800</v>
+        <v>121300</v>
       </c>
       <c r="E42" s="3">
-        <v>83600</v>
+        <v>107700</v>
       </c>
       <c r="F42" s="3">
-        <v>64600</v>
+        <v>86700</v>
       </c>
       <c r="G42" s="3">
-        <v>76400</v>
+        <v>67000</v>
       </c>
       <c r="H42" s="3">
-        <v>15600</v>
+        <v>79300</v>
       </c>
       <c r="I42" s="3">
-        <v>37200</v>
+        <v>16200</v>
       </c>
       <c r="J42" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K42" s="3">
         <v>28200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>86000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2240,47 +2330,50 @@
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>255000</v>
+        <v>254500</v>
       </c>
       <c r="E43" s="3">
-        <v>259300</v>
+        <v>264600</v>
       </c>
       <c r="F43" s="3">
-        <v>231900</v>
+        <v>269100</v>
       </c>
       <c r="G43" s="3">
-        <v>230600</v>
+        <v>240600</v>
       </c>
       <c r="H43" s="3">
-        <v>216700</v>
+        <v>239300</v>
       </c>
       <c r="I43" s="3">
-        <v>170100</v>
+        <v>224800</v>
       </c>
       <c r="J43" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K43" s="3">
         <v>119300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,47 +2436,50 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>107200</v>
+        <v>82100</v>
       </c>
       <c r="E45" s="3">
-        <v>152300</v>
+        <v>111200</v>
       </c>
       <c r="F45" s="3">
-        <v>98900</v>
+        <v>158100</v>
       </c>
       <c r="G45" s="3">
-        <v>93000</v>
+        <v>102600</v>
       </c>
       <c r="H45" s="3">
-        <v>88500</v>
+        <v>96500</v>
       </c>
       <c r="I45" s="3">
-        <v>50400</v>
+        <v>91900</v>
       </c>
       <c r="J45" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K45" s="3">
         <v>10300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>163300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2390,47 +2489,50 @@
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>849600</v>
+        <v>749800</v>
       </c>
       <c r="E46" s="3">
-        <v>775500</v>
+        <v>881600</v>
       </c>
       <c r="F46" s="3">
-        <v>654400</v>
+        <v>804700</v>
       </c>
       <c r="G46" s="3">
-        <v>625400</v>
+        <v>679100</v>
       </c>
       <c r="H46" s="3">
-        <v>625600</v>
+        <v>649000</v>
       </c>
       <c r="I46" s="3">
-        <v>665500</v>
+        <v>649200</v>
       </c>
       <c r="J46" s="3">
+        <v>690500</v>
+      </c>
+      <c r="K46" s="3">
         <v>667600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>636800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>408800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>164500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>164700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2440,47 +2542,50 @@
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>255100</v>
+        <v>227900</v>
       </c>
       <c r="E47" s="3">
-        <v>281100</v>
+        <v>264700</v>
       </c>
       <c r="F47" s="3">
-        <v>292500</v>
+        <v>291700</v>
       </c>
       <c r="G47" s="3">
-        <v>282600</v>
+        <v>303600</v>
       </c>
       <c r="H47" s="3">
-        <v>295400</v>
+        <v>293200</v>
       </c>
       <c r="I47" s="3">
-        <v>220600</v>
+        <v>306500</v>
       </c>
       <c r="J47" s="3">
+        <v>228900</v>
+      </c>
+      <c r="K47" s="3">
         <v>145700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>51000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>71900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>64200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2490,47 +2595,50 @@
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2200</v>
       </c>
       <c r="G48" s="3">
         <v>2300</v>
       </c>
       <c r="H48" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I48" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J48" s="3">
         <v>2700</v>
       </c>
       <c r="K48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2540,46 +2648,49 @@
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26600</v>
+        <v>27500</v>
       </c>
       <c r="E49" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="F49" s="3">
-        <v>25100</v>
+        <v>27600</v>
       </c>
       <c r="G49" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="H49" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="I49" s="3">
-        <v>20500</v>
+        <v>26000</v>
       </c>
       <c r="J49" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K49" s="3">
         <v>20600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
+      <c r="O49" s="3">
+        <v>300</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,47 +2807,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>146100</v>
+        <v>155100</v>
       </c>
       <c r="E52" s="3">
-        <v>137500</v>
+        <v>151600</v>
       </c>
       <c r="F52" s="3">
-        <v>127100</v>
+        <v>142700</v>
       </c>
       <c r="G52" s="3">
-        <v>125400</v>
+        <v>131900</v>
       </c>
       <c r="H52" s="3">
-        <v>126300</v>
+        <v>130200</v>
       </c>
       <c r="I52" s="3">
-        <v>112700</v>
+        <v>131000</v>
       </c>
       <c r="J52" s="3">
+        <v>117000</v>
+      </c>
+      <c r="K52" s="3">
         <v>95100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>83500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>77000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>58300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,47 +2913,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1279200</v>
+        <v>1162200</v>
       </c>
       <c r="E54" s="3">
-        <v>1222800</v>
+        <v>1327400</v>
       </c>
       <c r="F54" s="3">
-        <v>1101300</v>
+        <v>1268800</v>
       </c>
       <c r="G54" s="3">
-        <v>1060800</v>
+        <v>1142800</v>
       </c>
       <c r="H54" s="3">
-        <v>1074900</v>
+        <v>1100700</v>
       </c>
       <c r="I54" s="3">
-        <v>1021900</v>
+        <v>1115400</v>
       </c>
       <c r="J54" s="3">
+        <v>1060300</v>
+      </c>
+      <c r="K54" s="3">
         <v>931700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>774000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>538700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>296400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>257200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2906,21 +3037,21 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2930,47 +3061,50 @@
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>355700</v>
+        <v>273600</v>
       </c>
       <c r="E58" s="3">
-        <v>322400</v>
+        <v>369100</v>
       </c>
       <c r="F58" s="3">
-        <v>258400</v>
+        <v>334500</v>
       </c>
       <c r="G58" s="3">
-        <v>231300</v>
+        <v>268200</v>
       </c>
       <c r="H58" s="3">
-        <v>223800</v>
+        <v>240000</v>
       </c>
       <c r="I58" s="3">
-        <v>157800</v>
+        <v>232300</v>
       </c>
       <c r="J58" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K58" s="3">
         <v>66500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="3">
         <v>13800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2980,47 +3114,50 @@
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84000</v>
+        <v>75900</v>
       </c>
       <c r="E59" s="3">
-        <v>84800</v>
+        <v>87200</v>
       </c>
       <c r="F59" s="3">
-        <v>58800</v>
+        <v>88000</v>
       </c>
       <c r="G59" s="3">
-        <v>58600</v>
+        <v>61000</v>
       </c>
       <c r="H59" s="3">
-        <v>67200</v>
+        <v>60800</v>
       </c>
       <c r="I59" s="3">
-        <v>61300</v>
+        <v>69800</v>
       </c>
       <c r="J59" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K59" s="3">
         <v>52300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>63400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3030,47 +3167,50 @@
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>439700</v>
+        <v>349500</v>
       </c>
       <c r="E60" s="3">
-        <v>407200</v>
+        <v>456300</v>
       </c>
       <c r="F60" s="3">
-        <v>317200</v>
+        <v>422500</v>
       </c>
       <c r="G60" s="3">
-        <v>289900</v>
+        <v>329200</v>
       </c>
       <c r="H60" s="3">
-        <v>291100</v>
+        <v>300800</v>
       </c>
       <c r="I60" s="3">
-        <v>219100</v>
+        <v>302000</v>
       </c>
       <c r="J60" s="3">
+        <v>227300</v>
+      </c>
+      <c r="K60" s="3">
         <v>118800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>60000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3080,47 +3220,50 @@
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>67900</v>
+        <v>43800</v>
       </c>
       <c r="E61" s="3">
-        <v>42200</v>
+        <v>70500</v>
       </c>
       <c r="F61" s="3">
-        <v>32200</v>
+        <v>43800</v>
       </c>
       <c r="G61" s="3">
-        <v>44000</v>
+        <v>33400</v>
       </c>
       <c r="H61" s="3">
-        <v>42000</v>
+        <v>45700</v>
       </c>
       <c r="I61" s="3">
-        <v>66200</v>
+        <v>43600</v>
       </c>
       <c r="J61" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K61" s="3">
         <v>81400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>25100</v>
       </c>
       <c r="L61" s="3">
         <v>25100</v>
       </c>
       <c r="M61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="N61" s="3">
         <v>26000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3130,19 +3273,22 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="E62" s="3">
-        <v>4800</v>
+        <v>4100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3151,25 +3297,25 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>5000</v>
       </c>
       <c r="L62" s="3">
         <v>5000</v>
       </c>
       <c r="M62" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="N62" s="3">
         <v>5300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
+      <c r="O62" s="3">
+        <v>5300</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,47 +3485,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>511600</v>
+        <v>398000</v>
       </c>
       <c r="E66" s="3">
-        <v>456100</v>
+        <v>530800</v>
       </c>
       <c r="F66" s="3">
-        <v>350200</v>
+        <v>473300</v>
       </c>
       <c r="G66" s="3">
-        <v>334100</v>
+        <v>363400</v>
       </c>
       <c r="H66" s="3">
-        <v>333000</v>
+        <v>346700</v>
       </c>
       <c r="I66" s="3">
-        <v>286800</v>
+        <v>345500</v>
       </c>
       <c r="J66" s="3">
+        <v>297600</v>
+      </c>
+      <c r="K66" s="3">
         <v>206000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>94800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>113200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,19 +3695,19 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>771700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>565600</v>
-      </c>
-      <c r="M70" s="3">
-        <v>585000</v>
       </c>
       <c r="N70" s="3">
         <v>585000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>585000</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,47 +3771,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>114000</v>
+        <v>89700</v>
       </c>
       <c r="E72" s="3">
-        <v>119300</v>
+        <v>118200</v>
       </c>
       <c r="F72" s="3">
-        <v>102100</v>
+        <v>123800</v>
       </c>
       <c r="G72" s="3">
-        <v>85600</v>
+        <v>105900</v>
       </c>
       <c r="H72" s="3">
-        <v>108400</v>
+        <v>88800</v>
       </c>
       <c r="I72" s="3">
-        <v>97700</v>
+        <v>112400</v>
       </c>
       <c r="J72" s="3">
+        <v>101400</v>
+      </c>
+      <c r="K72" s="3">
         <v>708000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-96700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-122100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-402400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-407600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,47 +3983,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>767600</v>
+        <v>764100</v>
       </c>
       <c r="E76" s="3">
-        <v>766700</v>
+        <v>796500</v>
       </c>
       <c r="F76" s="3">
-        <v>751100</v>
+        <v>795500</v>
       </c>
       <c r="G76" s="3">
-        <v>726700</v>
+        <v>779400</v>
       </c>
       <c r="H76" s="3">
-        <v>742000</v>
+        <v>754000</v>
       </c>
       <c r="I76" s="3">
-        <v>735000</v>
+        <v>769900</v>
       </c>
       <c r="J76" s="3">
+        <v>762700</v>
+      </c>
+      <c r="K76" s="3">
         <v>725700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-89700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-121600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-401800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-407000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5400</v>
+        <v>10200</v>
       </c>
       <c r="E81" s="3">
-        <v>14800</v>
+        <v>-5600</v>
       </c>
       <c r="F81" s="3">
-        <v>16500</v>
+        <v>15300</v>
       </c>
       <c r="G81" s="3">
-        <v>12800</v>
+        <v>17100</v>
       </c>
       <c r="H81" s="3">
-        <v>10700</v>
+        <v>13300</v>
       </c>
       <c r="I81" s="3">
-        <v>7700</v>
+        <v>11100</v>
       </c>
       <c r="J81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K81" s="3">
         <v>15400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q81" s="3">
         <v>5500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4051,18 +4250,18 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4351,18 +4568,18 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="3">
         <v>-6100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>42600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4421,18 +4642,18 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4571,18 +4801,18 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="3">
         <v>-61400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4841,18 +5087,18 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3">
         <v>252400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4891,18 +5140,18 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4941,18 +5193,18 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3">
         <v>184600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>16</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39800</v>
+        <v>66200</v>
       </c>
       <c r="E8" s="3">
+        <v>41700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>37400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>61000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>53400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>51200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K8" s="3">
+        <v>46600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>39900</v>
+      </c>
+      <c r="M8" s="3">
+        <v>33900</v>
+      </c>
+      <c r="N8" s="3">
         <v>35700</v>
       </c>
-      <c r="F8" s="3">
-        <v>58200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>51000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>48800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>51100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>46600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>39900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>33900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>35700</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14900</v>
+        <v>27500</v>
       </c>
       <c r="E9" s="3">
-        <v>13200</v>
+        <v>15600</v>
       </c>
       <c r="F9" s="3">
-        <v>22800</v>
+        <v>13800</v>
       </c>
       <c r="G9" s="3">
-        <v>18200</v>
+        <v>23900</v>
       </c>
       <c r="H9" s="3">
-        <v>18300</v>
+        <v>19100</v>
       </c>
       <c r="I9" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="J9" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K9" s="3">
         <v>22400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24900</v>
+        <v>38600</v>
       </c>
       <c r="E10" s="3">
-        <v>22600</v>
+        <v>26100</v>
       </c>
       <c r="F10" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>34400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>32000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K10" s="3">
+        <v>24200</v>
+      </c>
+      <c r="L10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>22300</v>
+      </c>
+      <c r="N10" s="3">
+        <v>12500</v>
+      </c>
+      <c r="O10" s="3">
+        <v>19000</v>
+      </c>
+      <c r="P10" s="3">
         <v>35400</v>
       </c>
-      <c r="G10" s="3">
-        <v>32800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>30600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>32100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>24200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>24000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>22300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>12500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>19000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>35400</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2700</v>
-      </c>
       <c r="G12" s="3">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="H12" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="I12" s="3">
         <v>1900</v>
       </c>
       <c r="J12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-6200</v>
+        <v>-2000</v>
       </c>
       <c r="E14" s="3">
-        <v>11200</v>
+        <v>-6500</v>
       </c>
       <c r="F14" s="3">
-        <v>900</v>
+        <v>11700</v>
       </c>
       <c r="G14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>300</v>
-      </c>
       <c r="I14" s="3">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="J14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>30100</v>
+        <v>45700</v>
       </c>
       <c r="E17" s="3">
-        <v>47500</v>
+        <v>31500</v>
       </c>
       <c r="F17" s="3">
-        <v>46600</v>
+        <v>49800</v>
       </c>
       <c r="G17" s="3">
-        <v>38000</v>
+        <v>48800</v>
       </c>
       <c r="H17" s="3">
-        <v>36600</v>
+        <v>39800</v>
       </c>
       <c r="I17" s="3">
-        <v>41000</v>
+        <v>38300</v>
       </c>
       <c r="J17" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K17" s="3">
         <v>41500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>40400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>9700</v>
+        <v>20500</v>
       </c>
       <c r="E18" s="3">
-        <v>-11800</v>
+        <v>10100</v>
       </c>
       <c r="F18" s="3">
-        <v>11600</v>
+        <v>-12400</v>
       </c>
       <c r="G18" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="H18" s="3">
-        <v>12200</v>
+        <v>13700</v>
       </c>
       <c r="I18" s="3">
-        <v>10100</v>
+        <v>12800</v>
       </c>
       <c r="J18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K18" s="3">
         <v>5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4200</v>
+        <v>280500</v>
       </c>
       <c r="E20" s="3">
-        <v>6300</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
-        <v>8200</v>
+        <v>6600</v>
       </c>
       <c r="G20" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="H20" s="3">
-        <v>3500</v>
+        <v>9100</v>
       </c>
       <c r="I20" s="3">
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="J20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1364,29 +1401,32 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>17200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>15600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,22 +1434,22 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
@@ -1421,131 +1461,140 @@
         <v>700</v>
       </c>
       <c r="N22" s="3">
+        <v>700</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13900</v>
+        <v>300900</v>
       </c>
       <c r="E23" s="3">
-        <v>-5700</v>
+        <v>14500</v>
       </c>
       <c r="F23" s="3">
-        <v>19800</v>
+        <v>-6000</v>
       </c>
       <c r="G23" s="3">
-        <v>21300</v>
+        <v>20800</v>
       </c>
       <c r="H23" s="3">
-        <v>15000</v>
+        <v>22300</v>
       </c>
       <c r="I23" s="3">
-        <v>14700</v>
+        <v>15700</v>
       </c>
       <c r="J23" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K23" s="3">
         <v>7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>31700</v>
       </c>
       <c r="E24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-700</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3300</v>
       </c>
       <c r="G24" s="3">
         <v>3500</v>
       </c>
       <c r="H24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
-        <v>3900</v>
-      </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10200</v>
+        <v>269200</v>
       </c>
       <c r="E26" s="3">
-        <v>-5000</v>
+        <v>10700</v>
       </c>
       <c r="F26" s="3">
-        <v>16500</v>
+        <v>-5300</v>
       </c>
       <c r="G26" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="H26" s="3">
-        <v>13700</v>
+        <v>18600</v>
       </c>
       <c r="I26" s="3">
-        <v>10800</v>
+        <v>14400</v>
       </c>
       <c r="J26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K26" s="3">
         <v>7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="3">
         <v>11000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10200</v>
+        <v>269100</v>
       </c>
       <c r="E27" s="3">
-        <v>-5600</v>
+        <v>10700</v>
       </c>
       <c r="F27" s="3">
-        <v>15300</v>
+        <v>-5800</v>
       </c>
       <c r="G27" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="H27" s="3">
-        <v>13300</v>
+        <v>17900</v>
       </c>
       <c r="I27" s="3">
-        <v>11100</v>
+        <v>13900</v>
       </c>
       <c r="J27" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K27" s="3">
         <v>8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="3">
         <v>5500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4200</v>
+        <v>-280500</v>
       </c>
       <c r="E32" s="3">
-        <v>-6300</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
-        <v>-8200</v>
+        <v>-6600</v>
       </c>
       <c r="G32" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="H32" s="3">
-        <v>-3500</v>
+        <v>-9100</v>
       </c>
       <c r="I32" s="3">
-        <v>-5400</v>
+        <v>-3600</v>
       </c>
       <c r="J32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10200</v>
+        <v>269100</v>
       </c>
       <c r="E33" s="3">
-        <v>-5600</v>
+        <v>10700</v>
       </c>
       <c r="F33" s="3">
-        <v>15300</v>
+        <v>-5800</v>
       </c>
       <c r="G33" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="H33" s="3">
-        <v>13300</v>
+        <v>17900</v>
       </c>
       <c r="I33" s="3">
-        <v>11100</v>
+        <v>13900</v>
       </c>
       <c r="J33" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K33" s="3">
         <v>8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="3">
         <v>5500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10200</v>
+        <v>269100</v>
       </c>
       <c r="E35" s="3">
-        <v>-5600</v>
+        <v>10700</v>
       </c>
       <c r="F35" s="3">
-        <v>15300</v>
+        <v>-5800</v>
       </c>
       <c r="G35" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="H35" s="3">
-        <v>13300</v>
+        <v>17900</v>
       </c>
       <c r="I35" s="3">
-        <v>11100</v>
+        <v>13900</v>
       </c>
       <c r="J35" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K35" s="3">
         <v>8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="3">
         <v>5500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>292000</v>
+        <v>216500</v>
       </c>
       <c r="E41" s="3">
-        <v>398100</v>
+        <v>305800</v>
       </c>
       <c r="F41" s="3">
-        <v>290800</v>
+        <v>417000</v>
       </c>
       <c r="G41" s="3">
-        <v>268900</v>
+        <v>304600</v>
       </c>
       <c r="H41" s="3">
-        <v>233800</v>
+        <v>281600</v>
       </c>
       <c r="I41" s="3">
-        <v>316300</v>
+        <v>244900</v>
       </c>
       <c r="J41" s="3">
+        <v>331300</v>
+      </c>
+      <c r="K41" s="3">
         <v>423000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>509800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>447900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>281600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>119200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2280,50 +2367,53 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>121300</v>
+        <v>173400</v>
       </c>
       <c r="E42" s="3">
-        <v>107700</v>
+        <v>127000</v>
       </c>
       <c r="F42" s="3">
-        <v>86700</v>
+        <v>112800</v>
       </c>
       <c r="G42" s="3">
-        <v>67000</v>
+        <v>90900</v>
       </c>
       <c r="H42" s="3">
-        <v>79300</v>
+        <v>70200</v>
       </c>
       <c r="I42" s="3">
-        <v>16200</v>
+        <v>83100</v>
       </c>
       <c r="J42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K42" s="3">
         <v>38600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>28200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>86000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2333,50 +2423,53 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>254500</v>
+        <v>331600</v>
       </c>
       <c r="E43" s="3">
-        <v>264600</v>
+        <v>266600</v>
       </c>
       <c r="F43" s="3">
-        <v>269100</v>
+        <v>277100</v>
       </c>
       <c r="G43" s="3">
-        <v>240600</v>
+        <v>281800</v>
       </c>
       <c r="H43" s="3">
-        <v>239300</v>
+        <v>252000</v>
       </c>
       <c r="I43" s="3">
-        <v>224800</v>
+        <v>250700</v>
       </c>
       <c r="J43" s="3">
+        <v>235500</v>
+      </c>
+      <c r="K43" s="3">
         <v>176500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>119300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>82100</v>
+        <v>46100</v>
       </c>
       <c r="E45" s="3">
-        <v>111200</v>
+        <v>86000</v>
       </c>
       <c r="F45" s="3">
-        <v>158100</v>
+        <v>116500</v>
       </c>
       <c r="G45" s="3">
-        <v>102600</v>
+        <v>165600</v>
       </c>
       <c r="H45" s="3">
-        <v>96500</v>
+        <v>107500</v>
       </c>
       <c r="I45" s="3">
-        <v>91900</v>
+        <v>101100</v>
       </c>
       <c r="J45" s="3">
+        <v>96200</v>
+      </c>
+      <c r="K45" s="3">
         <v>52300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>163300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>749800</v>
+        <v>767700</v>
       </c>
       <c r="E46" s="3">
-        <v>881600</v>
+        <v>785400</v>
       </c>
       <c r="F46" s="3">
-        <v>804700</v>
+        <v>923400</v>
       </c>
       <c r="G46" s="3">
-        <v>679100</v>
+        <v>842900</v>
       </c>
       <c r="H46" s="3">
-        <v>649000</v>
+        <v>711300</v>
       </c>
       <c r="I46" s="3">
-        <v>649200</v>
+        <v>679700</v>
       </c>
       <c r="J46" s="3">
+        <v>680000</v>
+      </c>
+      <c r="K46" s="3">
         <v>690500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>667600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>636800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>408800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>164500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>164700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2545,50 +2647,53 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>227900</v>
+        <v>567100</v>
       </c>
       <c r="E47" s="3">
-        <v>264700</v>
+        <v>238700</v>
       </c>
       <c r="F47" s="3">
-        <v>291700</v>
+        <v>277300</v>
       </c>
       <c r="G47" s="3">
-        <v>303600</v>
+        <v>305500</v>
       </c>
       <c r="H47" s="3">
-        <v>293200</v>
+        <v>318000</v>
       </c>
       <c r="I47" s="3">
-        <v>306500</v>
+        <v>307100</v>
       </c>
       <c r="J47" s="3">
+        <v>321000</v>
+      </c>
+      <c r="K47" s="3">
         <v>228900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>145700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>51000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>71900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>64200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2598,50 +2703,53 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H48" s="3">
         <v>2400</v>
       </c>
       <c r="I48" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="J48" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K48" s="3">
         <v>2700</v>
       </c>
       <c r="L48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,49 +2759,52 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27500</v>
+        <v>28900</v>
       </c>
       <c r="E49" s="3">
-        <v>27600</v>
+        <v>28800</v>
       </c>
       <c r="F49" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="G49" s="3">
-        <v>26000</v>
+        <v>28900</v>
       </c>
       <c r="H49" s="3">
-        <v>26000</v>
+        <v>27300</v>
       </c>
       <c r="I49" s="3">
-        <v>26000</v>
+        <v>27200</v>
       </c>
       <c r="J49" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K49" s="3">
         <v>21300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>200</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
+      <c r="P49" s="3">
+        <v>300</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>16</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>155100</v>
+        <v>183700</v>
       </c>
       <c r="E52" s="3">
-        <v>151600</v>
+        <v>162400</v>
       </c>
       <c r="F52" s="3">
-        <v>142700</v>
+        <v>158800</v>
       </c>
       <c r="G52" s="3">
-        <v>131900</v>
+        <v>149500</v>
       </c>
       <c r="H52" s="3">
-        <v>130200</v>
+        <v>138100</v>
       </c>
       <c r="I52" s="3">
-        <v>131000</v>
+        <v>136300</v>
       </c>
       <c r="J52" s="3">
+        <v>137200</v>
+      </c>
+      <c r="K52" s="3">
         <v>117000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>95100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>83500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>77000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1162200</v>
+        <v>1549400</v>
       </c>
       <c r="E54" s="3">
-        <v>1327400</v>
+        <v>1217300</v>
       </c>
       <c r="F54" s="3">
-        <v>1268800</v>
+        <v>1390300</v>
       </c>
       <c r="G54" s="3">
-        <v>1142800</v>
+        <v>1329000</v>
       </c>
       <c r="H54" s="3">
-        <v>1100700</v>
+        <v>1197000</v>
       </c>
       <c r="I54" s="3">
-        <v>1115400</v>
+        <v>1153000</v>
       </c>
       <c r="J54" s="3">
+        <v>1168300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1060300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>931700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>774000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>538700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>296400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>257200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3040,21 +3171,21 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3064,50 +3195,53 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>273600</v>
+        <v>254900</v>
       </c>
       <c r="E58" s="3">
-        <v>369100</v>
+        <v>286600</v>
       </c>
       <c r="F58" s="3">
-        <v>334500</v>
+        <v>386600</v>
       </c>
       <c r="G58" s="3">
-        <v>268200</v>
+        <v>350400</v>
       </c>
       <c r="H58" s="3">
-        <v>240000</v>
+        <v>280900</v>
       </c>
       <c r="I58" s="3">
-        <v>232300</v>
+        <v>251400</v>
       </c>
       <c r="J58" s="3">
+        <v>243300</v>
+      </c>
+      <c r="K58" s="3">
         <v>163700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>66500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P58" s="3">
         <v>13800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>75900</v>
+        <v>95700</v>
       </c>
       <c r="E59" s="3">
-        <v>87200</v>
+        <v>79500</v>
       </c>
       <c r="F59" s="3">
-        <v>88000</v>
+        <v>91300</v>
       </c>
       <c r="G59" s="3">
-        <v>61000</v>
+        <v>92200</v>
       </c>
       <c r="H59" s="3">
-        <v>60800</v>
+        <v>63900</v>
       </c>
       <c r="I59" s="3">
-        <v>69800</v>
+        <v>63700</v>
       </c>
       <c r="J59" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K59" s="3">
         <v>63600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>63400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>349500</v>
+        <v>350600</v>
       </c>
       <c r="E60" s="3">
-        <v>456300</v>
+        <v>366100</v>
       </c>
       <c r="F60" s="3">
-        <v>422500</v>
+        <v>477900</v>
       </c>
       <c r="G60" s="3">
-        <v>329200</v>
+        <v>442500</v>
       </c>
       <c r="H60" s="3">
-        <v>300800</v>
+        <v>344800</v>
       </c>
       <c r="I60" s="3">
-        <v>302000</v>
+        <v>315100</v>
       </c>
       <c r="J60" s="3">
+        <v>316400</v>
+      </c>
+      <c r="K60" s="3">
         <v>227300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>118800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>63400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>78100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3223,50 +3363,53 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43800</v>
+        <v>107500</v>
       </c>
       <c r="E61" s="3">
-        <v>70500</v>
+        <v>45900</v>
       </c>
       <c r="F61" s="3">
-        <v>43800</v>
+        <v>73800</v>
       </c>
       <c r="G61" s="3">
-        <v>33400</v>
+        <v>45900</v>
       </c>
       <c r="H61" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>47800</v>
+      </c>
+      <c r="J61" s="3">
         <v>45700</v>
       </c>
-      <c r="I61" s="3">
-        <v>43600</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>68700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81400</v>
-      </c>
-      <c r="L61" s="3">
-        <v>25100</v>
       </c>
       <c r="M61" s="3">
         <v>25100</v>
       </c>
       <c r="N61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="O61" s="3">
         <v>26000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3276,49 +3419,52 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L62" s="3">
         <v>4600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5000</v>
       </c>
       <c r="M62" s="3">
         <v>5000</v>
       </c>
       <c r="N62" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="O62" s="3">
         <v>5300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
+      <c r="P62" s="3">
+        <v>5300</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>398000</v>
+        <v>494500</v>
       </c>
       <c r="E66" s="3">
-        <v>530800</v>
+        <v>416900</v>
       </c>
       <c r="F66" s="3">
-        <v>473300</v>
+        <v>556000</v>
       </c>
       <c r="G66" s="3">
-        <v>363400</v>
+        <v>495700</v>
       </c>
       <c r="H66" s="3">
-        <v>346700</v>
+        <v>380600</v>
       </c>
       <c r="I66" s="3">
-        <v>345500</v>
+        <v>363200</v>
       </c>
       <c r="J66" s="3">
+        <v>361900</v>
+      </c>
+      <c r="K66" s="3">
         <v>297600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>206000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>94800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>113200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>79200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>771700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>565600</v>
-      </c>
-      <c r="N70" s="3">
-        <v>585000</v>
       </c>
       <c r="O70" s="3">
         <v>585000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>585000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +3945,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>89700</v>
+        <v>363100</v>
       </c>
       <c r="E72" s="3">
-        <v>118200</v>
+        <v>94000</v>
       </c>
       <c r="F72" s="3">
-        <v>123800</v>
+        <v>123900</v>
       </c>
       <c r="G72" s="3">
-        <v>105900</v>
+        <v>129700</v>
       </c>
       <c r="H72" s="3">
-        <v>88800</v>
+        <v>111000</v>
       </c>
       <c r="I72" s="3">
-        <v>112400</v>
+        <v>93100</v>
       </c>
       <c r="J72" s="3">
+        <v>117800</v>
+      </c>
+      <c r="K72" s="3">
         <v>101400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>708000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-96700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-122100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-402400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-407600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>764100</v>
+        <v>1054900</v>
       </c>
       <c r="E76" s="3">
-        <v>796500</v>
+        <v>800400</v>
       </c>
       <c r="F76" s="3">
-        <v>795500</v>
+        <v>834300</v>
       </c>
       <c r="G76" s="3">
-        <v>779400</v>
+        <v>833300</v>
       </c>
       <c r="H76" s="3">
-        <v>754000</v>
+        <v>816400</v>
       </c>
       <c r="I76" s="3">
-        <v>769900</v>
+        <v>789800</v>
       </c>
       <c r="J76" s="3">
+        <v>806400</v>
+      </c>
+      <c r="K76" s="3">
         <v>762700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>725700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-89700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-121600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-401800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-407000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10200</v>
+        <v>269100</v>
       </c>
       <c r="E81" s="3">
-        <v>-5600</v>
+        <v>10700</v>
       </c>
       <c r="F81" s="3">
-        <v>15300</v>
+        <v>-5800</v>
       </c>
       <c r="G81" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="H81" s="3">
-        <v>13300</v>
+        <v>17900</v>
       </c>
       <c r="I81" s="3">
-        <v>11100</v>
+        <v>13900</v>
       </c>
       <c r="J81" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K81" s="3">
         <v>8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R81" s="3">
         <v>5500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4253,18 +4452,18 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4571,18 +4788,18 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4645,18 +4866,18 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4804,18 +5034,18 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="3">
         <v>-61400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5090,18 +5336,18 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="3">
         <v>252400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5143,18 +5392,18 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5196,18 +5448,18 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3">
         <v>184600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>36800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>16</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66200</v>
+        <v>167700</v>
       </c>
       <c r="E8" s="3">
-        <v>41700</v>
+        <v>66400</v>
       </c>
       <c r="F8" s="3">
-        <v>37400</v>
+        <v>41900</v>
       </c>
       <c r="G8" s="3">
-        <v>61000</v>
+        <v>37600</v>
       </c>
       <c r="H8" s="3">
-        <v>53400</v>
+        <v>61200</v>
       </c>
       <c r="I8" s="3">
-        <v>51200</v>
+        <v>53700</v>
       </c>
       <c r="J8" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K8" s="3">
         <v>53500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27500</v>
+        <v>110600</v>
       </c>
       <c r="E9" s="3">
-        <v>15600</v>
+        <v>27600</v>
       </c>
       <c r="F9" s="3">
+        <v>15700</v>
+      </c>
+      <c r="G9" s="3">
         <v>13800</v>
       </c>
-      <c r="G9" s="3">
-        <v>23900</v>
-      </c>
       <c r="H9" s="3">
-        <v>19100</v>
+        <v>24000</v>
       </c>
       <c r="I9" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="J9" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K9" s="3">
         <v>19900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>27200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38600</v>
+        <v>57100</v>
       </c>
       <c r="E10" s="3">
-        <v>26100</v>
+        <v>38800</v>
       </c>
       <c r="F10" s="3">
-        <v>23600</v>
+        <v>26200</v>
       </c>
       <c r="G10" s="3">
-        <v>37100</v>
+        <v>23700</v>
       </c>
       <c r="H10" s="3">
-        <v>34400</v>
+        <v>37200</v>
       </c>
       <c r="I10" s="3">
-        <v>32000</v>
+        <v>34500</v>
       </c>
       <c r="J10" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K10" s="3">
         <v>33600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2000</v>
       </c>
-      <c r="E14" s="3">
-        <v>-6500</v>
-      </c>
       <c r="F14" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G14" s="3">
         <v>11700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>45700</v>
+        <v>137300</v>
       </c>
       <c r="E17" s="3">
-        <v>31500</v>
+        <v>45900</v>
       </c>
       <c r="F17" s="3">
-        <v>49800</v>
+        <v>31700</v>
       </c>
       <c r="G17" s="3">
-        <v>48800</v>
+        <v>50000</v>
       </c>
       <c r="H17" s="3">
-        <v>39800</v>
+        <v>49000</v>
       </c>
       <c r="I17" s="3">
-        <v>38300</v>
+        <v>40000</v>
       </c>
       <c r="J17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K17" s="3">
         <v>42900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>40400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E18" s="3">
         <v>20500</v>
       </c>
-      <c r="E18" s="3">
-        <v>10100</v>
-      </c>
       <c r="F18" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-12400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13700</v>
       </c>
-      <c r="I18" s="3">
-        <v>12800</v>
-      </c>
       <c r="J18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K18" s="3">
         <v>10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>280500</v>
+        <v>230900</v>
       </c>
       <c r="E20" s="3">
+        <v>281700</v>
+      </c>
+      <c r="F20" s="3">
         <v>4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6600</v>
       </c>
-      <c r="G20" s="3">
-        <v>8600</v>
-      </c>
       <c r="H20" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="I20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1404,29 +1440,32 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>17200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>15600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,22 +1476,22 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
@@ -1464,137 +1503,146 @@
         <v>700</v>
       </c>
       <c r="O22" s="3">
+        <v>700</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300900</v>
+        <v>261100</v>
       </c>
       <c r="E23" s="3">
-        <v>14500</v>
+        <v>302200</v>
       </c>
       <c r="F23" s="3">
+        <v>14600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="G23" s="3">
-        <v>20800</v>
-      </c>
       <c r="H23" s="3">
-        <v>22300</v>
+        <v>20900</v>
       </c>
       <c r="I23" s="3">
-        <v>15700</v>
+        <v>22400</v>
       </c>
       <c r="J23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K23" s="3">
         <v>15400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31700</v>
+        <v>21500</v>
       </c>
       <c r="E24" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>269200</v>
+        <v>239600</v>
       </c>
       <c r="E26" s="3">
+        <v>270300</v>
+      </c>
+      <c r="F26" s="3">
         <v>10700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
-        <v>17300</v>
-      </c>
       <c r="H26" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="I26" s="3">
-        <v>14400</v>
+        <v>18700</v>
       </c>
       <c r="J26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K26" s="3">
         <v>11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="3">
         <v>11000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>269100</v>
+        <v>239600</v>
       </c>
       <c r="E27" s="3">
+        <v>270300</v>
+      </c>
+      <c r="F27" s="3">
         <v>10700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-5800</v>
-      </c>
       <c r="G27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H27" s="3">
         <v>16100</v>
       </c>
-      <c r="H27" s="3">
-        <v>17900</v>
-      </c>
       <c r="I27" s="3">
-        <v>13900</v>
+        <v>18000</v>
       </c>
       <c r="J27" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K27" s="3">
         <v>11600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="3">
         <v>5500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-280500</v>
+        <v>-230900</v>
       </c>
       <c r="E32" s="3">
+        <v>-281700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H32" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="I32" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>269100</v>
+        <v>239600</v>
       </c>
       <c r="E33" s="3">
+        <v>270300</v>
+      </c>
+      <c r="F33" s="3">
         <v>10700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-5800</v>
-      </c>
       <c r="G33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H33" s="3">
         <v>16100</v>
       </c>
-      <c r="H33" s="3">
-        <v>17900</v>
-      </c>
       <c r="I33" s="3">
-        <v>13900</v>
+        <v>18000</v>
       </c>
       <c r="J33" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K33" s="3">
         <v>11600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" s="3">
         <v>5500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>269100</v>
+        <v>239600</v>
       </c>
       <c r="E35" s="3">
+        <v>270300</v>
+      </c>
+      <c r="F35" s="3">
         <v>10700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-5800</v>
-      </c>
       <c r="G35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H35" s="3">
         <v>16100</v>
       </c>
-      <c r="H35" s="3">
-        <v>17900</v>
-      </c>
       <c r="I35" s="3">
-        <v>13900</v>
+        <v>18000</v>
       </c>
       <c r="J35" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K35" s="3">
         <v>11600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3">
         <v>5500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2399,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>216500</v>
+        <v>218000</v>
       </c>
       <c r="E41" s="3">
-        <v>305800</v>
+        <v>217500</v>
       </c>
       <c r="F41" s="3">
-        <v>417000</v>
+        <v>307100</v>
       </c>
       <c r="G41" s="3">
-        <v>304600</v>
+        <v>418800</v>
       </c>
       <c r="H41" s="3">
+        <v>305900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>282800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>245900</v>
+      </c>
+      <c r="K41" s="3">
+        <v>331300</v>
+      </c>
+      <c r="L41" s="3">
+        <v>423000</v>
+      </c>
+      <c r="M41" s="3">
+        <v>509800</v>
+      </c>
+      <c r="N41" s="3">
+        <v>447900</v>
+      </c>
+      <c r="O41" s="3">
         <v>281600</v>
       </c>
-      <c r="I41" s="3">
-        <v>244900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>331300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>423000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>509800</v>
-      </c>
-      <c r="M41" s="3">
-        <v>447900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>281600</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>119200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2370,53 +2456,56 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>173400</v>
+        <v>663400</v>
       </c>
       <c r="E42" s="3">
-        <v>127000</v>
+        <v>174200</v>
       </c>
       <c r="F42" s="3">
-        <v>112800</v>
+        <v>127600</v>
       </c>
       <c r="G42" s="3">
-        <v>90900</v>
+        <v>113300</v>
       </c>
       <c r="H42" s="3">
-        <v>70200</v>
+        <v>91300</v>
       </c>
       <c r="I42" s="3">
-        <v>83100</v>
+        <v>70500</v>
       </c>
       <c r="J42" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K42" s="3">
         <v>17000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>28200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>86000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2426,53 +2515,56 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>331600</v>
+        <v>391400</v>
       </c>
       <c r="E43" s="3">
-        <v>266600</v>
+        <v>333000</v>
       </c>
       <c r="F43" s="3">
-        <v>277100</v>
+        <v>267700</v>
       </c>
       <c r="G43" s="3">
-        <v>281800</v>
+        <v>278300</v>
       </c>
       <c r="H43" s="3">
-        <v>252000</v>
+        <v>283100</v>
       </c>
       <c r="I43" s="3">
-        <v>250700</v>
+        <v>253100</v>
       </c>
       <c r="J43" s="3">
+        <v>251800</v>
+      </c>
+      <c r="K43" s="3">
         <v>235500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>176500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>119300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,53 +2633,56 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46100</v>
+        <v>86800</v>
       </c>
       <c r="E45" s="3">
-        <v>86000</v>
+        <v>46300</v>
       </c>
       <c r="F45" s="3">
-        <v>116500</v>
+        <v>86400</v>
       </c>
       <c r="G45" s="3">
-        <v>165600</v>
+        <v>117000</v>
       </c>
       <c r="H45" s="3">
-        <v>107500</v>
+        <v>166300</v>
       </c>
       <c r="I45" s="3">
-        <v>101100</v>
+        <v>107900</v>
       </c>
       <c r="J45" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K45" s="3">
         <v>96200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>52300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>163300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2594,53 +2692,56 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>767700</v>
+        <v>1359600</v>
       </c>
       <c r="E46" s="3">
-        <v>785400</v>
+        <v>771000</v>
       </c>
       <c r="F46" s="3">
-        <v>923400</v>
+        <v>788800</v>
       </c>
       <c r="G46" s="3">
-        <v>842900</v>
+        <v>927400</v>
       </c>
       <c r="H46" s="3">
-        <v>711300</v>
+        <v>846500</v>
       </c>
       <c r="I46" s="3">
-        <v>679700</v>
+        <v>714400</v>
       </c>
       <c r="J46" s="3">
+        <v>682700</v>
+      </c>
+      <c r="K46" s="3">
         <v>680000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>690500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>667600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>636800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>408800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>164500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>164700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,53 +2751,56 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>567100</v>
+        <v>265200</v>
       </c>
       <c r="E47" s="3">
-        <v>238700</v>
+        <v>569600</v>
       </c>
       <c r="F47" s="3">
-        <v>277300</v>
+        <v>239700</v>
       </c>
       <c r="G47" s="3">
-        <v>305500</v>
+        <v>278500</v>
       </c>
       <c r="H47" s="3">
-        <v>318000</v>
+        <v>306900</v>
       </c>
       <c r="I47" s="3">
-        <v>307100</v>
+        <v>319300</v>
       </c>
       <c r="J47" s="3">
+        <v>308500</v>
+      </c>
+      <c r="K47" s="3">
         <v>321000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>228900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>145700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>51000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>50900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>71900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>64200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2706,13 +2810,16 @@
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
         <v>2000</v>
@@ -2721,38 +2828,38 @@
         <v>2000</v>
       </c>
       <c r="G48" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
-        <v>2500</v>
-      </c>
       <c r="J48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2700</v>
       </c>
       <c r="L48" s="3">
         <v>2700</v>
       </c>
       <c r="M48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2762,52 +2869,55 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="E49" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="F49" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="G49" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="H49" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>27400</v>
+      </c>
+      <c r="J49" s="3">
         <v>27300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>27200</v>
       </c>
-      <c r="J49" s="3">
-        <v>27200</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>200</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
       </c>
       <c r="O49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
+      <c r="Q49" s="3">
+        <v>300</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>16</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3046,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>183700</v>
+        <v>200300</v>
       </c>
       <c r="E52" s="3">
-        <v>162400</v>
+        <v>184500</v>
       </c>
       <c r="F52" s="3">
-        <v>158800</v>
+        <v>163100</v>
       </c>
       <c r="G52" s="3">
-        <v>149500</v>
+        <v>159500</v>
       </c>
       <c r="H52" s="3">
-        <v>138100</v>
+        <v>150100</v>
       </c>
       <c r="I52" s="3">
-        <v>136300</v>
+        <v>138700</v>
       </c>
       <c r="J52" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K52" s="3">
         <v>137200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>117000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>95100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>83500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>77000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3164,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1549400</v>
+        <v>1855700</v>
       </c>
       <c r="E54" s="3">
-        <v>1217300</v>
+        <v>1556100</v>
       </c>
       <c r="F54" s="3">
-        <v>1390300</v>
+        <v>1222600</v>
       </c>
       <c r="G54" s="3">
-        <v>1329000</v>
+        <v>1396400</v>
       </c>
       <c r="H54" s="3">
-        <v>1197000</v>
+        <v>1334800</v>
       </c>
       <c r="I54" s="3">
-        <v>1153000</v>
+        <v>1202200</v>
       </c>
       <c r="J54" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1168300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1060300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>931700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>774000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>538700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>296400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>257200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3174,21 +3304,21 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3198,53 +3328,56 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>254900</v>
+        <v>242100</v>
       </c>
       <c r="E58" s="3">
-        <v>286600</v>
+        <v>256000</v>
       </c>
       <c r="F58" s="3">
-        <v>386600</v>
+        <v>287900</v>
       </c>
       <c r="G58" s="3">
-        <v>350400</v>
+        <v>388300</v>
       </c>
       <c r="H58" s="3">
-        <v>280900</v>
+        <v>351900</v>
       </c>
       <c r="I58" s="3">
-        <v>251400</v>
+        <v>282100</v>
       </c>
       <c r="J58" s="3">
+        <v>252500</v>
+      </c>
+      <c r="K58" s="3">
         <v>243300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>163700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>66500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="3">
         <v>13800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3254,53 +3387,56 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>95700</v>
+        <v>133300</v>
       </c>
       <c r="E59" s="3">
-        <v>79500</v>
+        <v>96100</v>
       </c>
       <c r="F59" s="3">
-        <v>91300</v>
+        <v>79900</v>
       </c>
       <c r="G59" s="3">
-        <v>92200</v>
+        <v>91700</v>
       </c>
       <c r="H59" s="3">
-        <v>63900</v>
+        <v>92600</v>
       </c>
       <c r="I59" s="3">
-        <v>63700</v>
+        <v>64200</v>
       </c>
       <c r="J59" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K59" s="3">
         <v>73100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>63600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>60000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>63400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,53 +3446,56 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>350600</v>
+        <v>375400</v>
       </c>
       <c r="E60" s="3">
-        <v>366100</v>
+        <v>352100</v>
       </c>
       <c r="F60" s="3">
-        <v>477900</v>
+        <v>367700</v>
       </c>
       <c r="G60" s="3">
-        <v>442500</v>
+        <v>480000</v>
       </c>
       <c r="H60" s="3">
-        <v>344800</v>
+        <v>444500</v>
       </c>
       <c r="I60" s="3">
-        <v>315100</v>
+        <v>346300</v>
       </c>
       <c r="J60" s="3">
+        <v>316500</v>
+      </c>
+      <c r="K60" s="3">
         <v>316400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>227300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>118800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>63400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>54300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3366,53 +3505,56 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>107500</v>
+        <v>149400</v>
       </c>
       <c r="E61" s="3">
-        <v>45900</v>
+        <v>108000</v>
       </c>
       <c r="F61" s="3">
-        <v>73800</v>
+        <v>46100</v>
       </c>
       <c r="G61" s="3">
-        <v>45900</v>
+        <v>74100</v>
       </c>
       <c r="H61" s="3">
-        <v>35000</v>
+        <v>46100</v>
       </c>
       <c r="I61" s="3">
-        <v>47800</v>
+        <v>35200</v>
       </c>
       <c r="J61" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K61" s="3">
         <v>45700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>68700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81400</v>
-      </c>
-      <c r="M61" s="3">
-        <v>25100</v>
       </c>
       <c r="N61" s="3">
         <v>25100</v>
       </c>
       <c r="O61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="P61" s="3">
         <v>26000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,52 +3564,55 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36400</v>
+        <v>51300</v>
       </c>
       <c r="E62" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F62" s="3">
         <v>4900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5200</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>5000</v>
       </c>
       <c r="N62" s="3">
         <v>5000</v>
       </c>
       <c r="O62" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="P62" s="3">
         <v>5300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
+      <c r="Q62" s="3">
+        <v>5300</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>16</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3800,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>494500</v>
+        <v>576100</v>
       </c>
       <c r="E66" s="3">
-        <v>416900</v>
+        <v>496600</v>
       </c>
       <c r="F66" s="3">
-        <v>556000</v>
+        <v>418700</v>
       </c>
       <c r="G66" s="3">
-        <v>495700</v>
+        <v>558400</v>
       </c>
       <c r="H66" s="3">
-        <v>380600</v>
+        <v>497900</v>
       </c>
       <c r="I66" s="3">
-        <v>363200</v>
+        <v>382300</v>
       </c>
       <c r="J66" s="3">
+        <v>364700</v>
+      </c>
+      <c r="K66" s="3">
         <v>361900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>297600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>206000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>92000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>94800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>113200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>79200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,19 +4036,19 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>771700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>565600</v>
-      </c>
-      <c r="O70" s="3">
-        <v>585000</v>
       </c>
       <c r="P70" s="3">
         <v>585000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>585000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4118,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>363100</v>
+        <v>604300</v>
       </c>
       <c r="E72" s="3">
-        <v>94000</v>
+        <v>364700</v>
       </c>
       <c r="F72" s="3">
-        <v>123900</v>
+        <v>94400</v>
       </c>
       <c r="G72" s="3">
-        <v>129700</v>
+        <v>124400</v>
       </c>
       <c r="H72" s="3">
-        <v>111000</v>
+        <v>130200</v>
       </c>
       <c r="I72" s="3">
-        <v>93100</v>
+        <v>111400</v>
       </c>
       <c r="J72" s="3">
+        <v>93500</v>
+      </c>
+      <c r="K72" s="3">
         <v>117800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>101400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>708000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-96700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-122100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-402400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-407600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4354,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1054900</v>
+        <v>1279600</v>
       </c>
       <c r="E76" s="3">
-        <v>800400</v>
+        <v>1059500</v>
       </c>
       <c r="F76" s="3">
-        <v>834300</v>
+        <v>803900</v>
       </c>
       <c r="G76" s="3">
-        <v>833300</v>
+        <v>837900</v>
       </c>
       <c r="H76" s="3">
-        <v>816400</v>
+        <v>836900</v>
       </c>
       <c r="I76" s="3">
-        <v>789800</v>
+        <v>819900</v>
       </c>
       <c r="J76" s="3">
+        <v>793200</v>
+      </c>
+      <c r="K76" s="3">
         <v>806400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>762700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>725700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-89700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-121600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-401800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-407000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>269100</v>
+        <v>239600</v>
       </c>
       <c r="E81" s="3">
+        <v>270300</v>
+      </c>
+      <c r="F81" s="3">
         <v>10700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-5800</v>
-      </c>
       <c r="G81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H81" s="3">
         <v>16100</v>
       </c>
-      <c r="H81" s="3">
-        <v>17900</v>
-      </c>
       <c r="I81" s="3">
-        <v>13900</v>
+        <v>18000</v>
       </c>
       <c r="J81" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K81" s="3">
         <v>11600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S81" s="3">
         <v>5500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4455,18 +4653,18 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4791,18 +5007,18 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4869,18 +5089,18 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5037,18 +5266,18 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="3">
         <v>-61400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5339,18 +5584,18 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="3">
         <v>252400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5395,18 +5643,18 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5451,18 +5702,18 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3">
         <v>184600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>36800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>16</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>167700</v>
+        <v>171200</v>
       </c>
       <c r="E8" s="3">
-        <v>66400</v>
+        <v>67800</v>
       </c>
       <c r="F8" s="3">
-        <v>41900</v>
+        <v>42800</v>
       </c>
       <c r="G8" s="3">
-        <v>37600</v>
+        <v>38400</v>
       </c>
       <c r="H8" s="3">
-        <v>61200</v>
+        <v>62500</v>
       </c>
       <c r="I8" s="3">
-        <v>53700</v>
+        <v>54800</v>
       </c>
       <c r="J8" s="3">
-        <v>51400</v>
+        <v>52500</v>
       </c>
       <c r="K8" s="3">
         <v>53500</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>110600</v>
+        <v>112900</v>
       </c>
       <c r="E9" s="3">
-        <v>27600</v>
+        <v>28200</v>
       </c>
       <c r="F9" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="G9" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="H9" s="3">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="I9" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="J9" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="K9" s="3">
         <v>19900</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57100</v>
+        <v>58300</v>
       </c>
       <c r="E10" s="3">
-        <v>38800</v>
+        <v>39600</v>
       </c>
       <c r="F10" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="G10" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="H10" s="3">
-        <v>37200</v>
+        <v>38000</v>
       </c>
       <c r="I10" s="3">
-        <v>34500</v>
+        <v>35200</v>
       </c>
       <c r="J10" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="K10" s="3">
         <v>33600</v>
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E12" s="3">
         <v>2200</v>
@@ -964,13 +964,13 @@
         <v>2000</v>
       </c>
       <c r="G12" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H12" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I12" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J12" s="3">
         <v>1900</v>
@@ -1079,16 +1079,16 @@
         <v>-2000</v>
       </c>
       <c r="F14" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="G14" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="H14" s="3">
         <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J14" s="3">
         <v>400</v>
@@ -1211,25 +1211,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>137300</v>
+        <v>140300</v>
       </c>
       <c r="E17" s="3">
-        <v>45900</v>
+        <v>46900</v>
       </c>
       <c r="F17" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="G17" s="3">
-        <v>50000</v>
+        <v>51100</v>
       </c>
       <c r="H17" s="3">
-        <v>49000</v>
+        <v>50100</v>
       </c>
       <c r="I17" s="3">
-        <v>40000</v>
+        <v>40800</v>
       </c>
       <c r="J17" s="3">
-        <v>38500</v>
+        <v>39300</v>
       </c>
       <c r="K17" s="3">
         <v>42900</v>
@@ -1270,25 +1270,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>30300</v>
+        <v>31000</v>
       </c>
       <c r="E18" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="F18" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="G18" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="H18" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="I18" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="J18" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="K18" s="3">
         <v>10600</v>
@@ -1352,25 +1352,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>230900</v>
+        <v>235800</v>
       </c>
       <c r="E20" s="3">
-        <v>281700</v>
+        <v>287700</v>
       </c>
       <c r="F20" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G20" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="H20" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="I20" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="J20" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K20" s="3">
         <v>5700</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>261100</v>
+        <v>266700</v>
       </c>
       <c r="E23" s="3">
-        <v>302200</v>
+        <v>308600</v>
       </c>
       <c r="F23" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="G23" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="H23" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="I23" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="J23" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="K23" s="3">
         <v>15400</v>
@@ -1588,25 +1588,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="E24" s="3">
-        <v>31800</v>
+        <v>32500</v>
       </c>
       <c r="F24" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G24" s="3">
         <v>-700</v>
       </c>
       <c r="H24" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J24" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K24" s="3">
         <v>4100</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>239600</v>
+        <v>244700</v>
       </c>
       <c r="E26" s="3">
-        <v>270300</v>
+        <v>276000</v>
       </c>
       <c r="F26" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="G26" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="H26" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="I26" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="J26" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="K26" s="3">
         <v>11300</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>239600</v>
+        <v>244700</v>
       </c>
       <c r="E27" s="3">
-        <v>270300</v>
+        <v>276000</v>
       </c>
       <c r="F27" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="G27" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H27" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="I27" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="J27" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="K27" s="3">
         <v>11600</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-230900</v>
+        <v>-235800</v>
       </c>
       <c r="E32" s="3">
-        <v>-281700</v>
+        <v>-287700</v>
       </c>
       <c r="F32" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="G32" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="H32" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="I32" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="J32" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="K32" s="3">
         <v>-5700</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>239600</v>
+        <v>244700</v>
       </c>
       <c r="E33" s="3">
-        <v>270300</v>
+        <v>276000</v>
       </c>
       <c r="F33" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="G33" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H33" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="I33" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="J33" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="K33" s="3">
         <v>11600</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>239600</v>
+        <v>244700</v>
       </c>
       <c r="E35" s="3">
-        <v>270300</v>
+        <v>276000</v>
       </c>
       <c r="F35" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="G35" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H35" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="I35" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="J35" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="K35" s="3">
         <v>11600</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>218000</v>
+        <v>222600</v>
       </c>
       <c r="E41" s="3">
-        <v>217500</v>
+        <v>222000</v>
       </c>
       <c r="F41" s="3">
-        <v>307100</v>
+        <v>313600</v>
       </c>
       <c r="G41" s="3">
-        <v>418800</v>
+        <v>427600</v>
       </c>
       <c r="H41" s="3">
-        <v>305900</v>
+        <v>312400</v>
       </c>
       <c r="I41" s="3">
-        <v>282800</v>
+        <v>288800</v>
       </c>
       <c r="J41" s="3">
-        <v>245900</v>
+        <v>251100</v>
       </c>
       <c r="K41" s="3">
         <v>331300</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>663400</v>
+        <v>677500</v>
       </c>
       <c r="E42" s="3">
-        <v>174200</v>
+        <v>177900</v>
       </c>
       <c r="F42" s="3">
-        <v>127600</v>
+        <v>130300</v>
       </c>
       <c r="G42" s="3">
-        <v>113300</v>
+        <v>115700</v>
       </c>
       <c r="H42" s="3">
-        <v>91300</v>
+        <v>93200</v>
       </c>
       <c r="I42" s="3">
-        <v>70500</v>
+        <v>72000</v>
       </c>
       <c r="J42" s="3">
-        <v>83400</v>
+        <v>85200</v>
       </c>
       <c r="K42" s="3">
         <v>17000</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>391400</v>
+        <v>399700</v>
       </c>
       <c r="E43" s="3">
-        <v>333000</v>
+        <v>340100</v>
       </c>
       <c r="F43" s="3">
-        <v>267700</v>
+        <v>273400</v>
       </c>
       <c r="G43" s="3">
-        <v>278300</v>
+        <v>284200</v>
       </c>
       <c r="H43" s="3">
-        <v>283100</v>
+        <v>289000</v>
       </c>
       <c r="I43" s="3">
-        <v>253100</v>
+        <v>258400</v>
       </c>
       <c r="J43" s="3">
-        <v>251800</v>
+        <v>257100</v>
       </c>
       <c r="K43" s="3">
         <v>235500</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86800</v>
+        <v>88600</v>
       </c>
       <c r="E45" s="3">
-        <v>46300</v>
+        <v>47300</v>
       </c>
       <c r="F45" s="3">
-        <v>86400</v>
+        <v>88200</v>
       </c>
       <c r="G45" s="3">
-        <v>117000</v>
+        <v>119500</v>
       </c>
       <c r="H45" s="3">
-        <v>166300</v>
+        <v>169800</v>
       </c>
       <c r="I45" s="3">
-        <v>107900</v>
+        <v>110200</v>
       </c>
       <c r="J45" s="3">
-        <v>101600</v>
+        <v>103700</v>
       </c>
       <c r="K45" s="3">
         <v>96200</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1359600</v>
+        <v>1388300</v>
       </c>
       <c r="E46" s="3">
-        <v>771000</v>
+        <v>787300</v>
       </c>
       <c r="F46" s="3">
-        <v>788800</v>
+        <v>805500</v>
       </c>
       <c r="G46" s="3">
-        <v>927400</v>
+        <v>947000</v>
       </c>
       <c r="H46" s="3">
-        <v>846500</v>
+        <v>864400</v>
       </c>
       <c r="I46" s="3">
-        <v>714400</v>
+        <v>729500</v>
       </c>
       <c r="J46" s="3">
-        <v>682700</v>
+        <v>697100</v>
       </c>
       <c r="K46" s="3">
         <v>680000</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>265200</v>
+        <v>270800</v>
       </c>
       <c r="E47" s="3">
-        <v>569600</v>
+        <v>581600</v>
       </c>
       <c r="F47" s="3">
-        <v>239700</v>
+        <v>244800</v>
       </c>
       <c r="G47" s="3">
-        <v>278500</v>
+        <v>284400</v>
       </c>
       <c r="H47" s="3">
-        <v>306900</v>
+        <v>313300</v>
       </c>
       <c r="I47" s="3">
-        <v>319300</v>
+        <v>326100</v>
       </c>
       <c r="J47" s="3">
-        <v>308500</v>
+        <v>315000</v>
       </c>
       <c r="K47" s="3">
         <v>321000</v>
@@ -2822,13 +2822,13 @@
         <v>1600</v>
       </c>
       <c r="E48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F48" s="3">
         <v>2000</v>
       </c>
       <c r="G48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H48" s="3">
         <v>2300</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="E49" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="F49" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="G49" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="H49" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="I49" s="3">
-        <v>27400</v>
+        <v>28000</v>
       </c>
       <c r="J49" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="K49" s="3">
         <v>27200</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200300</v>
+        <v>204500</v>
       </c>
       <c r="E52" s="3">
-        <v>184500</v>
+        <v>188400</v>
       </c>
       <c r="F52" s="3">
-        <v>163100</v>
+        <v>166600</v>
       </c>
       <c r="G52" s="3">
-        <v>159500</v>
+        <v>162800</v>
       </c>
       <c r="H52" s="3">
-        <v>150100</v>
+        <v>153300</v>
       </c>
       <c r="I52" s="3">
-        <v>138700</v>
+        <v>141700</v>
       </c>
       <c r="J52" s="3">
-        <v>136900</v>
+        <v>139800</v>
       </c>
       <c r="K52" s="3">
         <v>137200</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1855700</v>
+        <v>1894900</v>
       </c>
       <c r="E54" s="3">
-        <v>1556100</v>
+        <v>1589000</v>
       </c>
       <c r="F54" s="3">
-        <v>1222600</v>
+        <v>1248400</v>
       </c>
       <c r="G54" s="3">
-        <v>1396400</v>
+        <v>1425900</v>
       </c>
       <c r="H54" s="3">
-        <v>1334800</v>
+        <v>1363000</v>
       </c>
       <c r="I54" s="3">
-        <v>1202200</v>
+        <v>1227600</v>
       </c>
       <c r="J54" s="3">
-        <v>1158000</v>
+        <v>1182500</v>
       </c>
       <c r="K54" s="3">
         <v>1168300</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>242100</v>
+        <v>247200</v>
       </c>
       <c r="E58" s="3">
-        <v>256000</v>
+        <v>261400</v>
       </c>
       <c r="F58" s="3">
-        <v>287900</v>
+        <v>293900</v>
       </c>
       <c r="G58" s="3">
-        <v>388300</v>
+        <v>396500</v>
       </c>
       <c r="H58" s="3">
-        <v>351900</v>
+        <v>359300</v>
       </c>
       <c r="I58" s="3">
-        <v>282100</v>
+        <v>288100</v>
       </c>
       <c r="J58" s="3">
-        <v>252500</v>
+        <v>257800</v>
       </c>
       <c r="K58" s="3">
         <v>243300</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>133300</v>
+        <v>136100</v>
       </c>
       <c r="E59" s="3">
-        <v>96100</v>
+        <v>98100</v>
       </c>
       <c r="F59" s="3">
-        <v>79900</v>
+        <v>81500</v>
       </c>
       <c r="G59" s="3">
-        <v>91700</v>
+        <v>93700</v>
       </c>
       <c r="H59" s="3">
-        <v>92600</v>
+        <v>94500</v>
       </c>
       <c r="I59" s="3">
-        <v>64200</v>
+        <v>65500</v>
       </c>
       <c r="J59" s="3">
-        <v>64000</v>
+        <v>65300</v>
       </c>
       <c r="K59" s="3">
         <v>73100</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>375400</v>
+        <v>383400</v>
       </c>
       <c r="E60" s="3">
-        <v>352100</v>
+        <v>359500</v>
       </c>
       <c r="F60" s="3">
-        <v>367700</v>
+        <v>375500</v>
       </c>
       <c r="G60" s="3">
-        <v>480000</v>
+        <v>490100</v>
       </c>
       <c r="H60" s="3">
-        <v>444500</v>
+        <v>453900</v>
       </c>
       <c r="I60" s="3">
-        <v>346300</v>
+        <v>353600</v>
       </c>
       <c r="J60" s="3">
-        <v>316500</v>
+        <v>323100</v>
       </c>
       <c r="K60" s="3">
         <v>316400</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>149400</v>
+        <v>152500</v>
       </c>
       <c r="E61" s="3">
-        <v>108000</v>
+        <v>110300</v>
       </c>
       <c r="F61" s="3">
-        <v>46100</v>
+        <v>47100</v>
       </c>
       <c r="G61" s="3">
-        <v>74100</v>
+        <v>75700</v>
       </c>
       <c r="H61" s="3">
-        <v>46100</v>
+        <v>47100</v>
       </c>
       <c r="I61" s="3">
-        <v>35200</v>
+        <v>35900</v>
       </c>
       <c r="J61" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="K61" s="3">
         <v>45700</v>
@@ -3573,19 +3573,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51300</v>
+        <v>52400</v>
       </c>
       <c r="E62" s="3">
-        <v>36500</v>
+        <v>37300</v>
       </c>
       <c r="F62" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G62" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H62" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>576100</v>
+        <v>588300</v>
       </c>
       <c r="E66" s="3">
-        <v>496600</v>
+        <v>507100</v>
       </c>
       <c r="F66" s="3">
-        <v>418700</v>
+        <v>427600</v>
       </c>
       <c r="G66" s="3">
-        <v>558400</v>
+        <v>570200</v>
       </c>
       <c r="H66" s="3">
-        <v>497900</v>
+        <v>508400</v>
       </c>
       <c r="I66" s="3">
-        <v>382300</v>
+        <v>390400</v>
       </c>
       <c r="J66" s="3">
-        <v>364700</v>
+        <v>372500</v>
       </c>
       <c r="K66" s="3">
         <v>361900</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>604300</v>
+        <v>617100</v>
       </c>
       <c r="E72" s="3">
-        <v>364700</v>
+        <v>372400</v>
       </c>
       <c r="F72" s="3">
-        <v>94400</v>
+        <v>96400</v>
       </c>
       <c r="G72" s="3">
-        <v>124400</v>
+        <v>127000</v>
       </c>
       <c r="H72" s="3">
-        <v>130200</v>
+        <v>133000</v>
       </c>
       <c r="I72" s="3">
-        <v>111400</v>
+        <v>113800</v>
       </c>
       <c r="J72" s="3">
-        <v>93500</v>
+        <v>95400</v>
       </c>
       <c r="K72" s="3">
         <v>117800</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1279600</v>
+        <v>1306600</v>
       </c>
       <c r="E76" s="3">
-        <v>1059500</v>
+        <v>1081900</v>
       </c>
       <c r="F76" s="3">
-        <v>803900</v>
+        <v>820800</v>
       </c>
       <c r="G76" s="3">
-        <v>837900</v>
+        <v>855700</v>
       </c>
       <c r="H76" s="3">
-        <v>836900</v>
+        <v>854600</v>
       </c>
       <c r="I76" s="3">
-        <v>819900</v>
+        <v>837300</v>
       </c>
       <c r="J76" s="3">
-        <v>793200</v>
+        <v>810000</v>
       </c>
       <c r="K76" s="3">
         <v>806400</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>239600</v>
+        <v>244700</v>
       </c>
       <c r="E81" s="3">
-        <v>270300</v>
+        <v>276000</v>
       </c>
       <c r="F81" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="G81" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H81" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="I81" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="J81" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="K81" s="3">
         <v>11600</v>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,295 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>171200</v>
+        <v>145800</v>
       </c>
       <c r="E8" s="3">
-        <v>67800</v>
+        <v>173000</v>
       </c>
       <c r="F8" s="3">
-        <v>42800</v>
+        <v>169000</v>
       </c>
       <c r="G8" s="3">
-        <v>38400</v>
+        <v>67000</v>
       </c>
       <c r="H8" s="3">
-        <v>62500</v>
+        <v>42200</v>
       </c>
       <c r="I8" s="3">
+        <v>37900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K8" s="3">
         <v>54800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>52500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>53500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>46600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>39900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>33900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>35700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>46200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>41300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>39700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>29000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>33300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>112900</v>
+        <v>107400</v>
       </c>
       <c r="E9" s="3">
-        <v>28200</v>
+        <v>118400</v>
       </c>
       <c r="F9" s="3">
-        <v>16000</v>
+        <v>111500</v>
       </c>
       <c r="G9" s="3">
-        <v>14100</v>
+        <v>27900</v>
       </c>
       <c r="H9" s="3">
-        <v>24500</v>
+        <v>15800</v>
       </c>
       <c r="I9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K9" s="3">
         <v>19600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>19600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>19900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>22400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>15900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>23200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>27200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>13100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>10400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>58300</v>
+        <v>38300</v>
       </c>
       <c r="E10" s="3">
-        <v>39600</v>
+        <v>54600</v>
       </c>
       <c r="F10" s="3">
-        <v>26700</v>
+        <v>57500</v>
       </c>
       <c r="G10" s="3">
+        <v>39100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>26400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>23900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K10" s="3">
+        <v>35200</v>
+      </c>
+      <c r="L10" s="3">
+        <v>32800</v>
+      </c>
+      <c r="M10" s="3">
+        <v>33600</v>
+      </c>
+      <c r="N10" s="3">
         <v>24200</v>
       </c>
-      <c r="H10" s="3">
-        <v>38000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>35200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>32800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>33600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>24200</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>22300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>12500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>19000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>35400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>26600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>17900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>22900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
-      </c>
-      <c r="S12" s="3">
-        <v>300</v>
-      </c>
-      <c r="T12" s="3">
-        <v>400</v>
       </c>
       <c r="U12" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>400</v>
+      </c>
+      <c r="W12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,67 +1101,79 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-2000</v>
       </c>
-      <c r="F14" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="G14" s="3">
-        <v>12000</v>
-      </c>
       <c r="H14" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-2300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-2000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>140300</v>
+        <v>143700</v>
       </c>
       <c r="E17" s="3">
-        <v>46900</v>
+        <v>148500</v>
       </c>
       <c r="F17" s="3">
-        <v>32400</v>
+        <v>138400</v>
       </c>
       <c r="G17" s="3">
-        <v>51100</v>
+        <v>46300</v>
       </c>
       <c r="H17" s="3">
-        <v>50100</v>
+        <v>31900</v>
       </c>
       <c r="I17" s="3">
+        <v>50400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K17" s="3">
         <v>40800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>39300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>42900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>41500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>29200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>23600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>22300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>40400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>15300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>16500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>14200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>14900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="3">
-        <v>21000</v>
+        <v>24600</v>
       </c>
       <c r="F18" s="3">
-        <v>10400</v>
+        <v>30600</v>
       </c>
       <c r="G18" s="3">
-        <v>-12700</v>
+        <v>20700</v>
       </c>
       <c r="H18" s="3">
-        <v>12500</v>
+        <v>10300</v>
       </c>
       <c r="I18" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K18" s="3">
         <v>14000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>13400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>5800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>26000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>23200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>14800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>18400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,67 +1412,75 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>235800</v>
+        <v>94500</v>
       </c>
       <c r="E20" s="3">
-        <v>287700</v>
+        <v>-66400</v>
       </c>
       <c r="F20" s="3">
+        <v>232700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>283900</v>
+      </c>
+      <c r="H20" s="3">
         <v>4500</v>
       </c>
-      <c r="G20" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>8800</v>
-      </c>
       <c r="I20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K20" s="3">
         <v>9400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>9900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-700</v>
       </c>
       <c r="S20" s="3">
         <v>800</v>
       </c>
       <c r="T20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U20" s="3">
+        <v>800</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,34 +1517,40 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>17200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>6800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>15600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>18500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1479,25 +1559,25 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>800</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
       </c>
       <c r="M22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N22" s="3">
         <v>700</v>
@@ -1506,143 +1586,161 @@
         <v>700</v>
       </c>
       <c r="P22" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>700</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>266700</v>
+        <v>96500</v>
       </c>
       <c r="E23" s="3">
-        <v>308600</v>
+        <v>-41900</v>
       </c>
       <c r="F23" s="3">
-        <v>14900</v>
+        <v>263200</v>
       </c>
       <c r="G23" s="3">
-        <v>-6100</v>
+        <v>304500</v>
       </c>
       <c r="H23" s="3">
-        <v>21300</v>
+        <v>14700</v>
       </c>
       <c r="I23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K23" s="3">
         <v>22900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>16100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>19900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>16300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>26000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>21900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>15300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>18300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22000</v>
+        <v>10700</v>
       </c>
       <c r="E24" s="3">
-        <v>32500</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>21700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>32100</v>
+      </c>
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K24" s="3">
         <v>3800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>5900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>4300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>244700</v>
+        <v>85900</v>
       </c>
       <c r="E26" s="3">
-        <v>276000</v>
+        <v>-42200</v>
       </c>
       <c r="F26" s="3">
+        <v>241500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>272400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>19100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>14800</v>
+      </c>
+      <c r="M26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O26" s="3">
+        <v>14900</v>
+      </c>
+      <c r="P26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>12100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U26" s="3">
         <v>11000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>17700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>19100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>14800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>11300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>7600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>14900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>9300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>12100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>4400</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="3">
-        <v>11000</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>13500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>244700</v>
+        <v>85900</v>
       </c>
       <c r="E27" s="3">
-        <v>276000</v>
+        <v>-42200</v>
       </c>
       <c r="F27" s="3">
-        <v>11000</v>
+        <v>241500</v>
       </c>
       <c r="G27" s="3">
-        <v>-6000</v>
+        <v>272400</v>
       </c>
       <c r="H27" s="3">
-        <v>16500</v>
+        <v>10800</v>
       </c>
       <c r="I27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K27" s="3">
         <v>18400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>14300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>15400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>8200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>11500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U27" s="3">
         <v>5500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>6500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-235800</v>
+        <v>-94500</v>
       </c>
       <c r="E32" s="3">
-        <v>-287700</v>
+        <v>66400</v>
       </c>
       <c r="F32" s="3">
+        <v>-232700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-283900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-4500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-8800</v>
-      </c>
       <c r="I32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-9900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>700</v>
       </c>
       <c r="S32" s="3">
         <v>-800</v>
       </c>
       <c r="T32" s="3">
+        <v>700</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>244700</v>
+        <v>85900</v>
       </c>
       <c r="E33" s="3">
-        <v>276000</v>
+        <v>-42200</v>
       </c>
       <c r="F33" s="3">
-        <v>11000</v>
+        <v>241500</v>
       </c>
       <c r="G33" s="3">
-        <v>-6000</v>
+        <v>272400</v>
       </c>
       <c r="H33" s="3">
-        <v>16500</v>
+        <v>10800</v>
       </c>
       <c r="I33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K33" s="3">
         <v>18400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>14300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>15400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>8200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>11500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U33" s="3">
         <v>5500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>6500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>244700</v>
+        <v>85900</v>
       </c>
       <c r="E35" s="3">
-        <v>276000</v>
+        <v>-42200</v>
       </c>
       <c r="F35" s="3">
-        <v>11000</v>
+        <v>241500</v>
       </c>
       <c r="G35" s="3">
-        <v>-6000</v>
+        <v>272400</v>
       </c>
       <c r="H35" s="3">
-        <v>16500</v>
+        <v>10800</v>
       </c>
       <c r="I35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K35" s="3">
         <v>18400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>14300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>15400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>8200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>11500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U35" s="3">
         <v>5500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>6500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,185 +2572,205 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>222600</v>
+        <v>230800</v>
       </c>
       <c r="E41" s="3">
-        <v>222000</v>
+        <v>251100</v>
       </c>
       <c r="F41" s="3">
-        <v>313600</v>
+        <v>219700</v>
       </c>
       <c r="G41" s="3">
-        <v>427600</v>
+        <v>219200</v>
       </c>
       <c r="H41" s="3">
-        <v>312400</v>
+        <v>309500</v>
       </c>
       <c r="I41" s="3">
+        <v>422100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>308300</v>
+      </c>
+      <c r="K41" s="3">
         <v>288800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>251100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>331300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>423000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>509800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>447900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>281600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>119200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>93600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>677500</v>
+        <v>481500</v>
       </c>
       <c r="E42" s="3">
-        <v>177900</v>
+        <v>404600</v>
       </c>
       <c r="F42" s="3">
-        <v>130300</v>
+        <v>668600</v>
       </c>
       <c r="G42" s="3">
-        <v>115700</v>
+        <v>175600</v>
       </c>
       <c r="H42" s="3">
-        <v>93200</v>
+        <v>128600</v>
       </c>
       <c r="I42" s="3">
+        <v>114200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>92000</v>
+      </c>
+      <c r="K42" s="3">
         <v>72000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>85200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>17000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>38600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>28200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>12800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>86000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>9300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>13300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>399700</v>
+        <v>405400</v>
       </c>
       <c r="E43" s="3">
-        <v>340100</v>
+        <v>424200</v>
       </c>
       <c r="F43" s="3">
-        <v>273400</v>
+        <v>394500</v>
       </c>
       <c r="G43" s="3">
-        <v>284200</v>
+        <v>335700</v>
       </c>
       <c r="H43" s="3">
-        <v>289000</v>
+        <v>269800</v>
       </c>
       <c r="I43" s="3">
+        <v>280500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>285300</v>
+      </c>
+      <c r="K43" s="3">
         <v>258400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>257100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>235500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>176500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>119300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>12800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>18200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>23000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>25000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,303 +2828,339 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>88600</v>
+        <v>142100</v>
       </c>
       <c r="E45" s="3">
-        <v>47300</v>
+        <v>101000</v>
       </c>
       <c r="F45" s="3">
-        <v>88200</v>
+        <v>87500</v>
       </c>
       <c r="G45" s="3">
-        <v>119500</v>
+        <v>46700</v>
       </c>
       <c r="H45" s="3">
-        <v>169800</v>
+        <v>87000</v>
       </c>
       <c r="I45" s="3">
+        <v>117900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>167600</v>
+      </c>
+      <c r="K45" s="3">
         <v>110200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>103700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>96200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>52300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>10300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>163300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>23000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>13000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>32900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1388300</v>
+        <v>1259800</v>
       </c>
       <c r="E46" s="3">
-        <v>787300</v>
+        <v>1180900</v>
       </c>
       <c r="F46" s="3">
-        <v>805500</v>
+        <v>1370300</v>
       </c>
       <c r="G46" s="3">
-        <v>947000</v>
+        <v>777100</v>
       </c>
       <c r="H46" s="3">
-        <v>864400</v>
+        <v>795000</v>
       </c>
       <c r="I46" s="3">
+        <v>934700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>853200</v>
+      </c>
+      <c r="K46" s="3">
         <v>729500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>697100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>680000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>690500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>667600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>636800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>408800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>164500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>164700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>270800</v>
+        <v>255800</v>
       </c>
       <c r="E47" s="3">
-        <v>581600</v>
+        <v>259200</v>
       </c>
       <c r="F47" s="3">
-        <v>244800</v>
+        <v>267300</v>
       </c>
       <c r="G47" s="3">
-        <v>284400</v>
+        <v>574100</v>
       </c>
       <c r="H47" s="3">
-        <v>313300</v>
+        <v>241600</v>
       </c>
       <c r="I47" s="3">
+        <v>280700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>309300</v>
+      </c>
+      <c r="K47" s="3">
         <v>326100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>315000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>321000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>228900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>145700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>51000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>50900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>71900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>64200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
-        <v>2100</v>
-      </c>
       <c r="H48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="E49" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="F49" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="G49" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="H49" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="I49" s="3">
+        <v>29200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K49" s="3">
         <v>28000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>27900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>27200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>21300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>20600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>204500</v>
+        <v>253700</v>
       </c>
       <c r="E52" s="3">
-        <v>188400</v>
+        <v>259700</v>
       </c>
       <c r="F52" s="3">
-        <v>166600</v>
+        <v>201800</v>
       </c>
       <c r="G52" s="3">
-        <v>162800</v>
+        <v>185900</v>
       </c>
       <c r="H52" s="3">
-        <v>153300</v>
+        <v>164400</v>
       </c>
       <c r="I52" s="3">
+        <v>160700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K52" s="3">
         <v>141700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>139800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>137200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>117000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>95100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>83500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>77000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>58300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>26900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1894900</v>
+        <v>1801800</v>
       </c>
       <c r="E54" s="3">
-        <v>1589000</v>
+        <v>1732100</v>
       </c>
       <c r="F54" s="3">
-        <v>1248400</v>
+        <v>1870200</v>
       </c>
       <c r="G54" s="3">
-        <v>1425900</v>
+        <v>1568400</v>
       </c>
       <c r="H54" s="3">
-        <v>1363000</v>
+        <v>1232200</v>
       </c>
       <c r="I54" s="3">
+        <v>1407300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1345300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1227600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1182500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1168300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1060300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>931700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>774000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>538700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>296400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>257200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3532,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3307,327 +3569,363 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>247200</v>
+        <v>292800</v>
       </c>
       <c r="E58" s="3">
-        <v>261400</v>
+        <v>240400</v>
       </c>
       <c r="F58" s="3">
-        <v>293900</v>
+        <v>244000</v>
       </c>
       <c r="G58" s="3">
-        <v>396500</v>
+        <v>258000</v>
       </c>
       <c r="H58" s="3">
-        <v>359300</v>
+        <v>290100</v>
       </c>
       <c r="I58" s="3">
+        <v>391300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>354600</v>
+      </c>
+      <c r="K58" s="3">
         <v>288100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>257800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>243300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>163700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>66500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58" s="3">
         <v>13800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>136100</v>
+        <v>213100</v>
       </c>
       <c r="E59" s="3">
-        <v>98100</v>
+        <v>274600</v>
       </c>
       <c r="F59" s="3">
-        <v>81500</v>
+        <v>134400</v>
       </c>
       <c r="G59" s="3">
-        <v>93700</v>
+        <v>96800</v>
       </c>
       <c r="H59" s="3">
-        <v>94500</v>
+        <v>80500</v>
       </c>
       <c r="I59" s="3">
+        <v>92400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K59" s="3">
         <v>65500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>65300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>73100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>63600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>52300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>60000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>63400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>76700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>39900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>383400</v>
+        <v>505900</v>
       </c>
       <c r="E60" s="3">
-        <v>359500</v>
+        <v>515000</v>
       </c>
       <c r="F60" s="3">
-        <v>375500</v>
+        <v>378400</v>
       </c>
       <c r="G60" s="3">
-        <v>490100</v>
+        <v>354900</v>
       </c>
       <c r="H60" s="3">
-        <v>453900</v>
+        <v>370600</v>
       </c>
       <c r="I60" s="3">
+        <v>483800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>447900</v>
+      </c>
+      <c r="K60" s="3">
         <v>353600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>323100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>316400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>227300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>118800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>60000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>63400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>78100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>54300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>152500</v>
+        <v>128900</v>
       </c>
       <c r="E61" s="3">
-        <v>110300</v>
+        <v>126100</v>
       </c>
       <c r="F61" s="3">
-        <v>47100</v>
+        <v>150600</v>
       </c>
       <c r="G61" s="3">
-        <v>75700</v>
+        <v>108800</v>
       </c>
       <c r="H61" s="3">
-        <v>47100</v>
+        <v>46500</v>
       </c>
       <c r="I61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K61" s="3">
         <v>35900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>49000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>45700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>68700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>81400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>25100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>25100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>26000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>15000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>52400</v>
+        <v>26800</v>
       </c>
       <c r="E62" s="3">
-        <v>37300</v>
+        <v>23500</v>
       </c>
       <c r="F62" s="3">
+        <v>51700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>36800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P62" s="3">
         <v>5000</v>
       </c>
-      <c r="G62" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="Q62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R62" s="3">
         <v>5300</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>4600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>5300</v>
       </c>
-      <c r="Q62" s="3">
-        <v>5300</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>588300</v>
+        <v>661600</v>
       </c>
       <c r="E66" s="3">
-        <v>507100</v>
+        <v>664600</v>
       </c>
       <c r="F66" s="3">
-        <v>427600</v>
+        <v>580600</v>
       </c>
       <c r="G66" s="3">
-        <v>570200</v>
+        <v>500500</v>
       </c>
       <c r="H66" s="3">
-        <v>508400</v>
+        <v>422000</v>
       </c>
       <c r="I66" s="3">
+        <v>562800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>501800</v>
+      </c>
+      <c r="K66" s="3">
         <v>390400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>372500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>361900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>297600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>206000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>92000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>94800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>113200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>79200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4039,31 +4375,37 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>771700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>565600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>585000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>585000</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>617100</v>
+        <v>505600</v>
       </c>
       <c r="E72" s="3">
-        <v>372400</v>
+        <v>419800</v>
       </c>
       <c r="F72" s="3">
-        <v>96400</v>
+        <v>609000</v>
       </c>
       <c r="G72" s="3">
-        <v>127000</v>
+        <v>367500</v>
       </c>
       <c r="H72" s="3">
-        <v>133000</v>
+        <v>95100</v>
       </c>
       <c r="I72" s="3">
+        <v>125400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>131300</v>
+      </c>
+      <c r="K72" s="3">
         <v>113800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>95400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>117800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>101400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>708000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-96700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-122100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-402400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-407600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1306600</v>
+        <v>1140200</v>
       </c>
       <c r="E76" s="3">
-        <v>1081900</v>
+        <v>1067500</v>
       </c>
       <c r="F76" s="3">
-        <v>820800</v>
+        <v>1289600</v>
       </c>
       <c r="G76" s="3">
-        <v>855700</v>
+        <v>1067800</v>
       </c>
       <c r="H76" s="3">
-        <v>854600</v>
+        <v>810200</v>
       </c>
       <c r="I76" s="3">
+        <v>844500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>843500</v>
+      </c>
+      <c r="K76" s="3">
         <v>837300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>810000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>806400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>762700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>725700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-89700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-121600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-401800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-407000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>244700</v>
+        <v>85900</v>
       </c>
       <c r="E81" s="3">
-        <v>276000</v>
+        <v>-42200</v>
       </c>
       <c r="F81" s="3">
-        <v>11000</v>
+        <v>241500</v>
       </c>
       <c r="G81" s="3">
-        <v>-6000</v>
+        <v>272400</v>
       </c>
       <c r="H81" s="3">
-        <v>16500</v>
+        <v>10800</v>
       </c>
       <c r="I81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K81" s="3">
         <v>18400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>14300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>15400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>8200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>11500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U81" s="3">
         <v>5500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>6500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4656,21 +5054,21 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5010,21 +5444,21 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-6100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>42600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
@@ -5034,8 +5468,14 @@
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5092,21 +5534,21 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
@@ -5116,8 +5558,14 @@
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5269,21 +5729,21 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-61400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5587,21 +6079,21 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="3">
         <v>252400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
@@ -5611,8 +6103,14 @@
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5646,21 +6144,21 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
@@ -5670,8 +6168,14 @@
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5705,21 +6209,21 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3">
         <v>184600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>36800</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
@@ -5727,6 +6231,12 @@
         <v>16</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>145800</v>
+        <v>125300</v>
       </c>
       <c r="E8" s="3">
-        <v>173000</v>
+        <v>148200</v>
       </c>
       <c r="F8" s="3">
-        <v>169000</v>
+        <v>175900</v>
       </c>
       <c r="G8" s="3">
-        <v>67000</v>
+        <v>171800</v>
       </c>
       <c r="H8" s="3">
-        <v>42200</v>
+        <v>68100</v>
       </c>
       <c r="I8" s="3">
-        <v>37900</v>
+        <v>42900</v>
       </c>
       <c r="J8" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K8" s="3">
         <v>61700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>54800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>46200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>41300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>39700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>33300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>107400</v>
+        <v>95600</v>
       </c>
       <c r="E9" s="3">
-        <v>118400</v>
+        <v>109200</v>
       </c>
       <c r="F9" s="3">
-        <v>111500</v>
+        <v>120400</v>
       </c>
       <c r="G9" s="3">
-        <v>27900</v>
+        <v>113300</v>
       </c>
       <c r="H9" s="3">
-        <v>15800</v>
+        <v>28300</v>
       </c>
       <c r="I9" s="3">
-        <v>14000</v>
+        <v>16100</v>
       </c>
       <c r="J9" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K9" s="3">
         <v>24200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>19600</v>
       </c>
       <c r="L9" s="3">
         <v>19600</v>
       </c>
       <c r="M9" s="3">
+        <v>19600</v>
+      </c>
+      <c r="N9" s="3">
         <v>19900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>27200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38300</v>
+        <v>29800</v>
       </c>
       <c r="E10" s="3">
-        <v>54600</v>
+        <v>39000</v>
       </c>
       <c r="F10" s="3">
-        <v>57500</v>
+        <v>55500</v>
       </c>
       <c r="G10" s="3">
-        <v>39100</v>
+        <v>58500</v>
       </c>
       <c r="H10" s="3">
-        <v>26400</v>
+        <v>39800</v>
       </c>
       <c r="I10" s="3">
-        <v>23900</v>
+        <v>26800</v>
       </c>
       <c r="J10" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K10" s="3">
         <v>37500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>22900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
-        <v>3500</v>
-      </c>
       <c r="G12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5500</v>
+        <v>8700</v>
       </c>
       <c r="E14" s="3">
-        <v>3300</v>
+        <v>5600</v>
       </c>
       <c r="F14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2000</v>
       </c>
-      <c r="H14" s="3">
-        <v>-6600</v>
-      </c>
       <c r="I14" s="3">
-        <v>11800</v>
+        <v>-6700</v>
       </c>
       <c r="J14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-2000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>143700</v>
+        <v>131500</v>
       </c>
       <c r="E17" s="3">
-        <v>148500</v>
+        <v>146200</v>
       </c>
       <c r="F17" s="3">
-        <v>138400</v>
+        <v>151000</v>
       </c>
       <c r="G17" s="3">
-        <v>46300</v>
+        <v>140700</v>
       </c>
       <c r="H17" s="3">
-        <v>31900</v>
+        <v>47000</v>
       </c>
       <c r="I17" s="3">
-        <v>50400</v>
+        <v>32500</v>
       </c>
       <c r="J17" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K17" s="3">
         <v>49400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>40400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2000</v>
+        <v>-6100</v>
       </c>
       <c r="E18" s="3">
-        <v>24600</v>
+        <v>2100</v>
       </c>
       <c r="F18" s="3">
-        <v>30600</v>
+        <v>25000</v>
       </c>
       <c r="G18" s="3">
-        <v>20700</v>
+        <v>31100</v>
       </c>
       <c r="H18" s="3">
+        <v>21100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M18" s="3">
+        <v>13100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="O18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="Q18" s="3">
         <v>10300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>12300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>13100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>10600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>5200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>10700</v>
-      </c>
-      <c r="P18" s="3">
-        <v>10300</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>23200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>94500</v>
+        <v>-63800</v>
       </c>
       <c r="E20" s="3">
-        <v>-66400</v>
+        <v>96100</v>
       </c>
       <c r="F20" s="3">
-        <v>232700</v>
+        <v>-67500</v>
       </c>
       <c r="G20" s="3">
-        <v>283900</v>
+        <v>236600</v>
       </c>
       <c r="H20" s="3">
+        <v>288700</v>
+      </c>
+      <c r="I20" s="3">
         <v>4500</v>
       </c>
-      <c r="I20" s="3">
-        <v>6700</v>
-      </c>
       <c r="J20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K20" s="3">
         <v>8700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1523,37 +1560,40 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>17200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>15600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>18500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1565,22 +1605,22 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>700</v>
       </c>
       <c r="O22" s="3">
         <v>700</v>
@@ -1592,155 +1632,164 @@
         <v>700</v>
       </c>
       <c r="R22" s="3">
+        <v>700</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>96500</v>
+        <v>-71200</v>
       </c>
       <c r="E23" s="3">
-        <v>-41900</v>
+        <v>98200</v>
       </c>
       <c r="F23" s="3">
-        <v>263200</v>
+        <v>-42600</v>
       </c>
       <c r="G23" s="3">
-        <v>304500</v>
+        <v>267600</v>
       </c>
       <c r="H23" s="3">
-        <v>14700</v>
+        <v>309600</v>
       </c>
       <c r="I23" s="3">
-        <v>-6000</v>
+        <v>14900</v>
       </c>
       <c r="J23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K23" s="3">
         <v>21000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>26000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>18300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10700</v>
+        <v>-6000</v>
       </c>
       <c r="E24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>21700</v>
-      </c>
       <c r="G24" s="3">
-        <v>32100</v>
+        <v>22000</v>
       </c>
       <c r="H24" s="3">
+        <v>32600</v>
+      </c>
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>85900</v>
+        <v>-65200</v>
       </c>
       <c r="E26" s="3">
-        <v>-42200</v>
+        <v>87300</v>
       </c>
       <c r="F26" s="3">
-        <v>241500</v>
+        <v>-42900</v>
       </c>
       <c r="G26" s="3">
-        <v>272400</v>
+        <v>245600</v>
       </c>
       <c r="H26" s="3">
-        <v>10800</v>
+        <v>277000</v>
       </c>
       <c r="I26" s="3">
-        <v>-5300</v>
+        <v>11000</v>
       </c>
       <c r="J26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K26" s="3">
         <v>17500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V26" s="3">
         <v>11000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>13500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>85900</v>
+        <v>-65200</v>
       </c>
       <c r="E27" s="3">
-        <v>-42200</v>
+        <v>87300</v>
       </c>
       <c r="F27" s="3">
-        <v>241500</v>
+        <v>-42900</v>
       </c>
       <c r="G27" s="3">
-        <v>272400</v>
+        <v>245600</v>
       </c>
       <c r="H27" s="3">
-        <v>10800</v>
+        <v>277000</v>
       </c>
       <c r="I27" s="3">
-        <v>-5900</v>
+        <v>11000</v>
       </c>
       <c r="J27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K27" s="3">
         <v>16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V27" s="3">
         <v>5500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-94500</v>
+        <v>63800</v>
       </c>
       <c r="E32" s="3">
-        <v>66400</v>
+        <v>-96100</v>
       </c>
       <c r="F32" s="3">
-        <v>-232700</v>
+        <v>67500</v>
       </c>
       <c r="G32" s="3">
-        <v>-283900</v>
+        <v>-236600</v>
       </c>
       <c r="H32" s="3">
+        <v>-288700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4500</v>
       </c>
-      <c r="I32" s="3">
-        <v>-6700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>85900</v>
+        <v>-65200</v>
       </c>
       <c r="E33" s="3">
-        <v>-42200</v>
+        <v>87300</v>
       </c>
       <c r="F33" s="3">
-        <v>241500</v>
+        <v>-42900</v>
       </c>
       <c r="G33" s="3">
-        <v>272400</v>
+        <v>245600</v>
       </c>
       <c r="H33" s="3">
-        <v>10800</v>
+        <v>277000</v>
       </c>
       <c r="I33" s="3">
-        <v>-5900</v>
+        <v>11000</v>
       </c>
       <c r="J33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K33" s="3">
         <v>16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V33" s="3">
         <v>5500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>85900</v>
+        <v>-65200</v>
       </c>
       <c r="E35" s="3">
-        <v>-42200</v>
+        <v>87300</v>
       </c>
       <c r="F35" s="3">
-        <v>241500</v>
+        <v>-42900</v>
       </c>
       <c r="G35" s="3">
-        <v>272400</v>
+        <v>245600</v>
       </c>
       <c r="H35" s="3">
-        <v>10800</v>
+        <v>277000</v>
       </c>
       <c r="I35" s="3">
-        <v>-5900</v>
+        <v>11000</v>
       </c>
       <c r="J35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K35" s="3">
         <v>16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V35" s="3">
         <v>5500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2660,63 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>230800</v>
+        <v>141900</v>
       </c>
       <c r="E41" s="3">
+        <v>234700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>255400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>223400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>222800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>314700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>429100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>308300</v>
+      </c>
+      <c r="L41" s="3">
+        <v>288800</v>
+      </c>
+      <c r="M41" s="3">
         <v>251100</v>
       </c>
-      <c r="F41" s="3">
-        <v>219700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>219200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>309500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>422100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>308300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>288800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>251100</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>331300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>423000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>509800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>447900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>281600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>119200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>93600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2639,62 +2726,65 @@
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>481500</v>
+        <v>561800</v>
       </c>
       <c r="E42" s="3">
-        <v>404600</v>
+        <v>489600</v>
       </c>
       <c r="F42" s="3">
-        <v>668600</v>
+        <v>411400</v>
       </c>
       <c r="G42" s="3">
-        <v>175600</v>
+        <v>679800</v>
       </c>
       <c r="H42" s="3">
-        <v>128600</v>
+        <v>178500</v>
       </c>
       <c r="I42" s="3">
-        <v>114200</v>
+        <v>130700</v>
       </c>
       <c r="J42" s="3">
+        <v>116100</v>
+      </c>
+      <c r="K42" s="3">
         <v>92000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>85200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>28200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>86000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,62 +2794,65 @@
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>405400</v>
+        <v>401700</v>
       </c>
       <c r="E43" s="3">
-        <v>424200</v>
+        <v>412200</v>
       </c>
       <c r="F43" s="3">
-        <v>394500</v>
+        <v>431300</v>
       </c>
       <c r="G43" s="3">
-        <v>335700</v>
+        <v>401100</v>
       </c>
       <c r="H43" s="3">
-        <v>269800</v>
+        <v>341300</v>
       </c>
       <c r="I43" s="3">
-        <v>280500</v>
+        <v>274300</v>
       </c>
       <c r="J43" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K43" s="3">
         <v>285300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>258400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>257100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>235500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>176500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>119300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,62 +2930,65 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>142100</v>
+        <v>124200</v>
       </c>
       <c r="E45" s="3">
-        <v>101000</v>
+        <v>144400</v>
       </c>
       <c r="F45" s="3">
-        <v>87500</v>
+        <v>102700</v>
       </c>
       <c r="G45" s="3">
-        <v>46700</v>
+        <v>88900</v>
       </c>
       <c r="H45" s="3">
-        <v>87000</v>
+        <v>47500</v>
       </c>
       <c r="I45" s="3">
-        <v>117900</v>
+        <v>88500</v>
       </c>
       <c r="J45" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K45" s="3">
         <v>167600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>110200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>96200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>52300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>163300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2899,62 +2998,65 @@
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1259800</v>
+        <v>1229600</v>
       </c>
       <c r="E46" s="3">
-        <v>1180900</v>
+        <v>1280900</v>
       </c>
       <c r="F46" s="3">
-        <v>1370300</v>
+        <v>1200700</v>
       </c>
       <c r="G46" s="3">
-        <v>777100</v>
+        <v>1393200</v>
       </c>
       <c r="H46" s="3">
-        <v>795000</v>
+        <v>790100</v>
       </c>
       <c r="I46" s="3">
-        <v>934700</v>
+        <v>808300</v>
       </c>
       <c r="J46" s="3">
+        <v>950400</v>
+      </c>
+      <c r="K46" s="3">
         <v>853200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>729500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>697100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>680000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>690500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>667600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>636800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>408800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>164500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>164700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2964,62 +3066,65 @@
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>255800</v>
+        <v>239400</v>
       </c>
       <c r="E47" s="3">
-        <v>259200</v>
+        <v>260100</v>
       </c>
       <c r="F47" s="3">
-        <v>267300</v>
+        <v>263500</v>
       </c>
       <c r="G47" s="3">
-        <v>574100</v>
+        <v>271800</v>
       </c>
       <c r="H47" s="3">
-        <v>241600</v>
+        <v>583700</v>
       </c>
       <c r="I47" s="3">
-        <v>280700</v>
+        <v>245600</v>
       </c>
       <c r="J47" s="3">
+        <v>285400</v>
+      </c>
+      <c r="K47" s="3">
         <v>309300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>326100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>315000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>321000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>228900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>145700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>51000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>50900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>71900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>64200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3029,62 +3134,65 @@
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F48" s="3">
         <v>3200</v>
       </c>
-      <c r="E48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
-        <v>2000</v>
-      </c>
       <c r="H48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I48" s="3">
         <v>2000</v>
       </c>
       <c r="J48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2700</v>
       </c>
       <c r="O48" s="3">
         <v>2700</v>
       </c>
       <c r="P48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3094,61 +3202,64 @@
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K49" s="3">
         <v>29200</v>
       </c>
-      <c r="E49" s="3">
-        <v>29200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>29200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>29200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>29200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>29200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>29200</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>27900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20600</v>
-      </c>
-      <c r="P49" s="3">
-        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
       </c>
       <c r="R49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>16</v>
+      <c r="T49" s="3">
+        <v>300</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>16</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,62 +3406,65 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>253700</v>
+        <v>256900</v>
       </c>
       <c r="E52" s="3">
-        <v>259700</v>
+        <v>258000</v>
       </c>
       <c r="F52" s="3">
-        <v>201800</v>
+        <v>264000</v>
       </c>
       <c r="G52" s="3">
-        <v>185900</v>
+        <v>205200</v>
       </c>
       <c r="H52" s="3">
-        <v>164400</v>
+        <v>189100</v>
       </c>
       <c r="I52" s="3">
-        <v>160700</v>
+        <v>167100</v>
       </c>
       <c r="J52" s="3">
+        <v>163400</v>
+      </c>
+      <c r="K52" s="3">
         <v>151300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>141700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>139800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>137200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>117000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>95100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>83500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>77000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>58300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3542,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1801800</v>
+        <v>1759400</v>
       </c>
       <c r="E54" s="3">
-        <v>1732100</v>
+        <v>1832000</v>
       </c>
       <c r="F54" s="3">
-        <v>1870200</v>
+        <v>1761100</v>
       </c>
       <c r="G54" s="3">
-        <v>1568400</v>
+        <v>1901600</v>
       </c>
       <c r="H54" s="3">
-        <v>1232200</v>
+        <v>1594600</v>
       </c>
       <c r="I54" s="3">
-        <v>1407300</v>
+        <v>1252800</v>
       </c>
       <c r="J54" s="3">
+        <v>1430900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1345300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1227600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1182500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1168300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1060300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>931700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>774000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>538700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>296400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>257200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3575,21 +3706,21 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3599,62 +3730,65 @@
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>292800</v>
+        <v>312900</v>
       </c>
       <c r="E58" s="3">
-        <v>240400</v>
+        <v>297700</v>
       </c>
       <c r="F58" s="3">
-        <v>244000</v>
+        <v>244400</v>
       </c>
       <c r="G58" s="3">
-        <v>258000</v>
+        <v>248100</v>
       </c>
       <c r="H58" s="3">
-        <v>290100</v>
+        <v>262300</v>
       </c>
       <c r="I58" s="3">
-        <v>391300</v>
+        <v>295000</v>
       </c>
       <c r="J58" s="3">
+        <v>397900</v>
+      </c>
+      <c r="K58" s="3">
         <v>354600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>288100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>257800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>243300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>163700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>66500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T58" s="3">
         <v>13800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3664,62 +3798,65 @@
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>213100</v>
+        <v>238300</v>
       </c>
       <c r="E59" s="3">
-        <v>274600</v>
+        <v>216700</v>
       </c>
       <c r="F59" s="3">
-        <v>134400</v>
+        <v>279200</v>
       </c>
       <c r="G59" s="3">
-        <v>96800</v>
+        <v>136600</v>
       </c>
       <c r="H59" s="3">
-        <v>80500</v>
+        <v>98500</v>
       </c>
       <c r="I59" s="3">
-        <v>92400</v>
+        <v>81800</v>
       </c>
       <c r="J59" s="3">
+        <v>94000</v>
+      </c>
+      <c r="K59" s="3">
         <v>93300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>73100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>63600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>52300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>60000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>63400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>76700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>39900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3729,62 +3866,65 @@
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>505900</v>
+        <v>551200</v>
       </c>
       <c r="E60" s="3">
-        <v>515000</v>
+        <v>514400</v>
       </c>
       <c r="F60" s="3">
-        <v>378400</v>
+        <v>523700</v>
       </c>
       <c r="G60" s="3">
-        <v>354900</v>
+        <v>384700</v>
       </c>
       <c r="H60" s="3">
-        <v>370600</v>
+        <v>360800</v>
       </c>
       <c r="I60" s="3">
-        <v>483800</v>
+        <v>376800</v>
       </c>
       <c r="J60" s="3">
+        <v>491900</v>
+      </c>
+      <c r="K60" s="3">
         <v>447900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>353600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>323100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>316400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>227300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>118800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>60000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>63400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>78100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>54300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3794,62 +3934,65 @@
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>128900</v>
+        <v>100000</v>
       </c>
       <c r="E61" s="3">
-        <v>126100</v>
+        <v>131000</v>
       </c>
       <c r="F61" s="3">
-        <v>150600</v>
+        <v>128200</v>
       </c>
       <c r="G61" s="3">
-        <v>108800</v>
+        <v>153100</v>
       </c>
       <c r="H61" s="3">
+        <v>110700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>47200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K61" s="3">
         <v>46500</v>
       </c>
-      <c r="I61" s="3">
-        <v>74700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>46500</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>49000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>68700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>81400</v>
-      </c>
-      <c r="P61" s="3">
-        <v>25100</v>
       </c>
       <c r="Q61" s="3">
         <v>25100</v>
       </c>
       <c r="R61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="S61" s="3">
         <v>26000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -3859,61 +4002,64 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26800</v>
+        <v>19900</v>
       </c>
       <c r="E62" s="3">
-        <v>23500</v>
+        <v>27300</v>
       </c>
       <c r="F62" s="3">
-        <v>51700</v>
+        <v>23900</v>
       </c>
       <c r="G62" s="3">
-        <v>36800</v>
+        <v>52500</v>
       </c>
       <c r="H62" s="3">
-        <v>4900</v>
+        <v>37500</v>
       </c>
       <c r="I62" s="3">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="J62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K62" s="3">
         <v>5300</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>5000</v>
       </c>
       <c r="Q62" s="3">
         <v>5000</v>
       </c>
       <c r="R62" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="S62" s="3">
         <v>5300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>16</v>
+      <c r="T62" s="3">
+        <v>5300</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>16</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4274,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>661600</v>
+        <v>671100</v>
       </c>
       <c r="E66" s="3">
-        <v>664600</v>
+        <v>672700</v>
       </c>
       <c r="F66" s="3">
-        <v>580600</v>
+        <v>675800</v>
       </c>
       <c r="G66" s="3">
-        <v>500500</v>
+        <v>590300</v>
       </c>
       <c r="H66" s="3">
-        <v>422000</v>
+        <v>508900</v>
       </c>
       <c r="I66" s="3">
-        <v>562800</v>
+        <v>429100</v>
       </c>
       <c r="J66" s="3">
+        <v>572300</v>
+      </c>
+      <c r="K66" s="3">
         <v>501800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>390400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>372500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>361900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>297600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>206000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>92000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>94800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>113200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>79200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4381,19 +4549,19 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>771700</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>565600</v>
-      </c>
-      <c r="R70" s="3">
-        <v>585000</v>
       </c>
       <c r="S70" s="3">
         <v>585000</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>585000</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4640,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>505600</v>
+        <v>448900</v>
       </c>
       <c r="E72" s="3">
-        <v>419800</v>
+        <v>514100</v>
       </c>
       <c r="F72" s="3">
-        <v>609000</v>
+        <v>426800</v>
       </c>
       <c r="G72" s="3">
-        <v>367500</v>
+        <v>619300</v>
       </c>
       <c r="H72" s="3">
-        <v>95100</v>
+        <v>373700</v>
       </c>
       <c r="I72" s="3">
-        <v>125400</v>
+        <v>96700</v>
       </c>
       <c r="J72" s="3">
+        <v>127500</v>
+      </c>
+      <c r="K72" s="3">
         <v>131300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>113800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>95400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>117800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>101400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>708000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-96700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-122100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-402400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-407600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +4912,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1140200</v>
+        <v>1088400</v>
       </c>
       <c r="E76" s="3">
-        <v>1067500</v>
+        <v>1159300</v>
       </c>
       <c r="F76" s="3">
-        <v>1289600</v>
+        <v>1085400</v>
       </c>
       <c r="G76" s="3">
-        <v>1067800</v>
+        <v>1311200</v>
       </c>
       <c r="H76" s="3">
-        <v>810200</v>
+        <v>1085700</v>
       </c>
       <c r="I76" s="3">
-        <v>844500</v>
+        <v>823700</v>
       </c>
       <c r="J76" s="3">
+        <v>858700</v>
+      </c>
+      <c r="K76" s="3">
         <v>843500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>837300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>810000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>806400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>762700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>725700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-89700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-121600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-401800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-407000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>85900</v>
+        <v>-65200</v>
       </c>
       <c r="E81" s="3">
-        <v>-42200</v>
+        <v>87300</v>
       </c>
       <c r="F81" s="3">
-        <v>241500</v>
+        <v>-42900</v>
       </c>
       <c r="G81" s="3">
-        <v>272400</v>
+        <v>245600</v>
       </c>
       <c r="H81" s="3">
-        <v>10800</v>
+        <v>277000</v>
       </c>
       <c r="I81" s="3">
-        <v>-5900</v>
+        <v>11000</v>
       </c>
       <c r="J81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K81" s="3">
         <v>16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V81" s="3">
         <v>5500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5060,18 +5259,18 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5450,18 +5667,18 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="3">
         <v>-6100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5540,18 +5761,18 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5735,18 +5965,18 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="3">
         <v>-61400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6085,18 +6331,18 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R100" s="3">
         <v>252400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6150,18 +6399,18 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6215,18 +6467,18 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3">
         <v>184600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>36800</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>16</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>125300</v>
+        <v>165700</v>
       </c>
       <c r="E8" s="3">
-        <v>148200</v>
+        <v>126300</v>
       </c>
       <c r="F8" s="3">
-        <v>175900</v>
+        <v>149400</v>
       </c>
       <c r="G8" s="3">
-        <v>171800</v>
+        <v>177300</v>
       </c>
       <c r="H8" s="3">
-        <v>68100</v>
+        <v>173100</v>
       </c>
       <c r="I8" s="3">
-        <v>42900</v>
+        <v>68600</v>
       </c>
       <c r="J8" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K8" s="3">
         <v>38500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>54800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>52500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>53500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>35700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>46200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>41300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>39700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>29000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>33300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>95600</v>
+        <v>138900</v>
       </c>
       <c r="E9" s="3">
-        <v>109200</v>
+        <v>96300</v>
       </c>
       <c r="F9" s="3">
-        <v>120400</v>
+        <v>110100</v>
       </c>
       <c r="G9" s="3">
-        <v>113300</v>
+        <v>121300</v>
       </c>
       <c r="H9" s="3">
-        <v>28300</v>
+        <v>114200</v>
       </c>
       <c r="I9" s="3">
-        <v>16100</v>
+        <v>28500</v>
       </c>
       <c r="J9" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K9" s="3">
         <v>14200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>19600</v>
       </c>
       <c r="M9" s="3">
         <v>19600</v>
       </c>
       <c r="N9" s="3">
+        <v>19600</v>
+      </c>
+      <c r="O9" s="3">
         <v>19900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>27200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29800</v>
+        <v>26800</v>
       </c>
       <c r="E10" s="3">
-        <v>39000</v>
+        <v>30000</v>
       </c>
       <c r="F10" s="3">
-        <v>55500</v>
+        <v>39300</v>
       </c>
       <c r="G10" s="3">
-        <v>58500</v>
+        <v>56000</v>
       </c>
       <c r="H10" s="3">
-        <v>39800</v>
+        <v>58900</v>
       </c>
       <c r="I10" s="3">
-        <v>26800</v>
+        <v>40100</v>
       </c>
       <c r="J10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K10" s="3">
         <v>24300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>17900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>22900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
-        <v>2400</v>
-      </c>
       <c r="F12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2000</v>
       </c>
       <c r="J12" s="3">
         <v>2000</v>
       </c>
       <c r="K12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,76 +1143,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8700</v>
+        <v>13300</v>
       </c>
       <c r="E14" s="3">
-        <v>5600</v>
+        <v>8800</v>
       </c>
       <c r="F14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G14" s="3">
         <v>3400</v>
       </c>
-      <c r="G14" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H14" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2000</v>
       </c>
-      <c r="I14" s="3">
-        <v>-6700</v>
-      </c>
       <c r="J14" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-2300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-2000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>131500</v>
+        <v>190500</v>
       </c>
       <c r="E17" s="3">
-        <v>146200</v>
+        <v>132500</v>
       </c>
       <c r="F17" s="3">
-        <v>151000</v>
+        <v>147300</v>
       </c>
       <c r="G17" s="3">
-        <v>140700</v>
+        <v>152100</v>
       </c>
       <c r="H17" s="3">
-        <v>47000</v>
+        <v>141800</v>
       </c>
       <c r="I17" s="3">
-        <v>32500</v>
+        <v>47400</v>
       </c>
       <c r="J17" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K17" s="3">
         <v>51200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>40400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-6100</v>
+        <v>-24800</v>
       </c>
       <c r="E18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F18" s="3">
         <v>2100</v>
       </c>
-      <c r="F18" s="3">
-        <v>25000</v>
-      </c>
       <c r="G18" s="3">
-        <v>31100</v>
+        <v>25200</v>
       </c>
       <c r="H18" s="3">
-        <v>21100</v>
+        <v>31300</v>
       </c>
       <c r="I18" s="3">
-        <v>10400</v>
+        <v>21200</v>
       </c>
       <c r="J18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>23200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>18400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-63800</v>
+        <v>43300</v>
       </c>
       <c r="E20" s="3">
-        <v>96100</v>
+        <v>-64300</v>
       </c>
       <c r="F20" s="3">
-        <v>-67500</v>
+        <v>96900</v>
       </c>
       <c r="G20" s="3">
-        <v>236600</v>
+        <v>-68000</v>
       </c>
       <c r="H20" s="3">
-        <v>288700</v>
+        <v>238400</v>
       </c>
       <c r="I20" s="3">
-        <v>4500</v>
+        <v>290900</v>
       </c>
       <c r="J20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K20" s="3">
         <v>6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1563,40 +1599,43 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>17200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6800</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>15600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>18500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1608,22 +1647,22 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>700</v>
       </c>
       <c r="P22" s="3">
         <v>700</v>
@@ -1635,161 +1674,170 @@
         <v>700</v>
       </c>
       <c r="S22" s="3">
+        <v>700</v>
+      </c>
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-71200</v>
+        <v>17700</v>
       </c>
       <c r="E23" s="3">
-        <v>98200</v>
+        <v>-71700</v>
       </c>
       <c r="F23" s="3">
-        <v>-42600</v>
+        <v>98900</v>
       </c>
       <c r="G23" s="3">
-        <v>267600</v>
+        <v>-42900</v>
       </c>
       <c r="H23" s="3">
-        <v>309600</v>
+        <v>269700</v>
       </c>
       <c r="I23" s="3">
-        <v>14900</v>
+        <v>312000</v>
       </c>
       <c r="J23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>26000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>21900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>18300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6000</v>
       </c>
-      <c r="E24" s="3">
-        <v>10800</v>
-      </c>
       <c r="F24" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>22000</v>
-      </c>
       <c r="H24" s="3">
-        <v>32600</v>
+        <v>22200</v>
       </c>
       <c r="I24" s="3">
-        <v>3900</v>
+        <v>32900</v>
       </c>
       <c r="J24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-65200</v>
+        <v>19600</v>
       </c>
       <c r="E26" s="3">
-        <v>87300</v>
+        <v>-65700</v>
       </c>
       <c r="F26" s="3">
-        <v>-42900</v>
+        <v>88000</v>
       </c>
       <c r="G26" s="3">
-        <v>245600</v>
+        <v>-43200</v>
       </c>
       <c r="H26" s="3">
-        <v>277000</v>
+        <v>247400</v>
       </c>
       <c r="I26" s="3">
+        <v>279100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>17500</v>
+      </c>
+      <c r="M26" s="3">
+        <v>19100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>14800</v>
+      </c>
+      <c r="O26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>14900</v>
+      </c>
+      <c r="R26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="S26" s="3">
+        <v>12100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W26" s="3">
         <v>11000</v>
       </c>
-      <c r="J26" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>17500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>19100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>14800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>11300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>7600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>14900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>9300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>12100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>4400</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V26" s="3">
-        <v>11000</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>13500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-65200</v>
+        <v>19600</v>
       </c>
       <c r="E27" s="3">
-        <v>87300</v>
+        <v>-65700</v>
       </c>
       <c r="F27" s="3">
-        <v>-42900</v>
+        <v>88000</v>
       </c>
       <c r="G27" s="3">
-        <v>245600</v>
+        <v>-43200</v>
       </c>
       <c r="H27" s="3">
-        <v>277000</v>
+        <v>247400</v>
       </c>
       <c r="I27" s="3">
-        <v>11000</v>
+        <v>279100</v>
       </c>
       <c r="J27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W27" s="3">
         <v>5500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>63800</v>
+        <v>-43300</v>
       </c>
       <c r="E32" s="3">
-        <v>-96100</v>
+        <v>64300</v>
       </c>
       <c r="F32" s="3">
-        <v>67500</v>
+        <v>-96900</v>
       </c>
       <c r="G32" s="3">
-        <v>-236600</v>
+        <v>68000</v>
       </c>
       <c r="H32" s="3">
-        <v>-288700</v>
+        <v>-238400</v>
       </c>
       <c r="I32" s="3">
-        <v>-4500</v>
+        <v>-290900</v>
       </c>
       <c r="J32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-65200</v>
+        <v>19600</v>
       </c>
       <c r="E33" s="3">
-        <v>87300</v>
+        <v>-65700</v>
       </c>
       <c r="F33" s="3">
-        <v>-42900</v>
+        <v>88000</v>
       </c>
       <c r="G33" s="3">
-        <v>245600</v>
+        <v>-43200</v>
       </c>
       <c r="H33" s="3">
-        <v>277000</v>
+        <v>247400</v>
       </c>
       <c r="I33" s="3">
-        <v>11000</v>
+        <v>279100</v>
       </c>
       <c r="J33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W33" s="3">
         <v>5500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-65200</v>
+        <v>19600</v>
       </c>
       <c r="E35" s="3">
-        <v>87300</v>
+        <v>-65700</v>
       </c>
       <c r="F35" s="3">
-        <v>-42900</v>
+        <v>88000</v>
       </c>
       <c r="G35" s="3">
-        <v>245600</v>
+        <v>-43200</v>
       </c>
       <c r="H35" s="3">
-        <v>277000</v>
+        <v>247400</v>
       </c>
       <c r="I35" s="3">
-        <v>11000</v>
+        <v>279100</v>
       </c>
       <c r="J35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W35" s="3">
         <v>5500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2746,66 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>141900</v>
+        <v>226400</v>
       </c>
       <c r="E41" s="3">
-        <v>234700</v>
+        <v>143000</v>
       </c>
       <c r="F41" s="3">
-        <v>255400</v>
+        <v>236500</v>
       </c>
       <c r="G41" s="3">
-        <v>223400</v>
+        <v>257300</v>
       </c>
       <c r="H41" s="3">
-        <v>222800</v>
+        <v>225100</v>
       </c>
       <c r="I41" s="3">
-        <v>314700</v>
+        <v>224500</v>
       </c>
       <c r="J41" s="3">
+        <v>317100</v>
+      </c>
+      <c r="K41" s="3">
         <v>429100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>308300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>288800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>251100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>331300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>423000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>509800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>447900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>281600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>119200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>93600</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,65 +2815,68 @@
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>561800</v>
+        <v>410000</v>
       </c>
       <c r="E42" s="3">
-        <v>489600</v>
+        <v>566100</v>
       </c>
       <c r="F42" s="3">
-        <v>411400</v>
+        <v>493300</v>
       </c>
       <c r="G42" s="3">
-        <v>679800</v>
+        <v>414500</v>
       </c>
       <c r="H42" s="3">
-        <v>178500</v>
+        <v>685100</v>
       </c>
       <c r="I42" s="3">
-        <v>130700</v>
+        <v>179900</v>
       </c>
       <c r="J42" s="3">
+        <v>131700</v>
+      </c>
+      <c r="K42" s="3">
         <v>116100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>92000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>85200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>28200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>86000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13300</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,65 +2886,68 @@
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>401700</v>
+        <v>399100</v>
       </c>
       <c r="E43" s="3">
-        <v>412200</v>
+        <v>404700</v>
       </c>
       <c r="F43" s="3">
-        <v>431300</v>
+        <v>415400</v>
       </c>
       <c r="G43" s="3">
-        <v>401100</v>
+        <v>434600</v>
       </c>
       <c r="H43" s="3">
-        <v>341300</v>
+        <v>404100</v>
       </c>
       <c r="I43" s="3">
-        <v>274300</v>
+        <v>343900</v>
       </c>
       <c r="J43" s="3">
+        <v>276500</v>
+      </c>
+      <c r="K43" s="3">
         <v>285200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>285300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>258400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>257100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>235500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>176500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>119300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>18200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>23000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25000</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,65 +3028,68 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>124200</v>
+        <v>164700</v>
       </c>
       <c r="E45" s="3">
-        <v>144400</v>
+        <v>125200</v>
       </c>
       <c r="F45" s="3">
-        <v>102700</v>
+        <v>145500</v>
       </c>
       <c r="G45" s="3">
-        <v>88900</v>
+        <v>103500</v>
       </c>
       <c r="H45" s="3">
-        <v>47500</v>
+        <v>89600</v>
       </c>
       <c r="I45" s="3">
-        <v>88500</v>
+        <v>47900</v>
       </c>
       <c r="J45" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K45" s="3">
         <v>119900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>167600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>110200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>103700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>96200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>52300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>163300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32900</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3001,65 +3099,68 @@
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1229600</v>
+        <v>1200200</v>
       </c>
       <c r="E46" s="3">
-        <v>1280900</v>
+        <v>1239000</v>
       </c>
       <c r="F46" s="3">
-        <v>1200700</v>
+        <v>1290700</v>
       </c>
       <c r="G46" s="3">
-        <v>1393200</v>
+        <v>1209900</v>
       </c>
       <c r="H46" s="3">
-        <v>790100</v>
+        <v>1403900</v>
       </c>
       <c r="I46" s="3">
-        <v>808300</v>
+        <v>796200</v>
       </c>
       <c r="J46" s="3">
+        <v>814500</v>
+      </c>
+      <c r="K46" s="3">
         <v>950400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>853200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>729500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>697100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>680000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>690500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>667600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>636800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>408800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>164500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>164700</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3069,65 +3170,68 @@
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>239400</v>
+        <v>240500</v>
       </c>
       <c r="E47" s="3">
-        <v>260100</v>
+        <v>241300</v>
       </c>
       <c r="F47" s="3">
-        <v>263500</v>
+        <v>262100</v>
       </c>
       <c r="G47" s="3">
-        <v>271800</v>
+        <v>265500</v>
       </c>
       <c r="H47" s="3">
-        <v>583700</v>
+        <v>273900</v>
       </c>
       <c r="I47" s="3">
-        <v>245600</v>
+        <v>588200</v>
       </c>
       <c r="J47" s="3">
+        <v>247500</v>
+      </c>
+      <c r="K47" s="3">
         <v>285400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>309300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>326100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>315000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>321000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>228900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>145700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>51000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>50900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>71900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>64200</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,56 +3253,56 @@
         <v>3100</v>
       </c>
       <c r="E48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2700</v>
       </c>
       <c r="P48" s="3">
         <v>2700</v>
       </c>
       <c r="Q48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3205,64 +3312,67 @@
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30400</v>
+        <v>30700</v>
       </c>
       <c r="E49" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>29900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>29900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>29900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K49" s="3">
         <v>29700</v>
       </c>
-      <c r="F49" s="3">
-        <v>29700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>29700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>29700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>29700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>29700</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20600</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>200</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
       </c>
       <c r="S49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T49" s="3">
         <v>300</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>16</v>
+      <c r="U49" s="3">
+        <v>300</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>16</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,65 +3525,68 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>256900</v>
+        <v>252500</v>
       </c>
       <c r="E52" s="3">
-        <v>258000</v>
+        <v>258900</v>
       </c>
       <c r="F52" s="3">
-        <v>264000</v>
+        <v>259900</v>
       </c>
       <c r="G52" s="3">
-        <v>205200</v>
+        <v>266000</v>
       </c>
       <c r="H52" s="3">
-        <v>189100</v>
+        <v>206800</v>
       </c>
       <c r="I52" s="3">
-        <v>167100</v>
+        <v>190500</v>
       </c>
       <c r="J52" s="3">
+        <v>168400</v>
+      </c>
+      <c r="K52" s="3">
         <v>163400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>151300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>141700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>139800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>137200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>117000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>95100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>83500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>77000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>58300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3667,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1759400</v>
+        <v>1727000</v>
       </c>
       <c r="E54" s="3">
-        <v>1832000</v>
+        <v>1772900</v>
       </c>
       <c r="F54" s="3">
-        <v>1761100</v>
+        <v>1846000</v>
       </c>
       <c r="G54" s="3">
-        <v>1901600</v>
+        <v>1774600</v>
       </c>
       <c r="H54" s="3">
-        <v>1594600</v>
+        <v>1916100</v>
       </c>
       <c r="I54" s="3">
-        <v>1252800</v>
+        <v>1606900</v>
       </c>
       <c r="J54" s="3">
+        <v>1262400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1430900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1345300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1227600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1182500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1168300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1060300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>931700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>774000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>538700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>296400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>257200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3709,21 +3839,21 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3733,65 +3863,68 @@
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>312900</v>
+        <v>239400</v>
       </c>
       <c r="E58" s="3">
-        <v>297700</v>
+        <v>315300</v>
       </c>
       <c r="F58" s="3">
-        <v>244400</v>
+        <v>300000</v>
       </c>
       <c r="G58" s="3">
-        <v>248100</v>
+        <v>246300</v>
       </c>
       <c r="H58" s="3">
-        <v>262300</v>
+        <v>250000</v>
       </c>
       <c r="I58" s="3">
-        <v>295000</v>
+        <v>264300</v>
       </c>
       <c r="J58" s="3">
+        <v>297200</v>
+      </c>
+      <c r="K58" s="3">
         <v>397900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>354600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>288100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>257800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>243300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>163700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>66500</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U58" s="3">
         <v>13800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3801,65 +3934,68 @@
       <c r="X58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>238300</v>
+        <v>299700</v>
       </c>
       <c r="E59" s="3">
-        <v>216700</v>
+        <v>240100</v>
       </c>
       <c r="F59" s="3">
-        <v>279200</v>
+        <v>218300</v>
       </c>
       <c r="G59" s="3">
-        <v>136600</v>
+        <v>281400</v>
       </c>
       <c r="H59" s="3">
-        <v>98500</v>
+        <v>137700</v>
       </c>
       <c r="I59" s="3">
-        <v>81800</v>
+        <v>99200</v>
       </c>
       <c r="J59" s="3">
+        <v>82500</v>
+      </c>
+      <c r="K59" s="3">
         <v>94000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>93300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>73100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>63600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>52300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>60000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>63400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>76700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>39900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,65 +4005,68 @@
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>551200</v>
+        <v>539200</v>
       </c>
       <c r="E60" s="3">
-        <v>514400</v>
+        <v>555400</v>
       </c>
       <c r="F60" s="3">
-        <v>523700</v>
+        <v>518300</v>
       </c>
       <c r="G60" s="3">
-        <v>384700</v>
+        <v>527700</v>
       </c>
       <c r="H60" s="3">
-        <v>360800</v>
+        <v>387700</v>
       </c>
       <c r="I60" s="3">
-        <v>376800</v>
+        <v>363600</v>
       </c>
       <c r="J60" s="3">
+        <v>379700</v>
+      </c>
+      <c r="K60" s="3">
         <v>491900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>447900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>353600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>323100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>316400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>227300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>118800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>60000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>63400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>78100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>54300</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,65 +4076,68 @@
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100000</v>
+        <v>76700</v>
       </c>
       <c r="E61" s="3">
-        <v>131000</v>
+        <v>100700</v>
       </c>
       <c r="F61" s="3">
-        <v>128200</v>
+        <v>132000</v>
       </c>
       <c r="G61" s="3">
-        <v>153100</v>
+        <v>129200</v>
       </c>
       <c r="H61" s="3">
-        <v>110700</v>
+        <v>154300</v>
       </c>
       <c r="I61" s="3">
-        <v>47200</v>
+        <v>111500</v>
       </c>
       <c r="J61" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K61" s="3">
         <v>76000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>46500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>49000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>45700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>68700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>81400</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>25100</v>
       </c>
       <c r="R61" s="3">
         <v>25100</v>
       </c>
       <c r="S61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="T61" s="3">
         <v>26000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4005,64 +4147,67 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19900</v>
+        <v>8300</v>
       </c>
       <c r="E62" s="3">
-        <v>27300</v>
+        <v>20100</v>
       </c>
       <c r="F62" s="3">
-        <v>23900</v>
+        <v>27500</v>
       </c>
       <c r="G62" s="3">
-        <v>52500</v>
+        <v>24100</v>
       </c>
       <c r="H62" s="3">
-        <v>37500</v>
+        <v>52900</v>
       </c>
       <c r="I62" s="3">
+        <v>37700</v>
+      </c>
+      <c r="J62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5300</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>5000</v>
       </c>
       <c r="R62" s="3">
         <v>5000</v>
       </c>
       <c r="S62" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="T62" s="3">
         <v>5300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>16</v>
+      <c r="U62" s="3">
+        <v>5300</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>16</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4431,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>671100</v>
+        <v>624200</v>
       </c>
       <c r="E66" s="3">
-        <v>672700</v>
+        <v>676200</v>
       </c>
       <c r="F66" s="3">
-        <v>675800</v>
+        <v>677800</v>
       </c>
       <c r="G66" s="3">
-        <v>590300</v>
+        <v>680900</v>
       </c>
       <c r="H66" s="3">
-        <v>508900</v>
+        <v>594900</v>
       </c>
       <c r="I66" s="3">
-        <v>429100</v>
+        <v>512800</v>
       </c>
       <c r="J66" s="3">
+        <v>432400</v>
+      </c>
+      <c r="K66" s="3">
         <v>572300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>501800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>390400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>372500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>361900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>297600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>206000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>92000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>94800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>113200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4552,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>771700</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>565600</v>
-      </c>
-      <c r="S70" s="3">
-        <v>585000</v>
       </c>
       <c r="T70" s="3">
         <v>585000</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
+        <v>585000</v>
       </c>
       <c r="V70" s="3">
         <v>0</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4813,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>448900</v>
+        <v>471900</v>
       </c>
       <c r="E72" s="3">
-        <v>514100</v>
+        <v>452300</v>
       </c>
       <c r="F72" s="3">
-        <v>426800</v>
+        <v>518000</v>
       </c>
       <c r="G72" s="3">
-        <v>619300</v>
+        <v>430100</v>
       </c>
       <c r="H72" s="3">
-        <v>373700</v>
+        <v>624000</v>
       </c>
       <c r="I72" s="3">
-        <v>96700</v>
+        <v>376600</v>
       </c>
       <c r="J72" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K72" s="3">
         <v>127500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>131300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>113800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>95400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>117800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>101400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>708000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-96700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-122100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-402400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-407600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5097,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1088400</v>
+        <v>1102800</v>
       </c>
       <c r="E76" s="3">
-        <v>1159300</v>
+        <v>1096700</v>
       </c>
       <c r="F76" s="3">
-        <v>1085400</v>
+        <v>1168200</v>
       </c>
       <c r="G76" s="3">
-        <v>1311200</v>
+        <v>1093700</v>
       </c>
       <c r="H76" s="3">
-        <v>1085700</v>
+        <v>1321300</v>
       </c>
       <c r="I76" s="3">
-        <v>823700</v>
+        <v>1094000</v>
       </c>
       <c r="J76" s="3">
+        <v>830100</v>
+      </c>
+      <c r="K76" s="3">
         <v>858700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>843500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>837300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>810000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>806400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>762700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>725700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-89700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-121600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-401800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-407000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-65200</v>
+        <v>19600</v>
       </c>
       <c r="E81" s="3">
-        <v>87300</v>
+        <v>-65700</v>
       </c>
       <c r="F81" s="3">
-        <v>-42900</v>
+        <v>88000</v>
       </c>
       <c r="G81" s="3">
-        <v>245600</v>
+        <v>-43200</v>
       </c>
       <c r="H81" s="3">
-        <v>277000</v>
+        <v>247400</v>
       </c>
       <c r="I81" s="3">
-        <v>11000</v>
+        <v>279100</v>
       </c>
       <c r="J81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W81" s="3">
         <v>5500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5262,18 +5460,18 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5670,18 +5886,18 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S89" s="3">
         <v>-6100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>42600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5764,18 +5984,18 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5968,18 +6197,18 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="3">
         <v>-61400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6334,18 +6579,18 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="3">
         <v>252400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6402,18 +6650,18 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6470,18 +6721,18 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="3">
         <v>184600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>36800</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>16</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>165700</v>
+        <v>154800</v>
       </c>
       <c r="E8" s="3">
-        <v>126300</v>
+        <v>118000</v>
       </c>
       <c r="F8" s="3">
-        <v>149400</v>
+        <v>139500</v>
       </c>
       <c r="G8" s="3">
-        <v>177300</v>
+        <v>165600</v>
       </c>
       <c r="H8" s="3">
-        <v>173100</v>
+        <v>161700</v>
       </c>
       <c r="I8" s="3">
-        <v>68600</v>
+        <v>64100</v>
       </c>
       <c r="J8" s="3">
-        <v>43200</v>
+        <v>40400</v>
       </c>
       <c r="K8" s="3">
         <v>38500</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>138900</v>
+        <v>129800</v>
       </c>
       <c r="E9" s="3">
-        <v>96300</v>
+        <v>90000</v>
       </c>
       <c r="F9" s="3">
-        <v>110100</v>
+        <v>102800</v>
       </c>
       <c r="G9" s="3">
-        <v>121300</v>
+        <v>113300</v>
       </c>
       <c r="H9" s="3">
-        <v>114200</v>
+        <v>106700</v>
       </c>
       <c r="I9" s="3">
-        <v>28500</v>
+        <v>26700</v>
       </c>
       <c r="J9" s="3">
-        <v>16200</v>
+        <v>15200</v>
       </c>
       <c r="K9" s="3">
         <v>14200</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26800</v>
+        <v>25000</v>
       </c>
       <c r="E10" s="3">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="F10" s="3">
-        <v>39300</v>
+        <v>36700</v>
       </c>
       <c r="G10" s="3">
-        <v>56000</v>
+        <v>52300</v>
       </c>
       <c r="H10" s="3">
-        <v>58900</v>
+        <v>55000</v>
       </c>
       <c r="I10" s="3">
-        <v>40100</v>
+        <v>37400</v>
       </c>
       <c r="J10" s="3">
-        <v>27000</v>
+        <v>25200</v>
       </c>
       <c r="K10" s="3">
         <v>24300</v>
@@ -1010,25 +1010,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E12" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F12" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="G12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2200</v>
-      </c>
       <c r="J12" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K12" s="3">
         <v>2000</v>
@@ -1152,25 +1152,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="E14" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="F14" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G14" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="H14" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="I14" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J14" s="3">
-        <v>-6800</v>
+        <v>-6300</v>
       </c>
       <c r="K14" s="3">
         <v>12000</v>
@@ -1318,25 +1318,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>190500</v>
+        <v>177900</v>
       </c>
       <c r="E17" s="3">
+        <v>123700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>137600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>142100</v>
+      </c>
+      <c r="H17" s="3">
         <v>132500</v>
       </c>
-      <c r="F17" s="3">
-        <v>147300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>152100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>141800</v>
-      </c>
       <c r="I17" s="3">
-        <v>47400</v>
+        <v>44300</v>
       </c>
       <c r="J17" s="3">
-        <v>32700</v>
+        <v>30600</v>
       </c>
       <c r="K17" s="3">
         <v>51200</v>
@@ -1389,25 +1389,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-24800</v>
+        <v>-23100</v>
       </c>
       <c r="E18" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="F18" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G18" s="3">
-        <v>25200</v>
+        <v>23500</v>
       </c>
       <c r="H18" s="3">
-        <v>31300</v>
+        <v>29200</v>
       </c>
       <c r="I18" s="3">
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="J18" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="K18" s="3">
         <v>-12700</v>
@@ -1487,25 +1487,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>43300</v>
+        <v>40500</v>
       </c>
       <c r="E20" s="3">
-        <v>-64300</v>
+        <v>-60000</v>
       </c>
       <c r="F20" s="3">
-        <v>96900</v>
+        <v>90500</v>
       </c>
       <c r="G20" s="3">
-        <v>-68000</v>
+        <v>-63500</v>
       </c>
       <c r="H20" s="3">
-        <v>238400</v>
+        <v>222700</v>
       </c>
       <c r="I20" s="3">
-        <v>290900</v>
+        <v>271700</v>
       </c>
       <c r="J20" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="K20" s="3">
         <v>6800</v>
@@ -1632,7 +1632,7 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="E23" s="3">
-        <v>-71700</v>
+        <v>-67000</v>
       </c>
       <c r="F23" s="3">
-        <v>98900</v>
+        <v>92400</v>
       </c>
       <c r="G23" s="3">
-        <v>-42900</v>
+        <v>-40100</v>
       </c>
       <c r="H23" s="3">
-        <v>269700</v>
+        <v>251900</v>
       </c>
       <c r="I23" s="3">
-        <v>312000</v>
+        <v>291500</v>
       </c>
       <c r="J23" s="3">
-        <v>15000</v>
+        <v>14100</v>
       </c>
       <c r="K23" s="3">
         <v>-6100</v>
@@ -1771,25 +1771,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="E24" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="F24" s="3">
-        <v>10900</v>
+        <v>10200</v>
       </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="I24" s="3">
-        <v>32900</v>
+        <v>30700</v>
       </c>
       <c r="J24" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="K24" s="3">
         <v>-700</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="E26" s="3">
-        <v>-65700</v>
+        <v>-61400</v>
       </c>
       <c r="F26" s="3">
-        <v>88000</v>
+        <v>82200</v>
       </c>
       <c r="G26" s="3">
-        <v>-43200</v>
+        <v>-40400</v>
       </c>
       <c r="H26" s="3">
-        <v>247400</v>
+        <v>231100</v>
       </c>
       <c r="I26" s="3">
-        <v>279100</v>
+        <v>260700</v>
       </c>
       <c r="J26" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="K26" s="3">
         <v>-5400</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="E27" s="3">
-        <v>-65700</v>
+        <v>-61400</v>
       </c>
       <c r="F27" s="3">
-        <v>88000</v>
+        <v>82200</v>
       </c>
       <c r="G27" s="3">
-        <v>-43200</v>
+        <v>-40400</v>
       </c>
       <c r="H27" s="3">
-        <v>247400</v>
+        <v>231100</v>
       </c>
       <c r="I27" s="3">
-        <v>279100</v>
+        <v>260700</v>
       </c>
       <c r="J27" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="K27" s="3">
         <v>-6000</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-43300</v>
+        <v>-40500</v>
       </c>
       <c r="E32" s="3">
-        <v>64300</v>
+        <v>60000</v>
       </c>
       <c r="F32" s="3">
-        <v>-96900</v>
+        <v>-90500</v>
       </c>
       <c r="G32" s="3">
-        <v>68000</v>
+        <v>63500</v>
       </c>
       <c r="H32" s="3">
-        <v>-238400</v>
+        <v>-222700</v>
       </c>
       <c r="I32" s="3">
-        <v>-290900</v>
+        <v>-271700</v>
       </c>
       <c r="J32" s="3">
-        <v>-4600</v>
+        <v>-4300</v>
       </c>
       <c r="K32" s="3">
         <v>-6800</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="E33" s="3">
-        <v>-65700</v>
+        <v>-61400</v>
       </c>
       <c r="F33" s="3">
-        <v>88000</v>
+        <v>82200</v>
       </c>
       <c r="G33" s="3">
-        <v>-43200</v>
+        <v>-40400</v>
       </c>
       <c r="H33" s="3">
-        <v>247400</v>
+        <v>231100</v>
       </c>
       <c r="I33" s="3">
-        <v>279100</v>
+        <v>260700</v>
       </c>
       <c r="J33" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="K33" s="3">
         <v>-6000</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="E35" s="3">
-        <v>-65700</v>
+        <v>-61400</v>
       </c>
       <c r="F35" s="3">
-        <v>88000</v>
+        <v>82200</v>
       </c>
       <c r="G35" s="3">
-        <v>-43200</v>
+        <v>-40400</v>
       </c>
       <c r="H35" s="3">
-        <v>247400</v>
+        <v>231100</v>
       </c>
       <c r="I35" s="3">
-        <v>279100</v>
+        <v>260700</v>
       </c>
       <c r="J35" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="K35" s="3">
         <v>-6000</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>226400</v>
+        <v>211400</v>
       </c>
       <c r="E41" s="3">
-        <v>143000</v>
+        <v>133600</v>
       </c>
       <c r="F41" s="3">
-        <v>236500</v>
+        <v>220900</v>
       </c>
       <c r="G41" s="3">
-        <v>257300</v>
+        <v>240300</v>
       </c>
       <c r="H41" s="3">
-        <v>225100</v>
+        <v>210300</v>
       </c>
       <c r="I41" s="3">
-        <v>224500</v>
+        <v>209700</v>
       </c>
       <c r="J41" s="3">
-        <v>317100</v>
+        <v>296200</v>
       </c>
       <c r="K41" s="3">
         <v>429100</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>410000</v>
+        <v>383000</v>
       </c>
       <c r="E42" s="3">
-        <v>566100</v>
+        <v>528800</v>
       </c>
       <c r="F42" s="3">
-        <v>493300</v>
+        <v>460800</v>
       </c>
       <c r="G42" s="3">
-        <v>414500</v>
+        <v>387200</v>
       </c>
       <c r="H42" s="3">
-        <v>685100</v>
+        <v>639900</v>
       </c>
       <c r="I42" s="3">
-        <v>179900</v>
+        <v>168000</v>
       </c>
       <c r="J42" s="3">
-        <v>131700</v>
+        <v>123100</v>
       </c>
       <c r="K42" s="3">
         <v>116100</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>399100</v>
+        <v>372800</v>
       </c>
       <c r="E43" s="3">
-        <v>404700</v>
+        <v>378100</v>
       </c>
       <c r="F43" s="3">
-        <v>415400</v>
+        <v>388000</v>
       </c>
       <c r="G43" s="3">
-        <v>434600</v>
+        <v>406000</v>
       </c>
       <c r="H43" s="3">
-        <v>404100</v>
+        <v>377500</v>
       </c>
       <c r="I43" s="3">
-        <v>343900</v>
+        <v>321200</v>
       </c>
       <c r="J43" s="3">
-        <v>276500</v>
+        <v>258200</v>
       </c>
       <c r="K43" s="3">
         <v>285200</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>164700</v>
+        <v>153900</v>
       </c>
       <c r="E45" s="3">
-        <v>125200</v>
+        <v>116900</v>
       </c>
       <c r="F45" s="3">
-        <v>145500</v>
+        <v>135900</v>
       </c>
       <c r="G45" s="3">
-        <v>103500</v>
+        <v>96600</v>
       </c>
       <c r="H45" s="3">
-        <v>89600</v>
+        <v>83700</v>
       </c>
       <c r="I45" s="3">
-        <v>47900</v>
+        <v>44700</v>
       </c>
       <c r="J45" s="3">
-        <v>89200</v>
+        <v>83300</v>
       </c>
       <c r="K45" s="3">
         <v>119900</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1200200</v>
+        <v>1121100</v>
       </c>
       <c r="E46" s="3">
-        <v>1239000</v>
+        <v>1157300</v>
       </c>
       <c r="F46" s="3">
-        <v>1290700</v>
+        <v>1205600</v>
       </c>
       <c r="G46" s="3">
-        <v>1209900</v>
+        <v>1130200</v>
       </c>
       <c r="H46" s="3">
-        <v>1403900</v>
+        <v>1311400</v>
       </c>
       <c r="I46" s="3">
-        <v>796200</v>
+        <v>743700</v>
       </c>
       <c r="J46" s="3">
-        <v>814500</v>
+        <v>760800</v>
       </c>
       <c r="K46" s="3">
         <v>950400</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>240500</v>
+        <v>224700</v>
       </c>
       <c r="E47" s="3">
-        <v>241300</v>
+        <v>225400</v>
       </c>
       <c r="F47" s="3">
-        <v>262100</v>
+        <v>244800</v>
       </c>
       <c r="G47" s="3">
-        <v>265500</v>
+        <v>248000</v>
       </c>
       <c r="H47" s="3">
-        <v>273900</v>
+        <v>255800</v>
       </c>
       <c r="I47" s="3">
-        <v>588200</v>
+        <v>549400</v>
       </c>
       <c r="J47" s="3">
-        <v>247500</v>
+        <v>231200</v>
       </c>
       <c r="K47" s="3">
         <v>285400</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3300</v>
-      </c>
       <c r="G48" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I48" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="J48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K48" s="3">
         <v>2100</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30700</v>
+        <v>28700</v>
       </c>
       <c r="E49" s="3">
-        <v>30700</v>
+        <v>28600</v>
       </c>
       <c r="F49" s="3">
-        <v>29900</v>
+        <v>28000</v>
       </c>
       <c r="G49" s="3">
-        <v>29900</v>
+        <v>28000</v>
       </c>
       <c r="H49" s="3">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="I49" s="3">
-        <v>29900</v>
+        <v>28000</v>
       </c>
       <c r="J49" s="3">
-        <v>29900</v>
+        <v>27900</v>
       </c>
       <c r="K49" s="3">
         <v>29700</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>252500</v>
+        <v>235800</v>
       </c>
       <c r="E52" s="3">
-        <v>258900</v>
+        <v>241800</v>
       </c>
       <c r="F52" s="3">
-        <v>259900</v>
+        <v>242800</v>
       </c>
       <c r="G52" s="3">
-        <v>266000</v>
+        <v>248500</v>
       </c>
       <c r="H52" s="3">
-        <v>206800</v>
+        <v>193200</v>
       </c>
       <c r="I52" s="3">
-        <v>190500</v>
+        <v>177900</v>
       </c>
       <c r="J52" s="3">
-        <v>168400</v>
+        <v>157300</v>
       </c>
       <c r="K52" s="3">
         <v>163400</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1727000</v>
+        <v>1613200</v>
       </c>
       <c r="E54" s="3">
-        <v>1772900</v>
+        <v>1656100</v>
       </c>
       <c r="F54" s="3">
-        <v>1846000</v>
+        <v>1724300</v>
       </c>
       <c r="G54" s="3">
-        <v>1774600</v>
+        <v>1657600</v>
       </c>
       <c r="H54" s="3">
-        <v>1916100</v>
+        <v>1789800</v>
       </c>
       <c r="I54" s="3">
-        <v>1606900</v>
+        <v>1500900</v>
       </c>
       <c r="J54" s="3">
-        <v>1262400</v>
+        <v>1179200</v>
       </c>
       <c r="K54" s="3">
         <v>1430900</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>239400</v>
+        <v>223700</v>
       </c>
       <c r="E58" s="3">
-        <v>315300</v>
+        <v>294500</v>
       </c>
       <c r="F58" s="3">
-        <v>300000</v>
+        <v>280200</v>
       </c>
       <c r="G58" s="3">
-        <v>246300</v>
+        <v>230100</v>
       </c>
       <c r="H58" s="3">
-        <v>250000</v>
+        <v>233500</v>
       </c>
       <c r="I58" s="3">
-        <v>264300</v>
+        <v>246900</v>
       </c>
       <c r="J58" s="3">
-        <v>297200</v>
+        <v>277600</v>
       </c>
       <c r="K58" s="3">
         <v>397900</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>299700</v>
+        <v>280000</v>
       </c>
       <c r="E59" s="3">
-        <v>240100</v>
+        <v>224300</v>
       </c>
       <c r="F59" s="3">
-        <v>218300</v>
+        <v>203900</v>
       </c>
       <c r="G59" s="3">
-        <v>281400</v>
+        <v>262800</v>
       </c>
       <c r="H59" s="3">
-        <v>137700</v>
+        <v>128600</v>
       </c>
       <c r="I59" s="3">
-        <v>99200</v>
+        <v>92700</v>
       </c>
       <c r="J59" s="3">
-        <v>82500</v>
+        <v>77000</v>
       </c>
       <c r="K59" s="3">
         <v>94000</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>539200</v>
+        <v>503600</v>
       </c>
       <c r="E60" s="3">
-        <v>555400</v>
+        <v>518800</v>
       </c>
       <c r="F60" s="3">
-        <v>518300</v>
+        <v>484200</v>
       </c>
       <c r="G60" s="3">
-        <v>527700</v>
+        <v>492900</v>
       </c>
       <c r="H60" s="3">
-        <v>387700</v>
+        <v>362100</v>
       </c>
       <c r="I60" s="3">
-        <v>363600</v>
+        <v>339600</v>
       </c>
       <c r="J60" s="3">
-        <v>379700</v>
+        <v>354700</v>
       </c>
       <c r="K60" s="3">
         <v>491900</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>76700</v>
+        <v>71700</v>
       </c>
       <c r="E61" s="3">
-        <v>100700</v>
+        <v>94100</v>
       </c>
       <c r="F61" s="3">
-        <v>132000</v>
+        <v>123300</v>
       </c>
       <c r="G61" s="3">
-        <v>129200</v>
+        <v>120600</v>
       </c>
       <c r="H61" s="3">
-        <v>154300</v>
+        <v>144100</v>
       </c>
       <c r="I61" s="3">
-        <v>111500</v>
+        <v>104200</v>
       </c>
       <c r="J61" s="3">
-        <v>47600</v>
+        <v>44500</v>
       </c>
       <c r="K61" s="3">
         <v>76000</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="E62" s="3">
-        <v>20100</v>
+        <v>18700</v>
       </c>
       <c r="F62" s="3">
-        <v>27500</v>
+        <v>25700</v>
       </c>
       <c r="G62" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="H62" s="3">
-        <v>52900</v>
+        <v>49500</v>
       </c>
       <c r="I62" s="3">
-        <v>37700</v>
+        <v>35300</v>
       </c>
       <c r="J62" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="K62" s="3">
         <v>4400</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>624200</v>
+        <v>583000</v>
       </c>
       <c r="E66" s="3">
-        <v>676200</v>
+        <v>631600</v>
       </c>
       <c r="F66" s="3">
-        <v>677800</v>
+        <v>633100</v>
       </c>
       <c r="G66" s="3">
-        <v>680900</v>
+        <v>636000</v>
       </c>
       <c r="H66" s="3">
-        <v>594900</v>
+        <v>555700</v>
       </c>
       <c r="I66" s="3">
-        <v>512800</v>
+        <v>479000</v>
       </c>
       <c r="J66" s="3">
-        <v>432400</v>
+        <v>403900</v>
       </c>
       <c r="K66" s="3">
         <v>572300</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>471900</v>
+        <v>440800</v>
       </c>
       <c r="E72" s="3">
-        <v>452300</v>
+        <v>422500</v>
       </c>
       <c r="F72" s="3">
-        <v>518000</v>
+        <v>483900</v>
       </c>
       <c r="G72" s="3">
-        <v>430100</v>
+        <v>401700</v>
       </c>
       <c r="H72" s="3">
-        <v>624000</v>
+        <v>582900</v>
       </c>
       <c r="I72" s="3">
-        <v>376600</v>
+        <v>351700</v>
       </c>
       <c r="J72" s="3">
-        <v>97500</v>
+        <v>91000</v>
       </c>
       <c r="K72" s="3">
         <v>127500</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1102800</v>
+        <v>1030100</v>
       </c>
       <c r="E76" s="3">
-        <v>1096700</v>
+        <v>1024400</v>
       </c>
       <c r="F76" s="3">
-        <v>1168200</v>
+        <v>1091200</v>
       </c>
       <c r="G76" s="3">
-        <v>1093700</v>
+        <v>1021600</v>
       </c>
       <c r="H76" s="3">
-        <v>1321300</v>
+        <v>1234200</v>
       </c>
       <c r="I76" s="3">
-        <v>1094000</v>
+        <v>1021900</v>
       </c>
       <c r="J76" s="3">
-        <v>830100</v>
+        <v>775300</v>
       </c>
       <c r="K76" s="3">
         <v>858700</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="E81" s="3">
-        <v>-65700</v>
+        <v>-61400</v>
       </c>
       <c r="F81" s="3">
-        <v>88000</v>
+        <v>82200</v>
       </c>
       <c r="G81" s="3">
-        <v>-43200</v>
+        <v>-40400</v>
       </c>
       <c r="H81" s="3">
-        <v>247400</v>
+        <v>231100</v>
       </c>
       <c r="I81" s="3">
-        <v>279100</v>
+        <v>260700</v>
       </c>
       <c r="J81" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="K81" s="3">
         <v>-6000</v>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>154800</v>
+        <v>115000</v>
       </c>
       <c r="E8" s="3">
-        <v>118000</v>
+        <v>153400</v>
       </c>
       <c r="F8" s="3">
-        <v>139500</v>
+        <v>116900</v>
       </c>
       <c r="G8" s="3">
-        <v>165600</v>
+        <v>138200</v>
       </c>
       <c r="H8" s="3">
-        <v>161700</v>
+        <v>164100</v>
       </c>
       <c r="I8" s="3">
-        <v>64100</v>
+        <v>160300</v>
       </c>
       <c r="J8" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K8" s="3">
         <v>40400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>54800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>52500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>53500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>46600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>35700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>46200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>41300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>39700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>29000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>33300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>129800</v>
+        <v>100300</v>
       </c>
       <c r="E9" s="3">
-        <v>90000</v>
+        <v>128600</v>
       </c>
       <c r="F9" s="3">
-        <v>102800</v>
+        <v>89200</v>
       </c>
       <c r="G9" s="3">
-        <v>113300</v>
+        <v>101900</v>
       </c>
       <c r="H9" s="3">
-        <v>106700</v>
+        <v>112300</v>
       </c>
       <c r="I9" s="3">
-        <v>26700</v>
+        <v>105700</v>
       </c>
       <c r="J9" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K9" s="3">
         <v>15200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>19600</v>
       </c>
       <c r="N9" s="3">
         <v>19600</v>
       </c>
       <c r="O9" s="3">
+        <v>19600</v>
+      </c>
+      <c r="P9" s="3">
         <v>19900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>27200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25000</v>
+        <v>14700</v>
       </c>
       <c r="E10" s="3">
-        <v>28000</v>
+        <v>24800</v>
       </c>
       <c r="F10" s="3">
-        <v>36700</v>
+        <v>27800</v>
       </c>
       <c r="G10" s="3">
-        <v>52300</v>
+        <v>36300</v>
       </c>
       <c r="H10" s="3">
-        <v>55000</v>
+        <v>51800</v>
       </c>
       <c r="I10" s="3">
-        <v>37400</v>
+        <v>54600</v>
       </c>
       <c r="J10" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K10" s="3">
         <v>25200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>35400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>17900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>22900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="E12" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="F12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G12" s="3">
         <v>2300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,79 +1163,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="E14" s="3">
-        <v>8200</v>
+        <v>12400</v>
       </c>
       <c r="F14" s="3">
-        <v>5300</v>
+        <v>8100</v>
       </c>
       <c r="G14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H14" s="3">
         <v>3200</v>
       </c>
-      <c r="H14" s="3">
-        <v>-2800</v>
-      </c>
       <c r="I14" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-6300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-2300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-2000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>177900</v>
+        <v>142600</v>
       </c>
       <c r="E17" s="3">
-        <v>123700</v>
+        <v>176300</v>
       </c>
       <c r="F17" s="3">
-        <v>137600</v>
+        <v>122600</v>
       </c>
       <c r="G17" s="3">
-        <v>142100</v>
+        <v>136300</v>
       </c>
       <c r="H17" s="3">
-        <v>132500</v>
+        <v>140800</v>
       </c>
       <c r="I17" s="3">
-        <v>44300</v>
+        <v>131300</v>
       </c>
       <c r="J17" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K17" s="3">
         <v>30600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>40400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-23100</v>
+        <v>-27600</v>
       </c>
       <c r="E18" s="3">
-        <v>-5800</v>
+        <v>-22900</v>
       </c>
       <c r="F18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
-        <v>23500</v>
-      </c>
       <c r="H18" s="3">
-        <v>29200</v>
+        <v>23300</v>
       </c>
       <c r="I18" s="3">
-        <v>19800</v>
+        <v>29000</v>
       </c>
       <c r="J18" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K18" s="3">
         <v>9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>23200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>18400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,79 +1514,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>40500</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>-60000</v>
+        <v>40100</v>
       </c>
       <c r="F20" s="3">
-        <v>90500</v>
+        <v>-59500</v>
       </c>
       <c r="G20" s="3">
-        <v>-63500</v>
+        <v>89700</v>
       </c>
       <c r="H20" s="3">
-        <v>222700</v>
+        <v>-63000</v>
       </c>
       <c r="I20" s="3">
-        <v>271700</v>
+        <v>220700</v>
       </c>
       <c r="J20" s="3">
+        <v>269300</v>
+      </c>
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1602,43 +1639,46 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>17200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6800</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>15600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>18500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1650,22 +1690,22 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>700</v>
       </c>
       <c r="Q22" s="3">
         <v>700</v>
@@ -1677,167 +1717,176 @@
         <v>700</v>
       </c>
       <c r="T22" s="3">
+        <v>700</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16500</v>
+        <v>-25300</v>
       </c>
       <c r="E23" s="3">
-        <v>-67000</v>
+        <v>16400</v>
       </c>
       <c r="F23" s="3">
-        <v>92400</v>
+        <v>-66400</v>
       </c>
       <c r="G23" s="3">
-        <v>-40100</v>
+        <v>91600</v>
       </c>
       <c r="H23" s="3">
-        <v>251900</v>
+        <v>-39700</v>
       </c>
       <c r="I23" s="3">
-        <v>291500</v>
+        <v>249600</v>
       </c>
       <c r="J23" s="3">
+        <v>288800</v>
+      </c>
+      <c r="K23" s="3">
         <v>14100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>16300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>26000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>21900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>15300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>18300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1800</v>
+        <v>-5400</v>
       </c>
       <c r="E24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-5600</v>
       </c>
-      <c r="F24" s="3">
-        <v>10200</v>
-      </c>
       <c r="G24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>20700</v>
-      </c>
       <c r="I24" s="3">
-        <v>30700</v>
+        <v>20600</v>
       </c>
       <c r="J24" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18300</v>
+        <v>-19900</v>
       </c>
       <c r="E26" s="3">
-        <v>-61400</v>
+        <v>18100</v>
       </c>
       <c r="F26" s="3">
-        <v>82200</v>
+        <v>-60800</v>
       </c>
       <c r="G26" s="3">
-        <v>-40400</v>
+        <v>81400</v>
       </c>
       <c r="H26" s="3">
-        <v>231100</v>
+        <v>-40000</v>
       </c>
       <c r="I26" s="3">
-        <v>260700</v>
+        <v>229000</v>
       </c>
       <c r="J26" s="3">
+        <v>258400</v>
+      </c>
+      <c r="K26" s="3">
         <v>10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4400</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X26" s="3">
         <v>11000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>13500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18300</v>
+        <v>-19900</v>
       </c>
       <c r="E27" s="3">
-        <v>-61400</v>
+        <v>18100</v>
       </c>
       <c r="F27" s="3">
-        <v>82200</v>
+        <v>-60800</v>
       </c>
       <c r="G27" s="3">
-        <v>-40400</v>
+        <v>81400</v>
       </c>
       <c r="H27" s="3">
-        <v>231100</v>
+        <v>-40000</v>
       </c>
       <c r="I27" s="3">
-        <v>260700</v>
+        <v>229000</v>
       </c>
       <c r="J27" s="3">
+        <v>258300</v>
+      </c>
+      <c r="K27" s="3">
         <v>10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2600</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X27" s="3">
         <v>5500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-40500</v>
+        <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>60000</v>
+        <v>-40100</v>
       </c>
       <c r="F32" s="3">
-        <v>-90500</v>
+        <v>59500</v>
       </c>
       <c r="G32" s="3">
-        <v>63500</v>
+        <v>-89700</v>
       </c>
       <c r="H32" s="3">
-        <v>-222700</v>
+        <v>63000</v>
       </c>
       <c r="I32" s="3">
-        <v>-271700</v>
+        <v>-220700</v>
       </c>
       <c r="J32" s="3">
+        <v>-269300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18300</v>
+        <v>-19900</v>
       </c>
       <c r="E33" s="3">
-        <v>-61400</v>
+        <v>18100</v>
       </c>
       <c r="F33" s="3">
-        <v>82200</v>
+        <v>-60800</v>
       </c>
       <c r="G33" s="3">
-        <v>-40400</v>
+        <v>81400</v>
       </c>
       <c r="H33" s="3">
-        <v>231100</v>
+        <v>-40000</v>
       </c>
       <c r="I33" s="3">
-        <v>260700</v>
+        <v>229000</v>
       </c>
       <c r="J33" s="3">
+        <v>258300</v>
+      </c>
+      <c r="K33" s="3">
         <v>10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2600</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X33" s="3">
         <v>5500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18300</v>
+        <v>-19900</v>
       </c>
       <c r="E35" s="3">
-        <v>-61400</v>
+        <v>18100</v>
       </c>
       <c r="F35" s="3">
-        <v>82200</v>
+        <v>-60800</v>
       </c>
       <c r="G35" s="3">
-        <v>-40400</v>
+        <v>81400</v>
       </c>
       <c r="H35" s="3">
-        <v>231100</v>
+        <v>-40000</v>
       </c>
       <c r="I35" s="3">
-        <v>260700</v>
+        <v>229000</v>
       </c>
       <c r="J35" s="3">
+        <v>258300</v>
+      </c>
+      <c r="K35" s="3">
         <v>10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2600</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X35" s="3">
         <v>5500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,68 +2833,69 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>211400</v>
+        <v>312100</v>
       </c>
       <c r="E41" s="3">
-        <v>133600</v>
+        <v>209500</v>
       </c>
       <c r="F41" s="3">
-        <v>220900</v>
+        <v>132400</v>
       </c>
       <c r="G41" s="3">
-        <v>240300</v>
+        <v>218900</v>
       </c>
       <c r="H41" s="3">
-        <v>210300</v>
+        <v>238200</v>
       </c>
       <c r="I41" s="3">
-        <v>209700</v>
+        <v>208400</v>
       </c>
       <c r="J41" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K41" s="3">
         <v>296200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>429100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>308300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>288800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>251100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>331300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>423000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>509800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>447900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>281600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>119200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>93600</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,68 +2905,71 @@
       <c r="Y41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>383000</v>
+        <v>273700</v>
       </c>
       <c r="E42" s="3">
-        <v>528800</v>
+        <v>379500</v>
       </c>
       <c r="F42" s="3">
-        <v>460800</v>
+        <v>524000</v>
       </c>
       <c r="G42" s="3">
-        <v>387200</v>
+        <v>456700</v>
       </c>
       <c r="H42" s="3">
-        <v>639900</v>
+        <v>383700</v>
       </c>
       <c r="I42" s="3">
-        <v>168000</v>
+        <v>634100</v>
       </c>
       <c r="J42" s="3">
+        <v>166500</v>
+      </c>
+      <c r="K42" s="3">
         <v>123100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>116100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>92000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>85200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>38600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>28200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>86000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2889,68 +2979,71 @@
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>372800</v>
+        <v>336800</v>
       </c>
       <c r="E43" s="3">
-        <v>378100</v>
+        <v>369400</v>
       </c>
       <c r="F43" s="3">
-        <v>388000</v>
+        <v>374600</v>
       </c>
       <c r="G43" s="3">
-        <v>406000</v>
+        <v>384500</v>
       </c>
       <c r="H43" s="3">
-        <v>377500</v>
+        <v>402300</v>
       </c>
       <c r="I43" s="3">
-        <v>321200</v>
+        <v>374100</v>
       </c>
       <c r="J43" s="3">
+        <v>318300</v>
+      </c>
+      <c r="K43" s="3">
         <v>258200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>285200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>285300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>258400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>257100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>235500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>176500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>119300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>18200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>23000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25000</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,68 +3127,71 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>153900</v>
+        <v>91200</v>
       </c>
       <c r="E45" s="3">
-        <v>116900</v>
+        <v>152500</v>
       </c>
       <c r="F45" s="3">
-        <v>135900</v>
+        <v>115900</v>
       </c>
       <c r="G45" s="3">
-        <v>96600</v>
+        <v>134700</v>
       </c>
       <c r="H45" s="3">
-        <v>83700</v>
+        <v>95800</v>
       </c>
       <c r="I45" s="3">
-        <v>44700</v>
+        <v>83000</v>
       </c>
       <c r="J45" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K45" s="3">
         <v>83300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>119900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>167600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>110200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>103700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>96200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>52300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>163300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>32900</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3102,68 +3201,71 @@
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1121100</v>
+        <v>1013700</v>
       </c>
       <c r="E46" s="3">
-        <v>1157300</v>
+        <v>1111000</v>
       </c>
       <c r="F46" s="3">
-        <v>1205600</v>
+        <v>1146900</v>
       </c>
       <c r="G46" s="3">
-        <v>1130200</v>
+        <v>1194800</v>
       </c>
       <c r="H46" s="3">
-        <v>1311400</v>
+        <v>1120000</v>
       </c>
       <c r="I46" s="3">
-        <v>743700</v>
+        <v>1299500</v>
       </c>
       <c r="J46" s="3">
+        <v>737000</v>
+      </c>
+      <c r="K46" s="3">
         <v>760800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>950400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>853200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>729500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>697100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>680000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>690500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>667600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>636800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>408800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>164500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>164700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3173,68 +3275,71 @@
       <c r="Y46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>224700</v>
+        <v>173900</v>
       </c>
       <c r="E47" s="3">
-        <v>225400</v>
+        <v>222700</v>
       </c>
       <c r="F47" s="3">
-        <v>244800</v>
+        <v>223300</v>
       </c>
       <c r="G47" s="3">
-        <v>248000</v>
+        <v>242600</v>
       </c>
       <c r="H47" s="3">
-        <v>255800</v>
+        <v>245800</v>
       </c>
       <c r="I47" s="3">
-        <v>549400</v>
+        <v>253500</v>
       </c>
       <c r="J47" s="3">
+        <v>544400</v>
+      </c>
+      <c r="K47" s="3">
         <v>231200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>285400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>309300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>326100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>315000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>321000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>228900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>145700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>51000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>50900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>71900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>64200</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3244,68 +3349,71 @@
       <c r="Y47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E48" s="3">
         <v>2900</v>
       </c>
       <c r="F48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1900</v>
       </c>
       <c r="J48" s="3">
         <v>1900</v>
       </c>
       <c r="K48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2800</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2700</v>
       </c>
       <c r="Q48" s="3">
         <v>2700</v>
       </c>
       <c r="R48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3315,67 +3423,70 @@
       <c r="Y48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="E49" s="3">
-        <v>28600</v>
+        <v>28400</v>
       </c>
       <c r="F49" s="3">
+        <v>28400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>27700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>27700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>27700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K49" s="3">
+        <v>27900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="M49" s="3">
+        <v>29200</v>
+      </c>
+      <c r="N49" s="3">
         <v>28000</v>
       </c>
-      <c r="G49" s="3">
-        <v>28000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>28000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>28000</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="O49" s="3">
         <v>27900</v>
       </c>
-      <c r="K49" s="3">
-        <v>29700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>29200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>28000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>27900</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>27200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20600</v>
-      </c>
-      <c r="R49" s="3">
-        <v>200</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
       </c>
       <c r="T49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U49" s="3">
         <v>300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>16</v>
+      <c r="V49" s="3">
+        <v>300</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>16</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,68 +3645,71 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>235800</v>
+        <v>230300</v>
       </c>
       <c r="E52" s="3">
-        <v>241800</v>
+        <v>233700</v>
       </c>
       <c r="F52" s="3">
-        <v>242800</v>
+        <v>239600</v>
       </c>
       <c r="G52" s="3">
-        <v>248500</v>
+        <v>240600</v>
       </c>
       <c r="H52" s="3">
-        <v>193200</v>
+        <v>246300</v>
       </c>
       <c r="I52" s="3">
-        <v>177900</v>
+        <v>191400</v>
       </c>
       <c r="J52" s="3">
+        <v>176300</v>
+      </c>
+      <c r="K52" s="3">
         <v>157300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>163400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>151300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>141700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>139800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>137200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>117000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>95100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>83500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>77000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>58300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,68 +3793,71 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1613200</v>
+        <v>1449100</v>
       </c>
       <c r="E54" s="3">
-        <v>1656100</v>
+        <v>1598600</v>
       </c>
       <c r="F54" s="3">
-        <v>1724300</v>
+        <v>1641100</v>
       </c>
       <c r="G54" s="3">
-        <v>1657600</v>
+        <v>1708700</v>
       </c>
       <c r="H54" s="3">
-        <v>1789800</v>
+        <v>1642700</v>
       </c>
       <c r="I54" s="3">
-        <v>1500900</v>
+        <v>1773700</v>
       </c>
       <c r="J54" s="3">
+        <v>1487400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1179200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1430900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1345300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1227600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1182500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1168300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1060300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>931700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>774000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>538700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>296400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>257200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3842,21 +3973,21 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3866,68 +3997,71 @@
       <c r="Y57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>223700</v>
+        <v>165700</v>
       </c>
       <c r="E58" s="3">
-        <v>294500</v>
+        <v>221600</v>
       </c>
       <c r="F58" s="3">
-        <v>280200</v>
+        <v>291900</v>
       </c>
       <c r="G58" s="3">
-        <v>230100</v>
+        <v>277700</v>
       </c>
       <c r="H58" s="3">
-        <v>233500</v>
+        <v>228000</v>
       </c>
       <c r="I58" s="3">
-        <v>246900</v>
+        <v>231400</v>
       </c>
       <c r="J58" s="3">
+        <v>244700</v>
+      </c>
+      <c r="K58" s="3">
         <v>277600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>397900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>354600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>288100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>257800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>243300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>163700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>66500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V58" s="3">
         <v>13800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,68 +4071,71 @@
       <c r="Y58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>280000</v>
+        <v>216300</v>
       </c>
       <c r="E59" s="3">
-        <v>224300</v>
+        <v>277400</v>
       </c>
       <c r="F59" s="3">
-        <v>203900</v>
+        <v>222200</v>
       </c>
       <c r="G59" s="3">
-        <v>262800</v>
+        <v>202100</v>
       </c>
       <c r="H59" s="3">
-        <v>128600</v>
+        <v>260500</v>
       </c>
       <c r="I59" s="3">
-        <v>92700</v>
+        <v>127400</v>
       </c>
       <c r="J59" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K59" s="3">
         <v>77000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>94000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>93300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>63600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>52300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>60000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>63400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>76700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>39900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4008,68 +4145,71 @@
       <c r="Y59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>503600</v>
+        <v>381900</v>
       </c>
       <c r="E60" s="3">
-        <v>518800</v>
+        <v>499100</v>
       </c>
       <c r="F60" s="3">
-        <v>484200</v>
+        <v>514100</v>
       </c>
       <c r="G60" s="3">
-        <v>492900</v>
+        <v>479800</v>
       </c>
       <c r="H60" s="3">
-        <v>362100</v>
+        <v>488500</v>
       </c>
       <c r="I60" s="3">
-        <v>339600</v>
+        <v>358800</v>
       </c>
       <c r="J60" s="3">
+        <v>336500</v>
+      </c>
+      <c r="K60" s="3">
         <v>354700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>491900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>447900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>353600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>323100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>316400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>227300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>118800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>60000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>63400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>78100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>54300</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4079,68 +4219,71 @@
       <c r="Y60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71700</v>
+        <v>66400</v>
       </c>
       <c r="E61" s="3">
-        <v>94100</v>
+        <v>71000</v>
       </c>
       <c r="F61" s="3">
-        <v>123300</v>
+        <v>93200</v>
       </c>
       <c r="G61" s="3">
-        <v>120600</v>
+        <v>122200</v>
       </c>
       <c r="H61" s="3">
-        <v>144100</v>
+        <v>119600</v>
       </c>
       <c r="I61" s="3">
-        <v>104200</v>
+        <v>142800</v>
       </c>
       <c r="J61" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K61" s="3">
         <v>44500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>76000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>46500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>45700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>68700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>81400</v>
-      </c>
-      <c r="R61" s="3">
-        <v>25100</v>
       </c>
       <c r="S61" s="3">
         <v>25100</v>
       </c>
       <c r="T61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="U61" s="3">
         <v>26000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4150,67 +4293,70 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>7700</v>
       </c>
-      <c r="E62" s="3">
-        <v>18700</v>
-      </c>
       <c r="F62" s="3">
-        <v>25700</v>
+        <v>18600</v>
       </c>
       <c r="G62" s="3">
-        <v>22500</v>
+        <v>25400</v>
       </c>
       <c r="H62" s="3">
-        <v>49500</v>
+        <v>22300</v>
       </c>
       <c r="I62" s="3">
-        <v>35300</v>
+        <v>49000</v>
       </c>
       <c r="J62" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K62" s="3">
         <v>4700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5300</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>5000</v>
       </c>
       <c r="S62" s="3">
         <v>5000</v>
       </c>
       <c r="T62" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="U62" s="3">
         <v>5300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>16</v>
+      <c r="V62" s="3">
+        <v>5300</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>16</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,68 +4589,71 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>583000</v>
+        <v>450000</v>
       </c>
       <c r="E66" s="3">
-        <v>631600</v>
+        <v>577800</v>
       </c>
       <c r="F66" s="3">
-        <v>633100</v>
+        <v>625900</v>
       </c>
       <c r="G66" s="3">
-        <v>636000</v>
+        <v>627400</v>
       </c>
       <c r="H66" s="3">
-        <v>555700</v>
+        <v>630300</v>
       </c>
       <c r="I66" s="3">
-        <v>479000</v>
+        <v>550600</v>
       </c>
       <c r="J66" s="3">
+        <v>474700</v>
+      </c>
+      <c r="K66" s="3">
         <v>403900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>572300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>501800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>390400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>372500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>361900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>297600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>206000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>92000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>94800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>113200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4722,19 +4890,19 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>771700</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>565600</v>
-      </c>
-      <c r="T70" s="3">
-        <v>585000</v>
       </c>
       <c r="U70" s="3">
         <v>585000</v>
       </c>
       <c r="V70" s="3">
-        <v>0</v>
+        <v>585000</v>
       </c>
       <c r="W70" s="3">
         <v>0</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,68 +4987,71 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>440800</v>
+        <v>416900</v>
       </c>
       <c r="E72" s="3">
-        <v>422500</v>
+        <v>436800</v>
       </c>
       <c r="F72" s="3">
-        <v>483900</v>
+        <v>418700</v>
       </c>
       <c r="G72" s="3">
-        <v>401700</v>
+        <v>479500</v>
       </c>
       <c r="H72" s="3">
-        <v>582900</v>
+        <v>398100</v>
       </c>
       <c r="I72" s="3">
-        <v>351700</v>
+        <v>577600</v>
       </c>
       <c r="J72" s="3">
+        <v>348600</v>
+      </c>
+      <c r="K72" s="3">
         <v>91000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>127500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>131300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>113800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>95400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>117800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>101400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>708000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-96700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-122100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-402400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-407600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,68 +5283,71 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1030100</v>
+        <v>999200</v>
       </c>
       <c r="E76" s="3">
-        <v>1024400</v>
+        <v>1020800</v>
       </c>
       <c r="F76" s="3">
-        <v>1091200</v>
+        <v>1015200</v>
       </c>
       <c r="G76" s="3">
-        <v>1021600</v>
+        <v>1081300</v>
       </c>
       <c r="H76" s="3">
-        <v>1234200</v>
+        <v>1012400</v>
       </c>
       <c r="I76" s="3">
-        <v>1021900</v>
+        <v>1223000</v>
       </c>
       <c r="J76" s="3">
+        <v>1012700</v>
+      </c>
+      <c r="K76" s="3">
         <v>775300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>858700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>843500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>837300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>810000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>806400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>762700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>725700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-89700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-121600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-401800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-407000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18300</v>
+        <v>-19900</v>
       </c>
       <c r="E81" s="3">
-        <v>-61400</v>
+        <v>18100</v>
       </c>
       <c r="F81" s="3">
-        <v>82200</v>
+        <v>-60800</v>
       </c>
       <c r="G81" s="3">
-        <v>-40400</v>
+        <v>81400</v>
       </c>
       <c r="H81" s="3">
-        <v>231100</v>
+        <v>-40000</v>
       </c>
       <c r="I81" s="3">
-        <v>260700</v>
+        <v>229000</v>
       </c>
       <c r="J81" s="3">
+        <v>258300</v>
+      </c>
+      <c r="K81" s="3">
         <v>10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2600</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X81" s="3">
         <v>5500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5463,18 +5662,18 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5889,18 +6106,18 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T89" s="3">
         <v>-6100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>42600</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5987,18 +6208,18 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6200,18 +6430,18 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T94" s="3">
         <v>-61400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6582,18 +6828,18 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" s="3">
         <v>252400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6653,18 +6902,18 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6724,18 +6976,18 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3">
         <v>184600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>36800</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>16</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>115000</v>
+        <v>40300</v>
       </c>
       <c r="E8" s="3">
-        <v>153400</v>
+        <v>109600</v>
       </c>
       <c r="F8" s="3">
-        <v>116900</v>
+        <v>146200</v>
       </c>
       <c r="G8" s="3">
-        <v>138200</v>
+        <v>111400</v>
       </c>
       <c r="H8" s="3">
-        <v>164100</v>
+        <v>131800</v>
       </c>
       <c r="I8" s="3">
-        <v>160300</v>
+        <v>156400</v>
       </c>
       <c r="J8" s="3">
+        <v>152800</v>
+      </c>
+      <c r="K8" s="3">
         <v>63500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>61700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>54800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>52500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>53500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>46600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>35700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>46200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>41300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>39700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>29000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>33300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100300</v>
+        <v>38000</v>
       </c>
       <c r="E9" s="3">
-        <v>128600</v>
+        <v>95600</v>
       </c>
       <c r="F9" s="3">
-        <v>89200</v>
+        <v>122600</v>
       </c>
       <c r="G9" s="3">
-        <v>101900</v>
+        <v>85000</v>
       </c>
       <c r="H9" s="3">
-        <v>112300</v>
+        <v>97100</v>
       </c>
       <c r="I9" s="3">
-        <v>105700</v>
+        <v>107100</v>
       </c>
       <c r="J9" s="3">
+        <v>100800</v>
+      </c>
+      <c r="K9" s="3">
         <v>26400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>19600</v>
       </c>
       <c r="O9" s="3">
         <v>19600</v>
       </c>
       <c r="P9" s="3">
+        <v>19600</v>
+      </c>
+      <c r="Q9" s="3">
         <v>19900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>27200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14700</v>
+        <v>2300</v>
       </c>
       <c r="E10" s="3">
-        <v>24800</v>
+        <v>14000</v>
       </c>
       <c r="F10" s="3">
-        <v>27800</v>
+        <v>23600</v>
       </c>
       <c r="G10" s="3">
-        <v>36300</v>
+        <v>26500</v>
       </c>
       <c r="H10" s="3">
-        <v>51800</v>
+        <v>34600</v>
       </c>
       <c r="I10" s="3">
-        <v>54600</v>
+        <v>49400</v>
       </c>
       <c r="J10" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K10" s="3">
         <v>37100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>35400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>17900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>22900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="E12" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="L12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="Q12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="R12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14400</v>
+        <v>7400</v>
       </c>
       <c r="E14" s="3">
-        <v>12400</v>
+        <v>13800</v>
       </c>
       <c r="F14" s="3">
-        <v>8100</v>
+        <v>11800</v>
       </c>
       <c r="G14" s="3">
-        <v>5200</v>
+        <v>7700</v>
       </c>
       <c r="H14" s="3">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="I14" s="3">
-        <v>-2700</v>
+        <v>3000</v>
       </c>
       <c r="J14" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-6300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-2300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>142600</v>
+        <v>89600</v>
       </c>
       <c r="E17" s="3">
-        <v>176300</v>
+        <v>136000</v>
       </c>
       <c r="F17" s="3">
-        <v>122600</v>
+        <v>168100</v>
       </c>
       <c r="G17" s="3">
-        <v>136300</v>
+        <v>116900</v>
       </c>
       <c r="H17" s="3">
-        <v>140800</v>
+        <v>129900</v>
       </c>
       <c r="I17" s="3">
-        <v>131300</v>
+        <v>134200</v>
       </c>
       <c r="J17" s="3">
+        <v>125100</v>
+      </c>
+      <c r="K17" s="3">
         <v>43900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>40800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>42900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>40400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>14900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-27600</v>
+        <v>-49300</v>
       </c>
       <c r="E18" s="3">
-        <v>-22900</v>
+        <v>-26300</v>
       </c>
       <c r="F18" s="3">
-        <v>-5700</v>
+        <v>-21900</v>
       </c>
       <c r="G18" s="3">
-        <v>1900</v>
+        <v>-5400</v>
       </c>
       <c r="H18" s="3">
-        <v>23300</v>
+        <v>1800</v>
       </c>
       <c r="I18" s="3">
-        <v>29000</v>
+        <v>22200</v>
       </c>
       <c r="J18" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K18" s="3">
         <v>19600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>26000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>23200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>18400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="E20" s="3">
-        <v>40100</v>
+        <v>2800</v>
       </c>
       <c r="F20" s="3">
-        <v>-59500</v>
+        <v>38200</v>
       </c>
       <c r="G20" s="3">
-        <v>89700</v>
+        <v>-56700</v>
       </c>
       <c r="H20" s="3">
-        <v>-63000</v>
+        <v>85500</v>
       </c>
       <c r="I20" s="3">
-        <v>220700</v>
+        <v>-60000</v>
       </c>
       <c r="J20" s="3">
+        <v>210400</v>
+      </c>
+      <c r="K20" s="3">
         <v>269300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1642,29 +1679,32 @@
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>17200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6800</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
         <v>15600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>18500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1672,16 +1712,16 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1693,22 +1733,22 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>700</v>
       </c>
       <c r="R22" s="3">
         <v>700</v>
@@ -1720,173 +1760,182 @@
         <v>700</v>
       </c>
       <c r="U22" s="3">
+        <v>700</v>
+      </c>
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25300</v>
+        <v>-47800</v>
       </c>
       <c r="E23" s="3">
-        <v>16400</v>
+        <v>-24100</v>
       </c>
       <c r="F23" s="3">
-        <v>-66400</v>
+        <v>15600</v>
       </c>
       <c r="G23" s="3">
-        <v>91600</v>
+        <v>-63300</v>
       </c>
       <c r="H23" s="3">
-        <v>-39700</v>
+        <v>87300</v>
       </c>
       <c r="I23" s="3">
-        <v>249600</v>
+        <v>-37900</v>
       </c>
       <c r="J23" s="3">
+        <v>237900</v>
+      </c>
+      <c r="K23" s="3">
         <v>288800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>16300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>26000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>21900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>15300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>18300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5400</v>
+        <v>-8000</v>
       </c>
       <c r="E24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
-        <v>-5600</v>
-      </c>
       <c r="G24" s="3">
-        <v>10100</v>
+        <v>-5300</v>
       </c>
       <c r="H24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>20600</v>
-      </c>
       <c r="J24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K24" s="3">
         <v>30400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19900</v>
+        <v>-39800</v>
       </c>
       <c r="E26" s="3">
-        <v>18100</v>
+        <v>-19000</v>
       </c>
       <c r="F26" s="3">
-        <v>-60800</v>
+        <v>17300</v>
       </c>
       <c r="G26" s="3">
-        <v>81400</v>
+        <v>-58000</v>
       </c>
       <c r="H26" s="3">
-        <v>-40000</v>
+        <v>77600</v>
       </c>
       <c r="I26" s="3">
-        <v>229000</v>
+        <v>-38100</v>
       </c>
       <c r="J26" s="3">
+        <v>218300</v>
+      </c>
+      <c r="K26" s="3">
         <v>258400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4400</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y26" s="3">
         <v>11000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>13500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19900</v>
+        <v>-39800</v>
       </c>
       <c r="E27" s="3">
-        <v>18100</v>
+        <v>-19000</v>
       </c>
       <c r="F27" s="3">
-        <v>-60800</v>
+        <v>17300</v>
       </c>
       <c r="G27" s="3">
-        <v>81400</v>
+        <v>-58000</v>
       </c>
       <c r="H27" s="3">
-        <v>-40000</v>
+        <v>77600</v>
       </c>
       <c r="I27" s="3">
-        <v>229000</v>
+        <v>-38100</v>
       </c>
       <c r="J27" s="3">
+        <v>218300</v>
+      </c>
+      <c r="K27" s="3">
         <v>258300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2600</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y27" s="3">
         <v>5500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-2100</v>
       </c>
       <c r="E32" s="3">
-        <v>-40100</v>
+        <v>-2800</v>
       </c>
       <c r="F32" s="3">
-        <v>59500</v>
+        <v>-38200</v>
       </c>
       <c r="G32" s="3">
-        <v>-89700</v>
+        <v>56700</v>
       </c>
       <c r="H32" s="3">
-        <v>63000</v>
+        <v>-85500</v>
       </c>
       <c r="I32" s="3">
-        <v>-220700</v>
+        <v>60000</v>
       </c>
       <c r="J32" s="3">
+        <v>-210400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-269300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19900</v>
+        <v>-39800</v>
       </c>
       <c r="E33" s="3">
-        <v>18100</v>
+        <v>-19000</v>
       </c>
       <c r="F33" s="3">
-        <v>-60800</v>
+        <v>17300</v>
       </c>
       <c r="G33" s="3">
-        <v>81400</v>
+        <v>-58000</v>
       </c>
       <c r="H33" s="3">
-        <v>-40000</v>
+        <v>77600</v>
       </c>
       <c r="I33" s="3">
-        <v>229000</v>
+        <v>-38100</v>
       </c>
       <c r="J33" s="3">
+        <v>218300</v>
+      </c>
+      <c r="K33" s="3">
         <v>258300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y33" s="3">
         <v>5500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19900</v>
+        <v>-39800</v>
       </c>
       <c r="E35" s="3">
-        <v>18100</v>
+        <v>-19000</v>
       </c>
       <c r="F35" s="3">
-        <v>-60800</v>
+        <v>17300</v>
       </c>
       <c r="G35" s="3">
-        <v>81400</v>
+        <v>-58000</v>
       </c>
       <c r="H35" s="3">
-        <v>-40000</v>
+        <v>77600</v>
       </c>
       <c r="I35" s="3">
-        <v>229000</v>
+        <v>-38100</v>
       </c>
       <c r="J35" s="3">
+        <v>218300</v>
+      </c>
+      <c r="K35" s="3">
         <v>258300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y35" s="3">
         <v>5500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,71 +2920,72 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>312100</v>
+        <v>178300</v>
       </c>
       <c r="E41" s="3">
-        <v>209500</v>
+        <v>297500</v>
       </c>
       <c r="F41" s="3">
-        <v>132400</v>
+        <v>199700</v>
       </c>
       <c r="G41" s="3">
-        <v>218900</v>
+        <v>126200</v>
       </c>
       <c r="H41" s="3">
-        <v>238200</v>
+        <v>208700</v>
       </c>
       <c r="I41" s="3">
-        <v>208400</v>
+        <v>227000</v>
       </c>
       <c r="J41" s="3">
+        <v>198600</v>
+      </c>
+      <c r="K41" s="3">
         <v>207800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>296200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>429100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>308300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>288800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>251100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>331300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>423000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>509800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>447900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>281600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>119200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>93600</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2908,71 +2995,74 @@
       <c r="Z41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>273700</v>
+        <v>294600</v>
       </c>
       <c r="E42" s="3">
-        <v>379500</v>
+        <v>260900</v>
       </c>
       <c r="F42" s="3">
-        <v>524000</v>
+        <v>361800</v>
       </c>
       <c r="G42" s="3">
-        <v>456700</v>
+        <v>499500</v>
       </c>
       <c r="H42" s="3">
-        <v>383700</v>
+        <v>435300</v>
       </c>
       <c r="I42" s="3">
-        <v>634100</v>
+        <v>365800</v>
       </c>
       <c r="J42" s="3">
+        <v>604500</v>
+      </c>
+      <c r="K42" s="3">
         <v>166500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>123100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>116100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>92000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>72000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>85200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>38600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>28200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>86000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13300</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2982,71 +3072,74 @@
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>336800</v>
+        <v>290100</v>
       </c>
       <c r="E43" s="3">
-        <v>369400</v>
+        <v>321100</v>
       </c>
       <c r="F43" s="3">
-        <v>374600</v>
+        <v>352200</v>
       </c>
       <c r="G43" s="3">
-        <v>384500</v>
+        <v>357100</v>
       </c>
       <c r="H43" s="3">
-        <v>402300</v>
+        <v>366500</v>
       </c>
       <c r="I43" s="3">
-        <v>374100</v>
+        <v>383500</v>
       </c>
       <c r="J43" s="3">
+        <v>356600</v>
+      </c>
+      <c r="K43" s="3">
         <v>318300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>258200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>285200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>285300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>258400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>257100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>235500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>176500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>119300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>18200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>23000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25000</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,71 +3226,74 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>91200</v>
+        <v>93400</v>
       </c>
       <c r="E45" s="3">
-        <v>152500</v>
+        <v>86900</v>
       </c>
       <c r="F45" s="3">
-        <v>115900</v>
+        <v>145400</v>
       </c>
       <c r="G45" s="3">
-        <v>134700</v>
+        <v>110500</v>
       </c>
       <c r="H45" s="3">
-        <v>95800</v>
+        <v>128400</v>
       </c>
       <c r="I45" s="3">
-        <v>83000</v>
+        <v>91300</v>
       </c>
       <c r="J45" s="3">
+        <v>79100</v>
+      </c>
+      <c r="K45" s="3">
         <v>44300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>83300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>119900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>167600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>110200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>103700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>96200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>52300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>163300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32900</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3204,71 +3303,74 @@
       <c r="Z45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1013700</v>
+        <v>856300</v>
       </c>
       <c r="E46" s="3">
-        <v>1111000</v>
+        <v>966300</v>
       </c>
       <c r="F46" s="3">
-        <v>1146900</v>
+        <v>1059000</v>
       </c>
       <c r="G46" s="3">
-        <v>1194800</v>
+        <v>1093200</v>
       </c>
       <c r="H46" s="3">
-        <v>1120000</v>
+        <v>1138900</v>
       </c>
       <c r="I46" s="3">
-        <v>1299500</v>
+        <v>1067600</v>
       </c>
       <c r="J46" s="3">
+        <v>1238700</v>
+      </c>
+      <c r="K46" s="3">
         <v>737000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>760800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>950400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>853200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>729500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>697100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>680000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>690500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>667600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>636800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>408800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>164500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>164700</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3278,71 +3380,74 @@
       <c r="Z46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>173900</v>
+        <v>120400</v>
       </c>
       <c r="E47" s="3">
-        <v>222700</v>
+        <v>165800</v>
       </c>
       <c r="F47" s="3">
-        <v>223300</v>
+        <v>212200</v>
       </c>
       <c r="G47" s="3">
-        <v>242600</v>
+        <v>212900</v>
       </c>
       <c r="H47" s="3">
-        <v>245800</v>
+        <v>231200</v>
       </c>
       <c r="I47" s="3">
-        <v>253500</v>
+        <v>234300</v>
       </c>
       <c r="J47" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K47" s="3">
         <v>544400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>231200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>285400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>309300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>326100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>315000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>321000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>228900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>145700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>51000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>50900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>71900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>64200</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3352,71 +3457,74 @@
       <c r="Z47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3000</v>
-      </c>
       <c r="I48" s="3">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="J48" s="3">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="K48" s="3">
         <v>1900</v>
       </c>
       <c r="L48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2700</v>
       </c>
       <c r="R48" s="3">
         <v>2700</v>
       </c>
       <c r="S48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1100</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3426,70 +3534,73 @@
       <c r="Z48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28400</v>
+        <v>27000</v>
       </c>
       <c r="E49" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="F49" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="G49" s="3">
+        <v>27100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>26400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K49" s="3">
         <v>27700</v>
       </c>
-      <c r="H49" s="3">
-        <v>27700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>27700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>27700</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>27900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>27900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>27200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>21300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20600</v>
-      </c>
-      <c r="S49" s="3">
-        <v>200</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
       </c>
       <c r="U49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V49" s="3">
         <v>300</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>16</v>
+      <c r="W49" s="3">
+        <v>300</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>16</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,71 +3765,74 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>230300</v>
+        <v>210500</v>
       </c>
       <c r="E52" s="3">
-        <v>233700</v>
+        <v>219500</v>
       </c>
       <c r="F52" s="3">
-        <v>239600</v>
+        <v>222800</v>
       </c>
       <c r="G52" s="3">
-        <v>240600</v>
+        <v>228400</v>
       </c>
       <c r="H52" s="3">
-        <v>246300</v>
+        <v>229400</v>
       </c>
       <c r="I52" s="3">
-        <v>191400</v>
+        <v>234700</v>
       </c>
       <c r="J52" s="3">
+        <v>182500</v>
+      </c>
+      <c r="K52" s="3">
         <v>176300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>157300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>163400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>151300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>141700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>139800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>137200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>117000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>95100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>83500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>77000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>58300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,71 +3919,74 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1449100</v>
+        <v>1216700</v>
       </c>
       <c r="E54" s="3">
-        <v>1598600</v>
+        <v>1381400</v>
       </c>
       <c r="F54" s="3">
-        <v>1641100</v>
+        <v>1523800</v>
       </c>
       <c r="G54" s="3">
-        <v>1708700</v>
+        <v>1564300</v>
       </c>
       <c r="H54" s="3">
-        <v>1642700</v>
+        <v>1628800</v>
       </c>
       <c r="I54" s="3">
-        <v>1773700</v>
+        <v>1565900</v>
       </c>
       <c r="J54" s="3">
+        <v>1690700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1487400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1179200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1430900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1345300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1227600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1182500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1168300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1060300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>931700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>774000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>538700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>296400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>257200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3976,21 +4107,21 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4000,71 +4131,74 @@
       <c r="Z57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>165700</v>
+        <v>154600</v>
       </c>
       <c r="E58" s="3">
-        <v>221600</v>
+        <v>157900</v>
       </c>
       <c r="F58" s="3">
-        <v>291900</v>
+        <v>211300</v>
       </c>
       <c r="G58" s="3">
-        <v>277700</v>
+        <v>278200</v>
       </c>
       <c r="H58" s="3">
-        <v>228000</v>
+        <v>264700</v>
       </c>
       <c r="I58" s="3">
-        <v>231400</v>
+        <v>217300</v>
       </c>
       <c r="J58" s="3">
+        <v>220600</v>
+      </c>
+      <c r="K58" s="3">
         <v>244700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>277600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>397900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>354600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>288100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>257800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>243300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>163700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>66500</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W58" s="3">
         <v>13800</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4074,71 +4208,74 @@
       <c r="Z58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>216300</v>
+        <v>181100</v>
       </c>
       <c r="E59" s="3">
-        <v>277400</v>
+        <v>206200</v>
       </c>
       <c r="F59" s="3">
-        <v>222200</v>
+        <v>264500</v>
       </c>
       <c r="G59" s="3">
-        <v>202100</v>
+        <v>211800</v>
       </c>
       <c r="H59" s="3">
-        <v>260500</v>
+        <v>192600</v>
       </c>
       <c r="I59" s="3">
-        <v>127400</v>
+        <v>248300</v>
       </c>
       <c r="J59" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K59" s="3">
         <v>91800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>94000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>73100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>63600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>52300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>60000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>63400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>76700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>39900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4148,71 +4285,74 @@
       <c r="Z59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>381900</v>
+        <v>335700</v>
       </c>
       <c r="E60" s="3">
-        <v>499100</v>
+        <v>364100</v>
       </c>
       <c r="F60" s="3">
-        <v>514100</v>
+        <v>475700</v>
       </c>
       <c r="G60" s="3">
-        <v>479800</v>
+        <v>490100</v>
       </c>
       <c r="H60" s="3">
-        <v>488500</v>
+        <v>457300</v>
       </c>
       <c r="I60" s="3">
-        <v>358800</v>
+        <v>465600</v>
       </c>
       <c r="J60" s="3">
+        <v>342100</v>
+      </c>
+      <c r="K60" s="3">
         <v>336500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>354700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>491900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>447900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>353600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>323100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>316400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>227300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>118800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>60000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>63400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>78100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>54300</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4222,71 +4362,74 @@
       <c r="Z60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>66400</v>
+        <v>38100</v>
       </c>
       <c r="E61" s="3">
-        <v>71000</v>
+        <v>63300</v>
       </c>
       <c r="F61" s="3">
-        <v>93200</v>
+        <v>67700</v>
       </c>
       <c r="G61" s="3">
-        <v>122200</v>
+        <v>88900</v>
       </c>
       <c r="H61" s="3">
-        <v>119600</v>
+        <v>116500</v>
       </c>
       <c r="I61" s="3">
-        <v>142800</v>
+        <v>114000</v>
       </c>
       <c r="J61" s="3">
+        <v>136100</v>
+      </c>
+      <c r="K61" s="3">
         <v>103200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>76000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>46500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>49000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>45700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>68700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>81400</v>
-      </c>
-      <c r="S61" s="3">
-        <v>25100</v>
       </c>
       <c r="T61" s="3">
         <v>25100</v>
       </c>
       <c r="U61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="V61" s="3">
         <v>26000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4296,70 +4439,73 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700</v>
+        <v>26300</v>
       </c>
       <c r="E62" s="3">
-        <v>7700</v>
+        <v>1600</v>
       </c>
       <c r="F62" s="3">
-        <v>18600</v>
+        <v>7300</v>
       </c>
       <c r="G62" s="3">
-        <v>25400</v>
+        <v>17700</v>
       </c>
       <c r="H62" s="3">
-        <v>22300</v>
+        <v>24200</v>
       </c>
       <c r="I62" s="3">
-        <v>49000</v>
+        <v>21300</v>
       </c>
       <c r="J62" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K62" s="3">
         <v>34900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5300</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>5000</v>
       </c>
       <c r="T62" s="3">
         <v>5000</v>
       </c>
       <c r="U62" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="V62" s="3">
         <v>5300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>16</v>
+      <c r="W62" s="3">
+        <v>5300</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>16</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,71 +4747,74 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>450000</v>
+        <v>400100</v>
       </c>
       <c r="E66" s="3">
-        <v>577800</v>
+        <v>428900</v>
       </c>
       <c r="F66" s="3">
-        <v>625900</v>
+        <v>550700</v>
       </c>
       <c r="G66" s="3">
-        <v>627400</v>
+        <v>596600</v>
       </c>
       <c r="H66" s="3">
-        <v>630300</v>
+        <v>598100</v>
       </c>
       <c r="I66" s="3">
-        <v>550600</v>
+        <v>600800</v>
       </c>
       <c r="J66" s="3">
+        <v>524900</v>
+      </c>
+      <c r="K66" s="3">
         <v>474700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>403900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>572300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>501800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>390400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>372500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>361900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>297600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>206000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>92000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>94800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>113200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>79200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4893,19 +5061,19 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>771700</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>565600</v>
-      </c>
-      <c r="U70" s="3">
-        <v>585000</v>
       </c>
       <c r="V70" s="3">
         <v>585000</v>
       </c>
       <c r="W70" s="3">
-        <v>0</v>
+        <v>585000</v>
       </c>
       <c r="X70" s="3">
         <v>0</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,71 +5161,74 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>416900</v>
+        <v>230500</v>
       </c>
       <c r="E72" s="3">
-        <v>436800</v>
+        <v>397400</v>
       </c>
       <c r="F72" s="3">
-        <v>418700</v>
+        <v>416400</v>
       </c>
       <c r="G72" s="3">
-        <v>479500</v>
+        <v>399100</v>
       </c>
       <c r="H72" s="3">
-        <v>398100</v>
+        <v>457100</v>
       </c>
       <c r="I72" s="3">
-        <v>577600</v>
+        <v>379500</v>
       </c>
       <c r="J72" s="3">
+        <v>550600</v>
+      </c>
+      <c r="K72" s="3">
         <v>348600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>91000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>127500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>131300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>113800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>95400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>117800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>101400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>708000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-96700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-122100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-402400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-407600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,71 +5469,74 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>999200</v>
+        <v>816700</v>
       </c>
       <c r="E76" s="3">
-        <v>1020800</v>
+        <v>952400</v>
       </c>
       <c r="F76" s="3">
-        <v>1015200</v>
+        <v>973100</v>
       </c>
       <c r="G76" s="3">
-        <v>1081300</v>
+        <v>967700</v>
       </c>
       <c r="H76" s="3">
-        <v>1012400</v>
+        <v>1030700</v>
       </c>
       <c r="I76" s="3">
-        <v>1223000</v>
+        <v>965000</v>
       </c>
       <c r="J76" s="3">
+        <v>1165800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1012700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>775300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>858700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>843500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>837300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>810000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>806400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>762700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>725700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-89700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-121600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-401800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-407000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19900</v>
+        <v>-39800</v>
       </c>
       <c r="E81" s="3">
-        <v>18100</v>
+        <v>-19000</v>
       </c>
       <c r="F81" s="3">
-        <v>-60800</v>
+        <v>17300</v>
       </c>
       <c r="G81" s="3">
-        <v>81400</v>
+        <v>-58000</v>
       </c>
       <c r="H81" s="3">
-        <v>-40000</v>
+        <v>77600</v>
       </c>
       <c r="I81" s="3">
-        <v>229000</v>
+        <v>-38100</v>
       </c>
       <c r="J81" s="3">
+        <v>218300</v>
+      </c>
+      <c r="K81" s="3">
         <v>258300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y81" s="3">
         <v>5500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5665,18 +5864,18 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>16</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6109,18 +6326,18 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U89" s="3">
         <v>-6100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>42600</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>16</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6211,18 +6432,18 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>16</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6433,18 +6663,18 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U94" s="3">
         <v>-61400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4500</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6831,18 +7077,18 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U100" s="3">
         <v>252400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>16</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6905,18 +7154,18 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6979,18 +7231,18 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3">
         <v>184600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>36800</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>16</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>16</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40300</v>
+        <v>59800</v>
       </c>
       <c r="E8" s="3">
-        <v>109600</v>
+        <v>41500</v>
       </c>
       <c r="F8" s="3">
-        <v>146200</v>
+        <v>113100</v>
       </c>
       <c r="G8" s="3">
-        <v>111400</v>
+        <v>150900</v>
       </c>
       <c r="H8" s="3">
-        <v>131800</v>
+        <v>115000</v>
       </c>
       <c r="I8" s="3">
-        <v>156400</v>
+        <v>136000</v>
       </c>
       <c r="J8" s="3">
+        <v>161400</v>
+      </c>
+      <c r="K8" s="3">
         <v>152800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>61700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>54800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>52500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>53500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>46600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>39900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>35700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>46200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>41300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>39700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>29000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>33300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38000</v>
+        <v>55800</v>
       </c>
       <c r="E9" s="3">
-        <v>95600</v>
+        <v>39200</v>
       </c>
       <c r="F9" s="3">
-        <v>122600</v>
+        <v>98700</v>
       </c>
       <c r="G9" s="3">
-        <v>85000</v>
+        <v>126500</v>
       </c>
       <c r="H9" s="3">
-        <v>97100</v>
+        <v>87700</v>
       </c>
       <c r="I9" s="3">
-        <v>107100</v>
+        <v>100200</v>
       </c>
       <c r="J9" s="3">
+        <v>110500</v>
+      </c>
+      <c r="K9" s="3">
         <v>100800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>19600</v>
       </c>
       <c r="P9" s="3">
         <v>19600</v>
       </c>
       <c r="Q9" s="3">
+        <v>19600</v>
+      </c>
+      <c r="R9" s="3">
         <v>19900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>27200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="E10" s="3">
-        <v>14000</v>
+        <v>2400</v>
       </c>
       <c r="F10" s="3">
-        <v>23600</v>
+        <v>14500</v>
       </c>
       <c r="G10" s="3">
-        <v>26500</v>
+        <v>24400</v>
       </c>
       <c r="H10" s="3">
-        <v>34600</v>
+        <v>27300</v>
       </c>
       <c r="I10" s="3">
-        <v>49400</v>
+        <v>35700</v>
       </c>
       <c r="J10" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K10" s="3">
         <v>52000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>22300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>19000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>35400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>17900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>22900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="Q12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="R12" s="3">
         <v>2000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="S12" s="3">
         <v>2900</v>
       </c>
-      <c r="O12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7400</v>
+        <v>12200</v>
       </c>
       <c r="E14" s="3">
-        <v>13800</v>
+        <v>7600</v>
       </c>
       <c r="F14" s="3">
-        <v>11800</v>
+        <v>14200</v>
       </c>
       <c r="G14" s="3">
-        <v>7700</v>
+        <v>12200</v>
       </c>
       <c r="H14" s="3">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="I14" s="3">
-        <v>3000</v>
+        <v>5200</v>
       </c>
       <c r="J14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-6300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-2300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>89600</v>
+        <v>87400</v>
       </c>
       <c r="E17" s="3">
-        <v>136000</v>
+        <v>92400</v>
       </c>
       <c r="F17" s="3">
-        <v>168100</v>
+        <v>140300</v>
       </c>
       <c r="G17" s="3">
-        <v>116900</v>
+        <v>173400</v>
       </c>
       <c r="H17" s="3">
-        <v>129900</v>
+        <v>120600</v>
       </c>
       <c r="I17" s="3">
-        <v>134200</v>
+        <v>134100</v>
       </c>
       <c r="J17" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K17" s="3">
         <v>125100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>51200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>49400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>40800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>42900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>41500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>29200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>40400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>14200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>14900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-49300</v>
+        <v>-27600</v>
       </c>
       <c r="E18" s="3">
-        <v>-26300</v>
+        <v>-50900</v>
       </c>
       <c r="F18" s="3">
-        <v>-21900</v>
+        <v>-27200</v>
       </c>
       <c r="G18" s="3">
-        <v>-5400</v>
+        <v>-22600</v>
       </c>
       <c r="H18" s="3">
-        <v>1800</v>
+        <v>-5600</v>
       </c>
       <c r="I18" s="3">
-        <v>22200</v>
+        <v>1900</v>
       </c>
       <c r="J18" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K18" s="3">
         <v>27600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>26000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>23200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>18400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
-        <v>2800</v>
-      </c>
       <c r="F20" s="3">
-        <v>38200</v>
+        <v>2900</v>
       </c>
       <c r="G20" s="3">
-        <v>-56700</v>
+        <v>39400</v>
       </c>
       <c r="H20" s="3">
-        <v>85500</v>
+        <v>-58500</v>
       </c>
       <c r="I20" s="3">
-        <v>-60000</v>
+        <v>88200</v>
       </c>
       <c r="J20" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="K20" s="3">
         <v>210400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>269300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1682,49 +1719,52 @@
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>17200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6800</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3">
         <v>15600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>18500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>800</v>
+      </c>
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1736,22 +1776,22 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>700</v>
       </c>
       <c r="S22" s="3">
         <v>700</v>
@@ -1763,179 +1803,188 @@
         <v>700</v>
       </c>
       <c r="V22" s="3">
+        <v>700</v>
+      </c>
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-47800</v>
+        <v>-24400</v>
       </c>
       <c r="E23" s="3">
-        <v>-24100</v>
+        <v>-49300</v>
       </c>
       <c r="F23" s="3">
-        <v>15600</v>
+        <v>-24900</v>
       </c>
       <c r="G23" s="3">
-        <v>-63300</v>
+        <v>16100</v>
       </c>
       <c r="H23" s="3">
-        <v>87300</v>
+        <v>-65300</v>
       </c>
       <c r="I23" s="3">
-        <v>-37900</v>
+        <v>90000</v>
       </c>
       <c r="J23" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="K23" s="3">
         <v>237900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>288800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>16300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>26000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>21900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>15300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>18300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8000</v>
+        <v>-5600</v>
       </c>
       <c r="E24" s="3">
-        <v>-5200</v>
+        <v>-8300</v>
       </c>
       <c r="F24" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H24" s="3">
-        <v>9600</v>
+        <v>-5500</v>
       </c>
       <c r="I24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-39800</v>
+        <v>-18700</v>
       </c>
       <c r="E26" s="3">
-        <v>-19000</v>
+        <v>-41000</v>
       </c>
       <c r="F26" s="3">
-        <v>17300</v>
+        <v>-19600</v>
       </c>
       <c r="G26" s="3">
-        <v>-58000</v>
+        <v>17800</v>
       </c>
       <c r="H26" s="3">
-        <v>77600</v>
+        <v>-59800</v>
       </c>
       <c r="I26" s="3">
-        <v>-38100</v>
+        <v>80100</v>
       </c>
       <c r="J26" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K26" s="3">
         <v>218300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>258400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4400</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z26" s="3">
         <v>11000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>13500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-39800</v>
+        <v>-18700</v>
       </c>
       <c r="E27" s="3">
-        <v>-19000</v>
+        <v>-41000</v>
       </c>
       <c r="F27" s="3">
-        <v>17300</v>
+        <v>-19600</v>
       </c>
       <c r="G27" s="3">
-        <v>-58000</v>
+        <v>17800</v>
       </c>
       <c r="H27" s="3">
-        <v>77600</v>
+        <v>-59800</v>
       </c>
       <c r="I27" s="3">
-        <v>-38100</v>
+        <v>80100</v>
       </c>
       <c r="J27" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K27" s="3">
         <v>218300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>258300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2600</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z27" s="3">
         <v>5500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F32" s="3">
-        <v>-38200</v>
+        <v>-2900</v>
       </c>
       <c r="G32" s="3">
-        <v>56700</v>
+        <v>-39400</v>
       </c>
       <c r="H32" s="3">
-        <v>-85500</v>
+        <v>58500</v>
       </c>
       <c r="I32" s="3">
-        <v>60000</v>
+        <v>-88200</v>
       </c>
       <c r="J32" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-210400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-269300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-39800</v>
+        <v>-18700</v>
       </c>
       <c r="E33" s="3">
-        <v>-19000</v>
+        <v>-41000</v>
       </c>
       <c r="F33" s="3">
-        <v>17300</v>
+        <v>-19600</v>
       </c>
       <c r="G33" s="3">
-        <v>-58000</v>
+        <v>17800</v>
       </c>
       <c r="H33" s="3">
-        <v>77600</v>
+        <v>-59800</v>
       </c>
       <c r="I33" s="3">
-        <v>-38100</v>
+        <v>80100</v>
       </c>
       <c r="J33" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K33" s="3">
         <v>218300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>258300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2600</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z33" s="3">
         <v>5500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>6500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-39800</v>
+        <v>-18700</v>
       </c>
       <c r="E35" s="3">
-        <v>-19000</v>
+        <v>-41000</v>
       </c>
       <c r="F35" s="3">
-        <v>17300</v>
+        <v>-19600</v>
       </c>
       <c r="G35" s="3">
-        <v>-58000</v>
+        <v>17800</v>
       </c>
       <c r="H35" s="3">
-        <v>77600</v>
+        <v>-59800</v>
       </c>
       <c r="I35" s="3">
-        <v>-38100</v>
+        <v>80100</v>
       </c>
       <c r="J35" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K35" s="3">
         <v>218300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>258300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2600</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z35" s="3">
         <v>5500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>6500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,74 +3007,75 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>178300</v>
+        <v>107000</v>
       </c>
       <c r="E41" s="3">
-        <v>297500</v>
+        <v>183900</v>
       </c>
       <c r="F41" s="3">
-        <v>199700</v>
+        <v>306900</v>
       </c>
       <c r="G41" s="3">
-        <v>126200</v>
+        <v>206100</v>
       </c>
       <c r="H41" s="3">
-        <v>208700</v>
+        <v>130200</v>
       </c>
       <c r="I41" s="3">
-        <v>227000</v>
+        <v>215300</v>
       </c>
       <c r="J41" s="3">
+        <v>234200</v>
+      </c>
+      <c r="K41" s="3">
         <v>198600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>207800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>296200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>429100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>308300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>288800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>251100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>331300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>423000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>509800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>447900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>281600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>119200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>93600</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2998,74 +3085,77 @@
       <c r="AA41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>294600</v>
+        <v>387500</v>
       </c>
       <c r="E42" s="3">
-        <v>260900</v>
+        <v>303900</v>
       </c>
       <c r="F42" s="3">
-        <v>361800</v>
+        <v>269200</v>
       </c>
       <c r="G42" s="3">
-        <v>499500</v>
+        <v>373300</v>
       </c>
       <c r="H42" s="3">
-        <v>435300</v>
+        <v>515300</v>
       </c>
       <c r="I42" s="3">
-        <v>365800</v>
+        <v>449100</v>
       </c>
       <c r="J42" s="3">
+        <v>377400</v>
+      </c>
+      <c r="K42" s="3">
         <v>604500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>166500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>123100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>116100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>92000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>72000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>85200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>17000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>38600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>28200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>86000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13300</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3075,74 +3165,77 @@
       <c r="AA42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>290100</v>
+        <v>251200</v>
       </c>
       <c r="E43" s="3">
-        <v>321100</v>
+        <v>299300</v>
       </c>
       <c r="F43" s="3">
-        <v>352200</v>
+        <v>331200</v>
       </c>
       <c r="G43" s="3">
-        <v>357100</v>
+        <v>363400</v>
       </c>
       <c r="H43" s="3">
-        <v>366500</v>
+        <v>368500</v>
       </c>
       <c r="I43" s="3">
-        <v>383500</v>
+        <v>378100</v>
       </c>
       <c r="J43" s="3">
+        <v>395700</v>
+      </c>
+      <c r="K43" s="3">
         <v>356600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>318300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>258200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>285200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>285300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>258400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>257100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>235500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>176500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>119300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>18200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>23000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>25000</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,74 +3325,77 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>93400</v>
+        <v>131200</v>
       </c>
       <c r="E45" s="3">
-        <v>86900</v>
+        <v>96300</v>
       </c>
       <c r="F45" s="3">
-        <v>145400</v>
+        <v>89700</v>
       </c>
       <c r="G45" s="3">
-        <v>110500</v>
+        <v>150000</v>
       </c>
       <c r="H45" s="3">
-        <v>128400</v>
+        <v>114000</v>
       </c>
       <c r="I45" s="3">
-        <v>91300</v>
+        <v>132500</v>
       </c>
       <c r="J45" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K45" s="3">
         <v>79100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>83300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>119900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>167600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>110200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>103700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>96200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>163300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>23000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32900</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3306,74 +3405,77 @@
       <c r="AA45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>856300</v>
+        <v>876900</v>
       </c>
       <c r="E46" s="3">
-        <v>966300</v>
+        <v>883500</v>
       </c>
       <c r="F46" s="3">
-        <v>1059000</v>
+        <v>997000</v>
       </c>
       <c r="G46" s="3">
-        <v>1093200</v>
+        <v>1092700</v>
       </c>
       <c r="H46" s="3">
-        <v>1138900</v>
+        <v>1127900</v>
       </c>
       <c r="I46" s="3">
-        <v>1067600</v>
+        <v>1175000</v>
       </c>
       <c r="J46" s="3">
+        <v>1101500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1238700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>737000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>760800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>950400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>853200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>729500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>697100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>680000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>690500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>667600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>636800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>408800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>164500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>164700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3383,74 +3485,77 @@
       <c r="AA46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120400</v>
+        <v>90900</v>
       </c>
       <c r="E47" s="3">
-        <v>165800</v>
+        <v>124300</v>
       </c>
       <c r="F47" s="3">
-        <v>212200</v>
+        <v>171100</v>
       </c>
       <c r="G47" s="3">
-        <v>212900</v>
+        <v>219000</v>
       </c>
       <c r="H47" s="3">
+        <v>219600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>238600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>241700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>241600</v>
+      </c>
+      <c r="L47" s="3">
+        <v>544400</v>
+      </c>
+      <c r="M47" s="3">
         <v>231200</v>
       </c>
-      <c r="I47" s="3">
-        <v>234300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>241600</v>
-      </c>
-      <c r="K47" s="3">
-        <v>544400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>231200</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>285400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>309300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>326100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>315000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>321000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>228900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>145700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>51000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>50900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>71900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>64200</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3460,16 +3565,19 @@
       <c r="AA47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F48" s="3">
         <v>2700</v>
@@ -3481,53 +3589,53 @@
         <v>2900</v>
       </c>
       <c r="I48" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="J48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1900</v>
       </c>
       <c r="L48" s="3">
         <v>1900</v>
       </c>
       <c r="M48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2700</v>
       </c>
       <c r="S48" s="3">
         <v>2700</v>
       </c>
       <c r="T48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U48" s="3">
         <v>2500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3537,73 +3645,76 @@
       <c r="AA48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27000</v>
+        <v>28100</v>
       </c>
       <c r="E49" s="3">
-        <v>27100</v>
+        <v>27900</v>
       </c>
       <c r="F49" s="3">
-        <v>27100</v>
+        <v>27900</v>
       </c>
       <c r="G49" s="3">
-        <v>27100</v>
+        <v>27900</v>
       </c>
       <c r="H49" s="3">
+        <v>27900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K49" s="3">
         <v>26400</v>
       </c>
-      <c r="I49" s="3">
-        <v>26400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>26400</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>27700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>27900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>27900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>27200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>21300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20600</v>
-      </c>
-      <c r="T49" s="3">
-        <v>200</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
       </c>
       <c r="V49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W49" s="3">
         <v>300</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>16</v>
+      <c r="X49" s="3">
+        <v>300</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>16</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,74 +3885,77 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>210500</v>
+        <v>206500</v>
       </c>
       <c r="E52" s="3">
-        <v>219500</v>
+        <v>217200</v>
       </c>
       <c r="F52" s="3">
-        <v>222800</v>
+        <v>226500</v>
       </c>
       <c r="G52" s="3">
-        <v>228400</v>
+        <v>229800</v>
       </c>
       <c r="H52" s="3">
-        <v>229400</v>
+        <v>235700</v>
       </c>
       <c r="I52" s="3">
-        <v>234700</v>
+        <v>236600</v>
       </c>
       <c r="J52" s="3">
+        <v>242200</v>
+      </c>
+      <c r="K52" s="3">
         <v>182500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>176300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>157300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>163400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>151300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>141700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>139800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>137200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>117000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>95100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>83500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>77000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>58300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>26900</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,74 +4045,77 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1216700</v>
+        <v>1204700</v>
       </c>
       <c r="E54" s="3">
-        <v>1381400</v>
+        <v>1255400</v>
       </c>
       <c r="F54" s="3">
-        <v>1523800</v>
+        <v>1425200</v>
       </c>
       <c r="G54" s="3">
-        <v>1564300</v>
+        <v>1572200</v>
       </c>
       <c r="H54" s="3">
-        <v>1628800</v>
+        <v>1614000</v>
       </c>
       <c r="I54" s="3">
-        <v>1565900</v>
+        <v>1680500</v>
       </c>
       <c r="J54" s="3">
+        <v>1615600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1690700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1487400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1179200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1430900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1345300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1227600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1182500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1168300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1060300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>931700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>774000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>538700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>296400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>257200</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4110,21 +4241,21 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>16</v>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4134,74 +4265,77 @@
       <c r="AA57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>154600</v>
+        <v>134900</v>
       </c>
       <c r="E58" s="3">
-        <v>157900</v>
+        <v>159500</v>
       </c>
       <c r="F58" s="3">
-        <v>211300</v>
+        <v>162900</v>
       </c>
       <c r="G58" s="3">
-        <v>278200</v>
+        <v>218000</v>
       </c>
       <c r="H58" s="3">
-        <v>264700</v>
+        <v>287100</v>
       </c>
       <c r="I58" s="3">
-        <v>217300</v>
+        <v>273100</v>
       </c>
       <c r="J58" s="3">
+        <v>224200</v>
+      </c>
+      <c r="K58" s="3">
         <v>220600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>244700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>277600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>397900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>354600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>288100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>257800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>243300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>163700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>66500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X58" s="3">
         <v>13800</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4211,74 +4345,77 @@
       <c r="AA58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>181100</v>
+        <v>178300</v>
       </c>
       <c r="E59" s="3">
-        <v>206200</v>
+        <v>186800</v>
       </c>
       <c r="F59" s="3">
-        <v>264500</v>
+        <v>212700</v>
       </c>
       <c r="G59" s="3">
-        <v>211800</v>
+        <v>272900</v>
       </c>
       <c r="H59" s="3">
-        <v>192600</v>
+        <v>218600</v>
       </c>
       <c r="I59" s="3">
-        <v>248300</v>
+        <v>198700</v>
       </c>
       <c r="J59" s="3">
+        <v>256200</v>
+      </c>
+      <c r="K59" s="3">
         <v>121500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>94000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>65300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>63600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>52300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>60000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>63400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>76700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>39900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4288,74 +4425,77 @@
       <c r="AA59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>335700</v>
+        <v>313100</v>
       </c>
       <c r="E60" s="3">
-        <v>364100</v>
+        <v>346400</v>
       </c>
       <c r="F60" s="3">
-        <v>475700</v>
+        <v>375600</v>
       </c>
       <c r="G60" s="3">
-        <v>490100</v>
+        <v>490900</v>
       </c>
       <c r="H60" s="3">
-        <v>457300</v>
+        <v>505600</v>
       </c>
       <c r="I60" s="3">
-        <v>465600</v>
+        <v>471900</v>
       </c>
       <c r="J60" s="3">
+        <v>480400</v>
+      </c>
+      <c r="K60" s="3">
         <v>342100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>336500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>354700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>491900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>447900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>353600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>323100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>316400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>227300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>118800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>60000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>63400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>78100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>54300</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4365,74 +4505,77 @@
       <c r="AA60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38100</v>
+        <v>18000</v>
       </c>
       <c r="E61" s="3">
-        <v>63300</v>
+        <v>39300</v>
       </c>
       <c r="F61" s="3">
-        <v>67700</v>
+        <v>65300</v>
       </c>
       <c r="G61" s="3">
-        <v>88900</v>
+        <v>69900</v>
       </c>
       <c r="H61" s="3">
-        <v>116500</v>
+        <v>91700</v>
       </c>
       <c r="I61" s="3">
-        <v>114000</v>
+        <v>120200</v>
       </c>
       <c r="J61" s="3">
+        <v>117600</v>
+      </c>
+      <c r="K61" s="3">
         <v>136100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>103200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>76000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>46500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>49000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>45700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>68700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>81400</v>
-      </c>
-      <c r="T61" s="3">
-        <v>25100</v>
       </c>
       <c r="U61" s="3">
         <v>25100</v>
       </c>
       <c r="V61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="W61" s="3">
         <v>26000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4442,73 +4585,76 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="E62" s="3">
-        <v>1600</v>
+        <v>27100</v>
       </c>
       <c r="F62" s="3">
-        <v>7300</v>
+        <v>1700</v>
       </c>
       <c r="G62" s="3">
-        <v>17700</v>
+        <v>7500</v>
       </c>
       <c r="H62" s="3">
-        <v>24200</v>
+        <v>18300</v>
       </c>
       <c r="I62" s="3">
-        <v>21300</v>
+        <v>25000</v>
       </c>
       <c r="J62" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K62" s="3">
         <v>46700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5300</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4600</v>
-      </c>
-      <c r="T62" s="3">
-        <v>5000</v>
       </c>
       <c r="U62" s="3">
         <v>5000</v>
       </c>
       <c r="V62" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="W62" s="3">
         <v>5300</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>16</v>
+      <c r="X62" s="3">
+        <v>5300</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>16</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,74 +4905,77 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400100</v>
+        <v>358300</v>
       </c>
       <c r="E66" s="3">
-        <v>428900</v>
+        <v>412800</v>
       </c>
       <c r="F66" s="3">
-        <v>550700</v>
+        <v>442600</v>
       </c>
       <c r="G66" s="3">
-        <v>596600</v>
+        <v>568200</v>
       </c>
       <c r="H66" s="3">
-        <v>598100</v>
+        <v>615600</v>
       </c>
       <c r="I66" s="3">
-        <v>600800</v>
+        <v>617100</v>
       </c>
       <c r="J66" s="3">
+        <v>619900</v>
+      </c>
+      <c r="K66" s="3">
         <v>524900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>474700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>403900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>572300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>501800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>390400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>372500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>361900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>297600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>206000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>92000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>94800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>113200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>79200</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5064,19 +5232,19 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>771700</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>565600</v>
-      </c>
-      <c r="V70" s="3">
-        <v>585000</v>
       </c>
       <c r="W70" s="3">
         <v>585000</v>
       </c>
       <c r="X70" s="3">
-        <v>0</v>
+        <v>585000</v>
       </c>
       <c r="Y70" s="3">
         <v>0</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,74 +5335,77 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>230500</v>
+        <v>219100</v>
       </c>
       <c r="E72" s="3">
-        <v>397400</v>
+        <v>237800</v>
       </c>
       <c r="F72" s="3">
-        <v>416400</v>
+        <v>410100</v>
       </c>
       <c r="G72" s="3">
-        <v>399100</v>
+        <v>429600</v>
       </c>
       <c r="H72" s="3">
-        <v>457100</v>
+        <v>411800</v>
       </c>
       <c r="I72" s="3">
-        <v>379500</v>
+        <v>471600</v>
       </c>
       <c r="J72" s="3">
+        <v>391500</v>
+      </c>
+      <c r="K72" s="3">
         <v>550600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>348600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>91000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>127500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>131300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>113800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>95400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>117800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>101400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>708000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-96700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-122100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-402400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-407600</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,74 +5655,77 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>816700</v>
+        <v>846400</v>
       </c>
       <c r="E76" s="3">
-        <v>952400</v>
+        <v>842600</v>
       </c>
       <c r="F76" s="3">
-        <v>973100</v>
+        <v>982700</v>
       </c>
       <c r="G76" s="3">
-        <v>967700</v>
+        <v>1004000</v>
       </c>
       <c r="H76" s="3">
-        <v>1030700</v>
+        <v>998400</v>
       </c>
       <c r="I76" s="3">
-        <v>965000</v>
+        <v>1063500</v>
       </c>
       <c r="J76" s="3">
+        <v>995700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1165800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1012700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>775300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>858700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>843500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>837300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>810000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>806400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>762700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>725700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-89700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-121600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-401800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-407000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-39800</v>
+        <v>-18700</v>
       </c>
       <c r="E81" s="3">
-        <v>-19000</v>
+        <v>-41000</v>
       </c>
       <c r="F81" s="3">
-        <v>17300</v>
+        <v>-19600</v>
       </c>
       <c r="G81" s="3">
-        <v>-58000</v>
+        <v>17800</v>
       </c>
       <c r="H81" s="3">
-        <v>77600</v>
+        <v>-59800</v>
       </c>
       <c r="I81" s="3">
-        <v>-38100</v>
+        <v>80100</v>
       </c>
       <c r="J81" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K81" s="3">
         <v>218300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>258300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2600</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z81" s="3">
         <v>5500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>6500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5867,18 +6066,18 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>16</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6329,18 +6546,18 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V89" s="3">
         <v>-6100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>42600</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>16</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6435,18 +6656,18 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>16</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6666,18 +6896,18 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V94" s="3">
         <v>-61400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4500</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7080,18 +7326,18 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V100" s="3">
         <v>252400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>16</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7157,18 +7406,18 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>16</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7234,18 +7486,18 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="3">
         <v>184600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>36800</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>16</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59800</v>
+        <v>69200</v>
       </c>
       <c r="E8" s="3">
-        <v>41500</v>
+        <v>59200</v>
       </c>
       <c r="F8" s="3">
-        <v>113100</v>
+        <v>41100</v>
       </c>
       <c r="G8" s="3">
-        <v>150900</v>
+        <v>112000</v>
       </c>
       <c r="H8" s="3">
-        <v>115000</v>
+        <v>149300</v>
       </c>
       <c r="I8" s="3">
-        <v>136000</v>
+        <v>113800</v>
       </c>
       <c r="J8" s="3">
+        <v>134600</v>
+      </c>
+      <c r="K8" s="3">
         <v>161400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>152800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>63500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>61700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>54800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>52500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>53500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>46600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>39900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>33900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>35700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>46200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>41300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>39700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>29000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>33300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>55800</v>
+        <v>68500</v>
       </c>
       <c r="E9" s="3">
-        <v>39200</v>
+        <v>55300</v>
       </c>
       <c r="F9" s="3">
-        <v>98700</v>
+        <v>38800</v>
       </c>
       <c r="G9" s="3">
-        <v>126500</v>
+        <v>97700</v>
       </c>
       <c r="H9" s="3">
-        <v>87700</v>
+        <v>125200</v>
       </c>
       <c r="I9" s="3">
-        <v>100200</v>
+        <v>86800</v>
       </c>
       <c r="J9" s="3">
+        <v>99200</v>
+      </c>
+      <c r="K9" s="3">
         <v>110500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>19600</v>
       </c>
       <c r="Q9" s="3">
         <v>19600</v>
       </c>
       <c r="R9" s="3">
+        <v>19600</v>
+      </c>
+      <c r="S9" s="3">
         <v>19900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>22400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>23200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>27200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>10400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F10" s="3">
         <v>2400</v>
       </c>
-      <c r="F10" s="3">
-        <v>14500</v>
-      </c>
       <c r="G10" s="3">
-        <v>24400</v>
+        <v>14300</v>
       </c>
       <c r="H10" s="3">
-        <v>27300</v>
+        <v>24100</v>
       </c>
       <c r="I10" s="3">
-        <v>35700</v>
+        <v>27000</v>
       </c>
       <c r="J10" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K10" s="3">
         <v>50900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>22300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>19000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>35400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>17900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>22900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="R12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W12" s="3">
+        <v>900</v>
+      </c>
+      <c r="X12" s="3">
         <v>1500</v>
       </c>
-      <c r="U12" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V12" s="3">
-        <v>900</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,88 +1222,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>12200</v>
+        <v>8900</v>
       </c>
       <c r="E14" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F14" s="3">
         <v>7600</v>
       </c>
-      <c r="F14" s="3">
-        <v>14200</v>
-      </c>
       <c r="G14" s="3">
-        <v>12200</v>
+        <v>14100</v>
       </c>
       <c r="H14" s="3">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="I14" s="3">
-        <v>5200</v>
+        <v>7900</v>
       </c>
       <c r="J14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-6300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-2000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>87400</v>
+        <v>99300</v>
       </c>
       <c r="E17" s="3">
-        <v>92400</v>
+        <v>86500</v>
       </c>
       <c r="F17" s="3">
-        <v>140300</v>
+        <v>91400</v>
       </c>
       <c r="G17" s="3">
-        <v>173400</v>
+        <v>138800</v>
       </c>
       <c r="H17" s="3">
-        <v>120600</v>
+        <v>171700</v>
       </c>
       <c r="I17" s="3">
-        <v>134100</v>
+        <v>119400</v>
       </c>
       <c r="J17" s="3">
+        <v>132700</v>
+      </c>
+      <c r="K17" s="3">
         <v>138500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>125100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>51200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>49400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>40800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>39300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>42900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>41500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>29200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>40400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>14200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>14900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-27600</v>
+        <v>-30100</v>
       </c>
       <c r="E18" s="3">
-        <v>-50900</v>
+        <v>-27300</v>
       </c>
       <c r="F18" s="3">
-        <v>-27200</v>
+        <v>-50300</v>
       </c>
       <c r="G18" s="3">
-        <v>-22600</v>
+        <v>-26900</v>
       </c>
       <c r="H18" s="3">
-        <v>-5600</v>
+        <v>-22300</v>
       </c>
       <c r="I18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>26000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>23200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>18400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,88 +1615,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
-        <v>39400</v>
-      </c>
       <c r="H20" s="3">
-        <v>-58500</v>
+        <v>39000</v>
       </c>
       <c r="I20" s="3">
-        <v>88200</v>
+        <v>-57900</v>
       </c>
       <c r="J20" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-61900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>210400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>269300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1722,52 +1758,55 @@
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>17200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6800</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="3">
         <v>15600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>18500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1779,22 +1818,22 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
-      </c>
-      <c r="S22" s="3">
-        <v>700</v>
       </c>
       <c r="T22" s="3">
         <v>700</v>
@@ -1806,185 +1845,194 @@
         <v>700</v>
       </c>
       <c r="W22" s="3">
+        <v>700</v>
+      </c>
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24400</v>
+        <v>-26700</v>
       </c>
       <c r="E23" s="3">
-        <v>-49300</v>
+        <v>-24100</v>
       </c>
       <c r="F23" s="3">
-        <v>-24900</v>
+        <v>-48800</v>
       </c>
       <c r="G23" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>237900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>288800</v>
+      </c>
+      <c r="N23" s="3">
+        <v>14100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>21000</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>22900</v>
+      </c>
+      <c r="R23" s="3">
         <v>16100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-65300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>90000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-39100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>237900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>288800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>14100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>21000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>22900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>16100</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>26000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>21900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>15300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>18300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5600</v>
       </c>
-      <c r="E24" s="3">
-        <v>-8300</v>
-      </c>
       <c r="F24" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-5300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I24" s="3">
-        <v>9900</v>
+        <v>-5400</v>
       </c>
       <c r="J24" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>5000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18700</v>
+        <v>-79500</v>
       </c>
       <c r="E26" s="3">
-        <v>-41000</v>
+        <v>-18500</v>
       </c>
       <c r="F26" s="3">
-        <v>-19600</v>
+        <v>-40600</v>
       </c>
       <c r="G26" s="3">
-        <v>17800</v>
+        <v>-19400</v>
       </c>
       <c r="H26" s="3">
-        <v>-59800</v>
+        <v>17600</v>
       </c>
       <c r="I26" s="3">
-        <v>80100</v>
+        <v>-59200</v>
       </c>
       <c r="J26" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-39300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>218300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>258400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4400</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA26" s="3">
         <v>11000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>13500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18700</v>
+        <v>-79500</v>
       </c>
       <c r="E27" s="3">
-        <v>-41000</v>
+        <v>-18500</v>
       </c>
       <c r="F27" s="3">
-        <v>-19600</v>
+        <v>-40600</v>
       </c>
       <c r="G27" s="3">
-        <v>17800</v>
+        <v>-19400</v>
       </c>
       <c r="H27" s="3">
-        <v>-59800</v>
+        <v>17600</v>
       </c>
       <c r="I27" s="3">
-        <v>80100</v>
+        <v>-59200</v>
       </c>
       <c r="J27" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-39300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>218300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>258300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2600</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA27" s="3">
         <v>5500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>6500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
-        <v>-39400</v>
-      </c>
       <c r="H32" s="3">
-        <v>58500</v>
+        <v>-39000</v>
       </c>
       <c r="I32" s="3">
-        <v>-88200</v>
+        <v>57900</v>
       </c>
       <c r="J32" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="K32" s="3">
         <v>61900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-210400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-269300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18700</v>
+        <v>-79500</v>
       </c>
       <c r="E33" s="3">
-        <v>-41000</v>
+        <v>-18500</v>
       </c>
       <c r="F33" s="3">
-        <v>-19600</v>
+        <v>-40600</v>
       </c>
       <c r="G33" s="3">
-        <v>17800</v>
+        <v>-19400</v>
       </c>
       <c r="H33" s="3">
-        <v>-59800</v>
+        <v>17600</v>
       </c>
       <c r="I33" s="3">
-        <v>80100</v>
+        <v>-59200</v>
       </c>
       <c r="J33" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-39300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>218300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>258300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2600</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA33" s="3">
         <v>5500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>6500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18700</v>
+        <v>-79500</v>
       </c>
       <c r="E35" s="3">
-        <v>-41000</v>
+        <v>-18500</v>
       </c>
       <c r="F35" s="3">
-        <v>-19600</v>
+        <v>-40600</v>
       </c>
       <c r="G35" s="3">
-        <v>17800</v>
+        <v>-19400</v>
       </c>
       <c r="H35" s="3">
-        <v>-59800</v>
+        <v>17600</v>
       </c>
       <c r="I35" s="3">
-        <v>80100</v>
+        <v>-59200</v>
       </c>
       <c r="J35" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-39300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>218300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>258300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2600</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA35" s="3">
         <v>5500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>6500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,77 +3093,78 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107000</v>
+        <v>53900</v>
       </c>
       <c r="E41" s="3">
-        <v>183900</v>
+        <v>105900</v>
       </c>
       <c r="F41" s="3">
-        <v>306900</v>
+        <v>182100</v>
       </c>
       <c r="G41" s="3">
-        <v>206100</v>
+        <v>303800</v>
       </c>
       <c r="H41" s="3">
-        <v>130200</v>
+        <v>204000</v>
       </c>
       <c r="I41" s="3">
-        <v>215300</v>
+        <v>128800</v>
       </c>
       <c r="J41" s="3">
+        <v>213100</v>
+      </c>
+      <c r="K41" s="3">
         <v>234200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>198600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>207800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>296200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>429100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>308300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>288800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>251100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>331300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>423000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>509800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>447900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>281600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>119200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>93600</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3088,77 +3174,80 @@
       <c r="AB41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>387500</v>
+        <v>276000</v>
       </c>
       <c r="E42" s="3">
-        <v>303900</v>
+        <v>383500</v>
       </c>
       <c r="F42" s="3">
-        <v>269200</v>
+        <v>300800</v>
       </c>
       <c r="G42" s="3">
-        <v>373300</v>
+        <v>266400</v>
       </c>
       <c r="H42" s="3">
-        <v>515300</v>
+        <v>369400</v>
       </c>
       <c r="I42" s="3">
-        <v>449100</v>
+        <v>510100</v>
       </c>
       <c r="J42" s="3">
+        <v>444500</v>
+      </c>
+      <c r="K42" s="3">
         <v>377400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>604500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>166500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>123100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>116100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>92000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>72000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>85200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>17000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>38600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>28200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>86000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>9300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>13300</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3168,77 +3257,80 @@
       <c r="AB42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>251200</v>
+        <v>233200</v>
       </c>
       <c r="E43" s="3">
-        <v>299300</v>
+        <v>248600</v>
       </c>
       <c r="F43" s="3">
-        <v>331200</v>
+        <v>296200</v>
       </c>
       <c r="G43" s="3">
-        <v>363400</v>
+        <v>327900</v>
       </c>
       <c r="H43" s="3">
-        <v>368500</v>
+        <v>359600</v>
       </c>
       <c r="I43" s="3">
-        <v>378100</v>
+        <v>364700</v>
       </c>
       <c r="J43" s="3">
+        <v>374300</v>
+      </c>
+      <c r="K43" s="3">
         <v>395700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>356600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>318300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>258200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>285200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>285300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>258400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>257100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>235500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>176500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>119300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>18200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>23000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>25000</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,77 +3423,80 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131200</v>
+        <v>214600</v>
       </c>
       <c r="E45" s="3">
-        <v>96300</v>
+        <v>129800</v>
       </c>
       <c r="F45" s="3">
-        <v>89700</v>
+        <v>95300</v>
       </c>
       <c r="G45" s="3">
-        <v>150000</v>
+        <v>88700</v>
       </c>
       <c r="H45" s="3">
-        <v>114000</v>
+        <v>148400</v>
       </c>
       <c r="I45" s="3">
-        <v>132500</v>
+        <v>112800</v>
       </c>
       <c r="J45" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K45" s="3">
         <v>94200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>83300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>119900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>167600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>110200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>103700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>96200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>163300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>23000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>13000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>32900</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3408,77 +3506,80 @@
       <c r="AB45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>876900</v>
+        <v>777600</v>
       </c>
       <c r="E46" s="3">
-        <v>883500</v>
+        <v>867900</v>
       </c>
       <c r="F46" s="3">
-        <v>997000</v>
+        <v>874400</v>
       </c>
       <c r="G46" s="3">
-        <v>1092700</v>
+        <v>986800</v>
       </c>
       <c r="H46" s="3">
-        <v>1127900</v>
+        <v>1081500</v>
       </c>
       <c r="I46" s="3">
-        <v>1175000</v>
+        <v>1116400</v>
       </c>
       <c r="J46" s="3">
+        <v>1163000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1101500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1238700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>737000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>760800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>950400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>853200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>729500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>697100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>680000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>690500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>667600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>636800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>408800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>164500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>164700</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3488,77 +3589,80 @@
       <c r="AB46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>90900</v>
+        <v>61600</v>
       </c>
       <c r="E47" s="3">
-        <v>124300</v>
+        <v>90000</v>
       </c>
       <c r="F47" s="3">
-        <v>171100</v>
+        <v>123000</v>
       </c>
       <c r="G47" s="3">
-        <v>219000</v>
+        <v>169300</v>
       </c>
       <c r="H47" s="3">
-        <v>219600</v>
+        <v>216700</v>
       </c>
       <c r="I47" s="3">
-        <v>238600</v>
+        <v>217400</v>
       </c>
       <c r="J47" s="3">
+        <v>236100</v>
+      </c>
+      <c r="K47" s="3">
         <v>241700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>241600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>544400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>231200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>285400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>309300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>326100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>315000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>321000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>228900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>145700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>51000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>50900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>71900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>64200</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3568,77 +3672,80 @@
       <c r="AB47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1900</v>
       </c>
       <c r="M48" s="3">
         <v>1900</v>
       </c>
       <c r="N48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2700</v>
       </c>
       <c r="T48" s="3">
         <v>2700</v>
       </c>
       <c r="U48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V48" s="3">
         <v>2500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1100</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3648,76 +3755,79 @@
       <c r="AB48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28100</v>
+        <v>28000</v>
       </c>
       <c r="E49" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>27600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>27700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>27700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K49" s="3">
+        <v>27300</v>
+      </c>
+      <c r="L49" s="3">
+        <v>26400</v>
+      </c>
+      <c r="M49" s="3">
+        <v>27700</v>
+      </c>
+      <c r="N49" s="3">
         <v>27900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="O49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="P49" s="3">
+        <v>29200</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>28000</v>
+      </c>
+      <c r="R49" s="3">
         <v>27900</v>
       </c>
-      <c r="G49" s="3">
-        <v>27900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>27900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>27300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>27300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>26400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>27700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>27900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>29700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>29200</v>
-      </c>
-      <c r="P49" s="3">
-        <v>28000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>27900</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>27200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>21300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20600</v>
-      </c>
-      <c r="U49" s="3">
-        <v>200</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
       </c>
       <c r="W49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X49" s="3">
         <v>300</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>16</v>
+      <c r="Y49" s="3">
+        <v>300</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>16</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,77 +4004,80 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>206500</v>
+        <v>116600</v>
       </c>
       <c r="E52" s="3">
-        <v>217200</v>
+        <v>204400</v>
       </c>
       <c r="F52" s="3">
-        <v>226500</v>
+        <v>215000</v>
       </c>
       <c r="G52" s="3">
-        <v>229800</v>
+        <v>224200</v>
       </c>
       <c r="H52" s="3">
-        <v>235700</v>
+        <v>227500</v>
       </c>
       <c r="I52" s="3">
-        <v>236600</v>
+        <v>233300</v>
       </c>
       <c r="J52" s="3">
+        <v>234200</v>
+      </c>
+      <c r="K52" s="3">
         <v>242200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>182500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>176300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>157300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>163400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>151300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>141700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>139800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>137200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>117000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>95100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>83500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>77000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>58300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>26900</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,77 +4170,80 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1204700</v>
+        <v>997400</v>
       </c>
       <c r="E54" s="3">
-        <v>1255400</v>
+        <v>1192400</v>
       </c>
       <c r="F54" s="3">
-        <v>1425200</v>
+        <v>1242500</v>
       </c>
       <c r="G54" s="3">
-        <v>1572200</v>
+        <v>1410600</v>
       </c>
       <c r="H54" s="3">
-        <v>1614000</v>
+        <v>1556100</v>
       </c>
       <c r="I54" s="3">
-        <v>1680500</v>
+        <v>1597500</v>
       </c>
       <c r="J54" s="3">
+        <v>1663300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1615600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1690700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1487400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1179200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1430900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1345300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1227600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1182500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1168300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1060300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>931700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>774000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>538700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>296400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>257200</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4128,8 +4253,11 @@
       <c r="AB54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4244,21 +4374,21 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>16</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4268,77 +4398,80 @@
       <c r="AB57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>134900</v>
+        <v>130000</v>
       </c>
       <c r="E58" s="3">
-        <v>159500</v>
+        <v>133500</v>
       </c>
       <c r="F58" s="3">
-        <v>162900</v>
+        <v>157900</v>
       </c>
       <c r="G58" s="3">
-        <v>218000</v>
+        <v>161300</v>
       </c>
       <c r="H58" s="3">
-        <v>287100</v>
+        <v>215800</v>
       </c>
       <c r="I58" s="3">
-        <v>273100</v>
+        <v>284100</v>
       </c>
       <c r="J58" s="3">
+        <v>270300</v>
+      </c>
+      <c r="K58" s="3">
         <v>224200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>220600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>244700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>277600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>397900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>354600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>288100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>257800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>243300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>163700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>66500</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y58" s="3">
         <v>13800</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4348,77 +4481,80 @@
       <c r="AB58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>178300</v>
+        <v>229800</v>
       </c>
       <c r="E59" s="3">
-        <v>186800</v>
+        <v>176400</v>
       </c>
       <c r="F59" s="3">
-        <v>212700</v>
+        <v>184900</v>
       </c>
       <c r="G59" s="3">
-        <v>272900</v>
+        <v>210500</v>
       </c>
       <c r="H59" s="3">
-        <v>218600</v>
+        <v>270100</v>
       </c>
       <c r="I59" s="3">
-        <v>198700</v>
+        <v>216300</v>
       </c>
       <c r="J59" s="3">
+        <v>196700</v>
+      </c>
+      <c r="K59" s="3">
         <v>256200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>121500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>91800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>94000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>93300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>65500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>65300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>63600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>52300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>60000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>63400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>76700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>39900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4428,77 +4564,80 @@
       <c r="AB59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>313100</v>
+        <v>359800</v>
       </c>
       <c r="E60" s="3">
-        <v>346400</v>
+        <v>309900</v>
       </c>
       <c r="F60" s="3">
-        <v>375600</v>
+        <v>342800</v>
       </c>
       <c r="G60" s="3">
-        <v>490900</v>
+        <v>371800</v>
       </c>
       <c r="H60" s="3">
-        <v>505600</v>
+        <v>485800</v>
       </c>
       <c r="I60" s="3">
-        <v>471900</v>
+        <v>500500</v>
       </c>
       <c r="J60" s="3">
+        <v>467000</v>
+      </c>
+      <c r="K60" s="3">
         <v>480400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>342100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>336500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>354700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>491900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>447900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>353600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>323100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>316400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>227300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>118800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>60000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>63400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>78100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>54300</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4508,77 +4647,80 @@
       <c r="AB60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18000</v>
+        <v>10800</v>
       </c>
       <c r="E61" s="3">
-        <v>39300</v>
+        <v>17900</v>
       </c>
       <c r="F61" s="3">
-        <v>65300</v>
+        <v>38900</v>
       </c>
       <c r="G61" s="3">
-        <v>69900</v>
+        <v>64600</v>
       </c>
       <c r="H61" s="3">
-        <v>91700</v>
+        <v>69100</v>
       </c>
       <c r="I61" s="3">
-        <v>120200</v>
+        <v>90800</v>
       </c>
       <c r="J61" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K61" s="3">
         <v>117600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>136100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>103200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>76000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>46500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>49000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>45700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>68700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>81400</v>
-      </c>
-      <c r="U61" s="3">
-        <v>25100</v>
       </c>
       <c r="V61" s="3">
         <v>25100</v>
       </c>
       <c r="W61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="X61" s="3">
         <v>26000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15000</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4588,76 +4730,79 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27100</v>
+        <v>12400</v>
       </c>
       <c r="E62" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="F62" s="3">
-        <v>1700</v>
+        <v>26800</v>
       </c>
       <c r="G62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H62" s="3">
         <v>7500</v>
       </c>
-      <c r="H62" s="3">
-        <v>18300</v>
-      </c>
       <c r="I62" s="3">
-        <v>25000</v>
+        <v>18100</v>
       </c>
       <c r="J62" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K62" s="3">
         <v>21900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5300</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4600</v>
-      </c>
-      <c r="U62" s="3">
-        <v>5000</v>
       </c>
       <c r="V62" s="3">
         <v>5000</v>
       </c>
       <c r="W62" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="X62" s="3">
         <v>5300</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>16</v>
+      <c r="Y62" s="3">
+        <v>5300</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>16</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,77 +5062,80 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>358300</v>
+        <v>383000</v>
       </c>
       <c r="E66" s="3">
-        <v>412800</v>
+        <v>354600</v>
       </c>
       <c r="F66" s="3">
-        <v>442600</v>
+        <v>408500</v>
       </c>
       <c r="G66" s="3">
-        <v>568200</v>
+        <v>438000</v>
       </c>
       <c r="H66" s="3">
-        <v>615600</v>
+        <v>562400</v>
       </c>
       <c r="I66" s="3">
-        <v>617100</v>
+        <v>609300</v>
       </c>
       <c r="J66" s="3">
+        <v>610800</v>
+      </c>
+      <c r="K66" s="3">
         <v>619900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>524900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>474700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>403900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>572300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>501800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>390400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>372500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>361900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>297600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>206000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>92000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>94800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>113200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>79200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4988,8 +5145,11 @@
       <c r="AB66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5235,19 +5402,19 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>771700</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>565600</v>
-      </c>
-      <c r="W70" s="3">
-        <v>585000</v>
       </c>
       <c r="X70" s="3">
         <v>585000</v>
       </c>
       <c r="Y70" s="3">
-        <v>0</v>
+        <v>585000</v>
       </c>
       <c r="Z70" s="3">
         <v>0</v>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,77 +5508,80 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>219100</v>
+        <v>1300</v>
       </c>
       <c r="E72" s="3">
-        <v>237800</v>
+        <v>216900</v>
       </c>
       <c r="F72" s="3">
-        <v>410100</v>
+        <v>235400</v>
       </c>
       <c r="G72" s="3">
-        <v>429600</v>
+        <v>405900</v>
       </c>
       <c r="H72" s="3">
-        <v>411800</v>
+        <v>425200</v>
       </c>
       <c r="I72" s="3">
-        <v>471600</v>
+        <v>407600</v>
       </c>
       <c r="J72" s="3">
+        <v>466800</v>
+      </c>
+      <c r="K72" s="3">
         <v>391500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>550600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>348600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>91000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>127500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>131300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>113800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>95400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>117800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>101400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>708000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-96700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-122100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-402400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-407600</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5418,8 +5591,11 @@
       <c r="AB72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,77 +5840,80 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>846400</v>
+        <v>614400</v>
       </c>
       <c r="E76" s="3">
-        <v>842600</v>
+        <v>837800</v>
       </c>
       <c r="F76" s="3">
-        <v>982700</v>
+        <v>834000</v>
       </c>
       <c r="G76" s="3">
-        <v>1004000</v>
+        <v>972600</v>
       </c>
       <c r="H76" s="3">
-        <v>998400</v>
+        <v>993700</v>
       </c>
       <c r="I76" s="3">
-        <v>1063500</v>
+        <v>988200</v>
       </c>
       <c r="J76" s="3">
+        <v>1052600</v>
+      </c>
+      <c r="K76" s="3">
         <v>995700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1165800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1012700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>775300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>858700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>843500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>837300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>810000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>806400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>762700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>725700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-89700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-121600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-401800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-407000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5738,8 +5923,11 @@
       <c r="AB76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18700</v>
+        <v>-79500</v>
       </c>
       <c r="E81" s="3">
-        <v>-41000</v>
+        <v>-18500</v>
       </c>
       <c r="F81" s="3">
-        <v>-19600</v>
+        <v>-40600</v>
       </c>
       <c r="G81" s="3">
-        <v>17800</v>
+        <v>-19400</v>
       </c>
       <c r="H81" s="3">
-        <v>-59800</v>
+        <v>17600</v>
       </c>
       <c r="I81" s="3">
-        <v>80100</v>
+        <v>-59200</v>
       </c>
       <c r="J81" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-39300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>218300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>258300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2600</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA81" s="3">
         <v>5500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>6500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6069,18 +6267,18 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W83" s="3">
         <v>300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>16</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6549,18 +6765,18 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W89" s="3">
         <v>-6100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>42600</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>16</v>
       </c>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6659,18 +6879,18 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>16</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6899,18 +7128,18 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W94" s="3">
         <v>-61400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4500</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7329,18 +7574,18 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W100" s="3">
         <v>252400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1200</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>16</v>
       </c>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7409,18 +7657,18 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>16</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7489,18 +7740,18 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3">
         <v>184600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>36800</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>16</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>69200</v>
+        <v>93100</v>
       </c>
       <c r="E8" s="3">
-        <v>59200</v>
+        <v>74800</v>
       </c>
       <c r="F8" s="3">
-        <v>41100</v>
+        <v>67100</v>
       </c>
       <c r="G8" s="3">
-        <v>112000</v>
+        <v>57400</v>
       </c>
       <c r="H8" s="3">
-        <v>149300</v>
+        <v>39800</v>
       </c>
       <c r="I8" s="3">
+        <v>108500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>144700</v>
+      </c>
+      <c r="K8" s="3">
         <v>113800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>134600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>161400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>152800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>63500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>40400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>38500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>61700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>54800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>52500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>53500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>46600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>39900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>33900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>35700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>46200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>41300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>39700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>29000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>33300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>68500</v>
+        <v>84800</v>
       </c>
       <c r="E9" s="3">
-        <v>55300</v>
+        <v>66200</v>
       </c>
       <c r="F9" s="3">
-        <v>38800</v>
+        <v>66400</v>
       </c>
       <c r="G9" s="3">
-        <v>97700</v>
+        <v>53600</v>
       </c>
       <c r="H9" s="3">
-        <v>125200</v>
+        <v>37600</v>
       </c>
       <c r="I9" s="3">
+        <v>94700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>121300</v>
+      </c>
+      <c r="K9" s="3">
         <v>86800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>99200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>110500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>100800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>26400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>15200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>14200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>24200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>19600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>19600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>19900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>22400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>15900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>11600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>23200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>27200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>5900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>13100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>11000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>10400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>800</v>
+        <v>8200</v>
       </c>
       <c r="E10" s="3">
-        <v>3900</v>
+        <v>8600</v>
       </c>
       <c r="F10" s="3">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="G10" s="3">
-        <v>14300</v>
+        <v>3800</v>
       </c>
       <c r="H10" s="3">
-        <v>24100</v>
+        <v>2300</v>
       </c>
       <c r="I10" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K10" s="3">
         <v>27000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>35400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>50900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>52000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>37100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>25200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>24300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>37500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>35200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>32800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>33600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>24200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>24000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>22300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>12500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>19000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>35400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>26600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>17900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>22900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="P12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
-        <v>3200</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="R12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S12" s="3">
         <v>2100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="T12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="U12" s="3">
         <v>2000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="V12" s="3">
         <v>2900</v>
       </c>
-      <c r="Q12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="S12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>500</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>300</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>400</v>
       </c>
       <c r="AC12" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,91 +1259,103 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8900</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>12100</v>
+        <v>-200</v>
       </c>
       <c r="F14" s="3">
-        <v>7600</v>
+        <v>8700</v>
       </c>
       <c r="G14" s="3">
-        <v>14100</v>
+        <v>11700</v>
       </c>
       <c r="H14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="I14" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="O14" s="3">
-        <v>12000</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-2000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>-200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>99300</v>
+        <v>94300</v>
       </c>
       <c r="E17" s="3">
-        <v>86500</v>
+        <v>67600</v>
       </c>
       <c r="F17" s="3">
-        <v>91400</v>
+        <v>96300</v>
       </c>
       <c r="G17" s="3">
-        <v>138800</v>
+        <v>83900</v>
       </c>
       <c r="H17" s="3">
-        <v>171700</v>
+        <v>88600</v>
       </c>
       <c r="I17" s="3">
+        <v>134600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K17" s="3">
         <v>119400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>132700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>138500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>125100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>43900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>30600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>51200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>49400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>40800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>39300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>42900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>41500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>29200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>23600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>22300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>40400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>15300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>16500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>14200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>14900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-30100</v>
+        <v>-1200</v>
       </c>
       <c r="E18" s="3">
-        <v>-27300</v>
+        <v>7100</v>
       </c>
       <c r="F18" s="3">
-        <v>-50300</v>
+        <v>-29200</v>
       </c>
       <c r="G18" s="3">
-        <v>-26900</v>
+        <v>-26500</v>
       </c>
       <c r="H18" s="3">
-        <v>-22300</v>
+        <v>-48800</v>
       </c>
       <c r="I18" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>22900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>27600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>19600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-12700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>12300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>14000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>13100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>10600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>5200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>10700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>10300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>13400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>5800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>26000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>23200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>14800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>18400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,91 +1682,99 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>87300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>210400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>269300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="R20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="S20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="T20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>39000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-57900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>87300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-61900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>210400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>269300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>6800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>8700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>9400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>3700</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>5700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>3100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>9900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>3600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>900</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-700</v>
       </c>
       <c r="AA20" s="3">
         <v>800</v>
       </c>
       <c r="AB20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1761,58 +1835,64 @@
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
         <v>17200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>6800</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="3">
         <v>15600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>18500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
-        <v>800</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1821,25 +1901,25 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>800</v>
       </c>
       <c r="T22" s="3">
         <v>700</v>
       </c>
       <c r="U22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V22" s="3">
         <v>700</v>
@@ -1848,191 +1928,209 @@
         <v>700</v>
       </c>
       <c r="X22" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>200</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26700</v>
+        <v>3000</v>
       </c>
       <c r="E23" s="3">
-        <v>-24100</v>
+        <v>10400</v>
       </c>
       <c r="F23" s="3">
-        <v>-48800</v>
+        <v>-25900</v>
       </c>
       <c r="G23" s="3">
-        <v>-24600</v>
+        <v>-23400</v>
       </c>
       <c r="H23" s="3">
-        <v>16000</v>
+        <v>-47300</v>
       </c>
       <c r="I23" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-64600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>89100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-39100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>237900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>288800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>14100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>21000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>22900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>16100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>15400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>19900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>12700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>16300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>6300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>26000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>21900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>15300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>18300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52700</v>
+        <v>-2000</v>
       </c>
       <c r="E24" s="3">
-        <v>-5600</v>
+        <v>-500</v>
       </c>
       <c r="F24" s="3">
-        <v>-8200</v>
+        <v>51100</v>
       </c>
       <c r="G24" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="H24" s="3">
-        <v>-1700</v>
+        <v>-8000</v>
       </c>
       <c r="I24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>9800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>19600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>30400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>4100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>5000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>4200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>5900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>5700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>4300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>4800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-79500</v>
+        <v>5000</v>
       </c>
       <c r="E26" s="3">
-        <v>-18500</v>
+        <v>10900</v>
       </c>
       <c r="F26" s="3">
-        <v>-40600</v>
+        <v>-77000</v>
       </c>
       <c r="G26" s="3">
-        <v>-19400</v>
+        <v>-18000</v>
       </c>
       <c r="H26" s="3">
-        <v>17600</v>
+        <v>-39400</v>
       </c>
       <c r="I26" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-59200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>79300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-39300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>218300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>258400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>10300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>17500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>19100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>14800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>11300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>7600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>14900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>9300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>12100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>4400</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC26" s="3">
         <v>11000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>13500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-79500</v>
+        <v>5000</v>
       </c>
       <c r="E27" s="3">
-        <v>-18500</v>
+        <v>10900</v>
       </c>
       <c r="F27" s="3">
-        <v>-40600</v>
+        <v>-77000</v>
       </c>
       <c r="G27" s="3">
-        <v>-19400</v>
+        <v>-18000</v>
       </c>
       <c r="H27" s="3">
-        <v>17600</v>
+        <v>-39400</v>
       </c>
       <c r="I27" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-59200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>79300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-39300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>218300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>258300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>10300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>16200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>18400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>14300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>11600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>8000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>15400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>8200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>11500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>2600</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC27" s="3">
         <v>5500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>6500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4100</v>
+        <v>-4400</v>
       </c>
       <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>57900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>61900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-210400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-269300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="T32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-39000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>57900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-87300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>61900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-210400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-269300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-5700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-3100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-9900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-3600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-900</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>700</v>
       </c>
       <c r="AA32" s="3">
         <v>-800</v>
       </c>
       <c r="AB32" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-79500</v>
+        <v>5000</v>
       </c>
       <c r="E33" s="3">
-        <v>-18500</v>
+        <v>10900</v>
       </c>
       <c r="F33" s="3">
-        <v>-40600</v>
+        <v>-77000</v>
       </c>
       <c r="G33" s="3">
-        <v>-19400</v>
+        <v>-18000</v>
       </c>
       <c r="H33" s="3">
-        <v>17600</v>
+        <v>-39400</v>
       </c>
       <c r="I33" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-59200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>79300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-39300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>218300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>258300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>10300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>16200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>18400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>14300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>11600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>8000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>15400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>8200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>11500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>2600</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC33" s="3">
         <v>5500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>6500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-79500</v>
+        <v>5000</v>
       </c>
       <c r="E35" s="3">
-        <v>-18500</v>
+        <v>10900</v>
       </c>
       <c r="F35" s="3">
-        <v>-40600</v>
+        <v>-77000</v>
       </c>
       <c r="G35" s="3">
-        <v>-19400</v>
+        <v>-18000</v>
       </c>
       <c r="H35" s="3">
-        <v>17600</v>
+        <v>-39400</v>
       </c>
       <c r="I35" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-59200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>79300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-39300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>218300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>258300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>10300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>16200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>18400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>14300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>11600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>8000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>15400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>8200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>11500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>2600</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC35" s="3">
         <v>5500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>6500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,257 +3266,277 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>53900</v>
+        <v>81200</v>
       </c>
       <c r="E41" s="3">
-        <v>105900</v>
+        <v>96000</v>
       </c>
       <c r="F41" s="3">
-        <v>182100</v>
+        <v>52200</v>
       </c>
       <c r="G41" s="3">
-        <v>303800</v>
+        <v>102600</v>
       </c>
       <c r="H41" s="3">
-        <v>204000</v>
+        <v>176500</v>
       </c>
       <c r="I41" s="3">
+        <v>294400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>197700</v>
+      </c>
+      <c r="K41" s="3">
         <v>128800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>213100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>234200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>198600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>207800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>296200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>429100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>308300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>288800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>251100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>331300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>423000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>509800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>447900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>281600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>119200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>93600</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>276000</v>
+        <v>283200</v>
       </c>
       <c r="E42" s="3">
-        <v>383500</v>
+        <v>278000</v>
       </c>
       <c r="F42" s="3">
-        <v>300800</v>
+        <v>267500</v>
       </c>
       <c r="G42" s="3">
-        <v>266400</v>
+        <v>371700</v>
       </c>
       <c r="H42" s="3">
-        <v>369400</v>
+        <v>291600</v>
       </c>
       <c r="I42" s="3">
+        <v>258200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>358100</v>
+      </c>
+      <c r="K42" s="3">
         <v>510100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>444500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>377400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>604500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>166500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>123100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>116100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>92000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>72000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>85200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>17000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>38600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>28200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>12800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>86000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>9300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>13300</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>233200</v>
+        <v>142500</v>
       </c>
       <c r="E43" s="3">
-        <v>248600</v>
+        <v>189400</v>
       </c>
       <c r="F43" s="3">
-        <v>296200</v>
+        <v>226000</v>
       </c>
       <c r="G43" s="3">
-        <v>327900</v>
+        <v>241000</v>
       </c>
       <c r="H43" s="3">
-        <v>359600</v>
+        <v>287100</v>
       </c>
       <c r="I43" s="3">
+        <v>317800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>348600</v>
+      </c>
+      <c r="K43" s="3">
         <v>364700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>374300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>395700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>356600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>318300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>258200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>285200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>285300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>258400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>257100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>235500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>176500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>119300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>12800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>18200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>23000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>25000</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,423 +3618,459 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>214600</v>
+        <v>101200</v>
       </c>
       <c r="E45" s="3">
-        <v>129800</v>
+        <v>175600</v>
       </c>
       <c r="F45" s="3">
-        <v>95300</v>
+        <v>208000</v>
       </c>
       <c r="G45" s="3">
-        <v>88700</v>
+        <v>125800</v>
       </c>
       <c r="H45" s="3">
-        <v>148400</v>
+        <v>92400</v>
       </c>
       <c r="I45" s="3">
+        <v>86000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K45" s="3">
         <v>112800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>131100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>94200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>79100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>44300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>83300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>119900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>167600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>110200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>103700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>96200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>52300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>10300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>163300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>23000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>13000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>32900</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>777600</v>
+        <v>608200</v>
       </c>
       <c r="E46" s="3">
-        <v>867900</v>
+        <v>739000</v>
       </c>
       <c r="F46" s="3">
-        <v>874400</v>
+        <v>753700</v>
       </c>
       <c r="G46" s="3">
-        <v>986800</v>
+        <v>841200</v>
       </c>
       <c r="H46" s="3">
-        <v>1081500</v>
+        <v>847600</v>
       </c>
       <c r="I46" s="3">
+        <v>956400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1048200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1116400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1163000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1101500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1238700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>737000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>760800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>950400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>853200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>729500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>697100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>680000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>690500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>667600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>636800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>408800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>164500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>164700</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61600</v>
+        <v>24600</v>
       </c>
       <c r="E47" s="3">
-        <v>90000</v>
+        <v>36700</v>
       </c>
       <c r="F47" s="3">
-        <v>123000</v>
+        <v>59700</v>
       </c>
       <c r="G47" s="3">
-        <v>169300</v>
+        <v>87200</v>
       </c>
       <c r="H47" s="3">
-        <v>216700</v>
+        <v>119200</v>
       </c>
       <c r="I47" s="3">
+        <v>164100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>210100</v>
+      </c>
+      <c r="K47" s="3">
         <v>217400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>236100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>241700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>241600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>544400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>231200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>285400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>309300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>326100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>315000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>321000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>228900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>145700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>51000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>50900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>71900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>64200</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13600</v>
+        <v>12000</v>
       </c>
       <c r="E48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="S48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="Y48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2700</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2500</v>
-      </c>
-      <c r="W48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="X48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1100</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>27100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>26800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K49" s="3">
+        <v>27600</v>
+      </c>
+      <c r="L49" s="3">
+        <v>27000</v>
+      </c>
+      <c r="M49" s="3">
+        <v>27300</v>
+      </c>
+      <c r="N49" s="3">
+        <v>26400</v>
+      </c>
+      <c r="O49" s="3">
+        <v>27700</v>
+      </c>
+      <c r="P49" s="3">
+        <v>27900</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="R49" s="3">
+        <v>29200</v>
+      </c>
+      <c r="S49" s="3">
         <v>28000</v>
       </c>
-      <c r="E49" s="3">
-        <v>27800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>27600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>27700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>27700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>27600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>27000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>27300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>26400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>27700</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="T49" s="3">
         <v>27900</v>
       </c>
-      <c r="O49" s="3">
-        <v>29700</v>
-      </c>
-      <c r="P49" s="3">
-        <v>29200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>28000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>27900</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>27200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>21300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>20600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>300</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>116600</v>
+        <v>104200</v>
       </c>
       <c r="E52" s="3">
-        <v>204400</v>
+        <v>113600</v>
       </c>
       <c r="F52" s="3">
-        <v>215000</v>
+        <v>113000</v>
       </c>
       <c r="G52" s="3">
-        <v>224200</v>
+        <v>198100</v>
       </c>
       <c r="H52" s="3">
-        <v>227500</v>
+        <v>208400</v>
       </c>
       <c r="I52" s="3">
+        <v>217300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>220500</v>
+      </c>
+      <c r="K52" s="3">
         <v>233300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>234200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>242200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>182500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>176300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>157300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>163400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>151300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>141700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>139800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>137200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>117000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>95100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>83500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>77000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>58300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>26900</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>997400</v>
+        <v>776100</v>
       </c>
       <c r="E54" s="3">
-        <v>1192400</v>
+        <v>929100</v>
       </c>
       <c r="F54" s="3">
-        <v>1242500</v>
+        <v>966700</v>
       </c>
       <c r="G54" s="3">
-        <v>1410600</v>
+        <v>1155700</v>
       </c>
       <c r="H54" s="3">
-        <v>1556100</v>
+        <v>1204300</v>
       </c>
       <c r="I54" s="3">
+        <v>1367300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1508300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1597500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1663300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1615600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1690700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1487400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1179200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1430900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1345300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1227600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1182500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1168300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1060300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>931700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>774000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>538700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>296400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>257200</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4377,447 +4639,483 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>130000</v>
+        <v>48000</v>
       </c>
       <c r="E58" s="3">
-        <v>133500</v>
+        <v>101100</v>
       </c>
       <c r="F58" s="3">
-        <v>157900</v>
+        <v>126000</v>
       </c>
       <c r="G58" s="3">
-        <v>161300</v>
+        <v>129400</v>
       </c>
       <c r="H58" s="3">
-        <v>215800</v>
+        <v>153000</v>
       </c>
       <c r="I58" s="3">
+        <v>156300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K58" s="3">
         <v>284100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>270300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>224200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>220600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>244700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>277600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>397900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>354600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>288100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>257800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>243300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>163700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>66500</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA58" s="3">
         <v>13800</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>229800</v>
+        <v>166400</v>
       </c>
       <c r="E59" s="3">
-        <v>176400</v>
+        <v>244200</v>
       </c>
       <c r="F59" s="3">
-        <v>184900</v>
+        <v>222700</v>
       </c>
       <c r="G59" s="3">
-        <v>210500</v>
+        <v>171000</v>
       </c>
       <c r="H59" s="3">
-        <v>270100</v>
+        <v>179200</v>
       </c>
       <c r="I59" s="3">
+        <v>204100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>261800</v>
+      </c>
+      <c r="K59" s="3">
         <v>216300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>196700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>256200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>121500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>91800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>77000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>94000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>93300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>65500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>65300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>73100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>63600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>52300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>60000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>63400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>76700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>39900</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>359800</v>
+        <v>214400</v>
       </c>
       <c r="E60" s="3">
-        <v>309900</v>
+        <v>345300</v>
       </c>
       <c r="F60" s="3">
-        <v>342800</v>
+        <v>348700</v>
       </c>
       <c r="G60" s="3">
-        <v>371800</v>
+        <v>300400</v>
       </c>
       <c r="H60" s="3">
-        <v>485800</v>
+        <v>332300</v>
       </c>
       <c r="I60" s="3">
+        <v>360400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>470900</v>
+      </c>
+      <c r="K60" s="3">
         <v>500500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>467000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>480400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>342100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>336500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>354700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>491900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>447900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>353600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>323100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>316400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>227300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>118800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>60000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>63400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>78100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>54300</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10800</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>17900</v>
+        <v>7100</v>
       </c>
       <c r="F61" s="3">
-        <v>38900</v>
+        <v>10500</v>
       </c>
       <c r="G61" s="3">
-        <v>64600</v>
+        <v>17300</v>
       </c>
       <c r="H61" s="3">
-        <v>69100</v>
+        <v>37700</v>
       </c>
       <c r="I61" s="3">
+        <v>62600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>67000</v>
+      </c>
+      <c r="K61" s="3">
         <v>90800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>119000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>117600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>136100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>103200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>44500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>76000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>46500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>35900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>49000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>45700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>68700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>81400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>25100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>25100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>26000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>15000</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12400</v>
+        <v>11100</v>
       </c>
       <c r="E62" s="3">
-        <v>26800</v>
+        <v>11700</v>
       </c>
       <c r="F62" s="3">
-        <v>26800</v>
+        <v>12100</v>
       </c>
       <c r="G62" s="3">
+        <v>26000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K62" s="3">
         <v>18100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>24800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>21900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>46700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>34900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>5300</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>4600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>5000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>5000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>5300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>5300</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>383000</v>
+        <v>225900</v>
       </c>
       <c r="E66" s="3">
-        <v>354600</v>
+        <v>364000</v>
       </c>
       <c r="F66" s="3">
-        <v>408500</v>
+        <v>371200</v>
       </c>
       <c r="G66" s="3">
-        <v>438000</v>
+        <v>343700</v>
       </c>
       <c r="H66" s="3">
-        <v>562400</v>
+        <v>396000</v>
       </c>
       <c r="I66" s="3">
+        <v>424600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>545100</v>
+      </c>
+      <c r="K66" s="3">
         <v>609300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>610800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>619900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>524900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>474700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>403900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>572300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>501800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>390400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>372500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>361900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>297600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>206000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>92000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>94800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>113200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>79200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5405,31 +5741,37 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>771700</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>565600</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>585000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>585000</v>
       </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="3">
-        <v>0</v>
-      </c>
       <c r="AB70" s="3">
         <v>0</v>
       </c>
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="F72" s="3">
         <v>1300</v>
       </c>
-      <c r="E72" s="3">
-        <v>216900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>235400</v>
-      </c>
       <c r="G72" s="3">
-        <v>405900</v>
+        <v>210200</v>
       </c>
       <c r="H72" s="3">
-        <v>425200</v>
+        <v>228200</v>
       </c>
       <c r="I72" s="3">
+        <v>393400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>412200</v>
+      </c>
+      <c r="K72" s="3">
         <v>407600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>466800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>391500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>550600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>348600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>91000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>127500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>131300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>113800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>95400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>117800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>101400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>708000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-96700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-122100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-402400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-407600</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>614400</v>
+        <v>550200</v>
       </c>
       <c r="E76" s="3">
-        <v>837800</v>
+        <v>565000</v>
       </c>
       <c r="F76" s="3">
-        <v>834000</v>
+        <v>595500</v>
       </c>
       <c r="G76" s="3">
-        <v>972600</v>
+        <v>812000</v>
       </c>
       <c r="H76" s="3">
-        <v>993700</v>
+        <v>808300</v>
       </c>
       <c r="I76" s="3">
+        <v>942700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>963200</v>
+      </c>
+      <c r="K76" s="3">
         <v>988200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1052600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>995700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1165800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1012700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>775300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>858700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>843500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>837300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>810000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>806400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>762700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>725700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-89700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-121600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-401800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-407000</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-79500</v>
+        <v>5000</v>
       </c>
       <c r="E81" s="3">
-        <v>-18500</v>
+        <v>10900</v>
       </c>
       <c r="F81" s="3">
-        <v>-40600</v>
+        <v>-77000</v>
       </c>
       <c r="G81" s="3">
-        <v>-19400</v>
+        <v>-18000</v>
       </c>
       <c r="H81" s="3">
-        <v>17600</v>
+        <v>-39400</v>
       </c>
       <c r="I81" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-59200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>79300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-39300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>218300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>258300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>10300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>16200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>18400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>14300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>11600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>8000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>15400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>8200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>11500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>2600</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC81" s="3">
         <v>5500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>6500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6270,21 +6668,21 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y83" s="3">
         <v>300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>16</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6768,21 +7202,21 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>16</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-6100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>42600</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>16</v>
       </c>
@@ -6792,8 +7226,14 @@
       <c r="AC89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6882,21 +7324,21 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>16</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7131,21 +7591,21 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>16</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-61400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>16</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7577,21 +8069,21 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>16</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y100" s="3">
         <v>252400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>16</v>
       </c>
@@ -7601,8 +8093,14 @@
       <c r="AC100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7660,21 +8158,21 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA101" s="3" t="s">
         <v>16</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7743,21 +8247,21 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>16</v>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y102" s="3">
         <v>184600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>36800</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>16</v>
       </c>
@@ -7765,6 +8269,12 @@
         <v>16</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CANG_QTR_FIN.xlsx
@@ -793,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>93100</v>
+        <v>93300</v>
       </c>
       <c r="E8" s="3">
-        <v>74800</v>
+        <v>74900</v>
       </c>
       <c r="F8" s="3">
-        <v>67100</v>
+        <v>67300</v>
       </c>
       <c r="G8" s="3">
-        <v>57400</v>
+        <v>57500</v>
       </c>
       <c r="H8" s="3">
-        <v>39800</v>
+        <v>39900</v>
       </c>
       <c r="I8" s="3">
-        <v>108500</v>
+        <v>108800</v>
       </c>
       <c r="J8" s="3">
-        <v>144700</v>
+        <v>145100</v>
       </c>
       <c r="K8" s="3">
         <v>113800</v>
@@ -882,25 +882,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>84800</v>
+        <v>85000</v>
       </c>
       <c r="E9" s="3">
-        <v>66200</v>
+        <v>66300</v>
       </c>
       <c r="F9" s="3">
-        <v>66400</v>
+        <v>66500</v>
       </c>
       <c r="G9" s="3">
-        <v>53600</v>
+        <v>53700</v>
       </c>
       <c r="H9" s="3">
         <v>37600</v>
       </c>
       <c r="I9" s="3">
-        <v>94700</v>
+        <v>94900</v>
       </c>
       <c r="J9" s="3">
-        <v>121300</v>
+        <v>121600</v>
       </c>
       <c r="K9" s="3">
         <v>86800</v>
@@ -989,7 +989,7 @@
         <v>13900</v>
       </c>
       <c r="J10" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="K10" s="3">
         <v>27000</v>
@@ -1286,7 +1286,7 @@
         <v>7300</v>
       </c>
       <c r="I14" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="J14" s="3">
         <v>11700</v>
@@ -1479,25 +1479,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>94300</v>
+        <v>94500</v>
       </c>
       <c r="E17" s="3">
-        <v>67600</v>
+        <v>67800</v>
       </c>
       <c r="F17" s="3">
-        <v>96300</v>
+        <v>96500</v>
       </c>
       <c r="G17" s="3">
-        <v>83900</v>
+        <v>84100</v>
       </c>
       <c r="H17" s="3">
-        <v>88600</v>
+        <v>88800</v>
       </c>
       <c r="I17" s="3">
-        <v>134600</v>
+        <v>134900</v>
       </c>
       <c r="J17" s="3">
-        <v>166400</v>
+        <v>166700</v>
       </c>
       <c r="K17" s="3">
         <v>119400</v>
@@ -1571,22 +1571,22 @@
         <v>-1200</v>
       </c>
       <c r="E18" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F18" s="3">
         <v>-29200</v>
       </c>
       <c r="G18" s="3">
-        <v>-26500</v>
+        <v>-26600</v>
       </c>
       <c r="H18" s="3">
-        <v>-48800</v>
+        <v>-48900</v>
       </c>
       <c r="I18" s="3">
         <v>-26100</v>
       </c>
       <c r="J18" s="3">
-        <v>-21600</v>
+        <v>-21700</v>
       </c>
       <c r="K18" s="3">
         <v>-5500</v>
@@ -1690,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E20" s="3">
         <v>3600</v>
@@ -1708,7 +1708,7 @@
         <v>2800</v>
       </c>
       <c r="J20" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="K20" s="3">
         <v>-57900</v>
@@ -1969,7 +1969,7 @@
         <v>-23400</v>
       </c>
       <c r="H23" s="3">
-        <v>-47300</v>
+        <v>-47400</v>
       </c>
       <c r="I23" s="3">
         <v>-23900</v>
@@ -2052,7 +2052,7 @@
         <v>-500</v>
       </c>
       <c r="F24" s="3">
-        <v>51100</v>
+        <v>51200</v>
       </c>
       <c r="G24" s="3">
         <v>-5400</v>
@@ -2230,13 +2230,13 @@
         <v>10900</v>
       </c>
       <c r="F26" s="3">
-        <v>-77000</v>
+        <v>-77200</v>
       </c>
       <c r="G26" s="3">
         <v>-18000</v>
       </c>
       <c r="H26" s="3">
-        <v>-39400</v>
+        <v>-39500</v>
       </c>
       <c r="I26" s="3">
         <v>-18800</v>
@@ -2319,13 +2319,13 @@
         <v>10900</v>
       </c>
       <c r="F27" s="3">
-        <v>-77000</v>
+        <v>-77200</v>
       </c>
       <c r="G27" s="3">
         <v>-18000</v>
       </c>
       <c r="H27" s="3">
-        <v>-39400</v>
+        <v>-39500</v>
       </c>
       <c r="I27" s="3">
         <v>-18800</v>
@@ -2758,7 +2758,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="E32" s="3">
         <v>-3600</v>
@@ -2776,7 +2776,7 @@
         <v>-2800</v>
       </c>
       <c r="J32" s="3">
-        <v>-37800</v>
+        <v>-37900</v>
       </c>
       <c r="K32" s="3">
         <v>57900</v>
@@ -2853,13 +2853,13 @@
         <v>10900</v>
       </c>
       <c r="F33" s="3">
-        <v>-77000</v>
+        <v>-77200</v>
       </c>
       <c r="G33" s="3">
         <v>-18000</v>
       </c>
       <c r="H33" s="3">
-        <v>-39400</v>
+        <v>-39500</v>
       </c>
       <c r="I33" s="3">
         <v>-18800</v>
@@ -3031,13 +3031,13 @@
         <v>10900</v>
       </c>
       <c r="F35" s="3">
-        <v>-77000</v>
+        <v>-77200</v>
       </c>
       <c r="G35" s="3">
         <v>-18000</v>
       </c>
       <c r="H35" s="3">
-        <v>-39400</v>
+        <v>-39500</v>
       </c>
       <c r="I35" s="3">
         <v>-18800</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81200</v>
+        <v>81400</v>
       </c>
       <c r="E41" s="3">
-        <v>96000</v>
+        <v>96200</v>
       </c>
       <c r="F41" s="3">
-        <v>52200</v>
+        <v>52300</v>
       </c>
       <c r="G41" s="3">
-        <v>102600</v>
+        <v>102900</v>
       </c>
       <c r="H41" s="3">
-        <v>176500</v>
+        <v>176800</v>
       </c>
       <c r="I41" s="3">
-        <v>294400</v>
+        <v>295100</v>
       </c>
       <c r="J41" s="3">
-        <v>197700</v>
+        <v>198100</v>
       </c>
       <c r="K41" s="3">
         <v>128800</v>
@@ -3363,25 +3363,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>283200</v>
+        <v>283800</v>
       </c>
       <c r="E42" s="3">
-        <v>278000</v>
+        <v>278600</v>
       </c>
       <c r="F42" s="3">
-        <v>267500</v>
+        <v>268100</v>
       </c>
       <c r="G42" s="3">
-        <v>371700</v>
+        <v>372500</v>
       </c>
       <c r="H42" s="3">
-        <v>291600</v>
+        <v>292200</v>
       </c>
       <c r="I42" s="3">
-        <v>258200</v>
+        <v>258800</v>
       </c>
       <c r="J42" s="3">
-        <v>358100</v>
+        <v>358900</v>
       </c>
       <c r="K42" s="3">
         <v>510100</v>
@@ -3452,25 +3452,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>142500</v>
+        <v>142800</v>
       </c>
       <c r="E43" s="3">
-        <v>189400</v>
+        <v>189800</v>
       </c>
       <c r="F43" s="3">
-        <v>226000</v>
+        <v>226500</v>
       </c>
       <c r="G43" s="3">
-        <v>241000</v>
+        <v>241500</v>
       </c>
       <c r="H43" s="3">
-        <v>287100</v>
+        <v>287700</v>
       </c>
       <c r="I43" s="3">
-        <v>317800</v>
+        <v>318500</v>
       </c>
       <c r="J43" s="3">
-        <v>348600</v>
+        <v>349300</v>
       </c>
       <c r="K43" s="3">
         <v>364700</v>
@@ -3630,25 +3630,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>101200</v>
+        <v>101400</v>
       </c>
       <c r="E45" s="3">
-        <v>175600</v>
+        <v>176000</v>
       </c>
       <c r="F45" s="3">
-        <v>208000</v>
+        <v>208400</v>
       </c>
       <c r="G45" s="3">
-        <v>125800</v>
+        <v>126100</v>
       </c>
       <c r="H45" s="3">
-        <v>92400</v>
+        <v>92600</v>
       </c>
       <c r="I45" s="3">
-        <v>86000</v>
+        <v>86200</v>
       </c>
       <c r="J45" s="3">
-        <v>143900</v>
+        <v>144200</v>
       </c>
       <c r="K45" s="3">
         <v>112800</v>
@@ -3719,25 +3719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>608200</v>
+        <v>609500</v>
       </c>
       <c r="E46" s="3">
-        <v>739000</v>
+        <v>740600</v>
       </c>
       <c r="F46" s="3">
-        <v>753700</v>
+        <v>755300</v>
       </c>
       <c r="G46" s="3">
-        <v>841200</v>
+        <v>843000</v>
       </c>
       <c r="H46" s="3">
-        <v>847600</v>
+        <v>849400</v>
       </c>
       <c r="I46" s="3">
-        <v>956400</v>
+        <v>958500</v>
       </c>
       <c r="J46" s="3">
-        <v>1048200</v>
+        <v>1050500</v>
       </c>
       <c r="K46" s="3">
         <v>1116400</v>
@@ -3811,22 +3811,22 @@
         <v>24600</v>
       </c>
       <c r="E47" s="3">
-        <v>36700</v>
+        <v>36800</v>
       </c>
       <c r="F47" s="3">
-        <v>59700</v>
+        <v>59900</v>
       </c>
       <c r="G47" s="3">
-        <v>87200</v>
+        <v>87400</v>
       </c>
       <c r="H47" s="3">
-        <v>119200</v>
+        <v>119500</v>
       </c>
       <c r="I47" s="3">
-        <v>164100</v>
+        <v>164500</v>
       </c>
       <c r="J47" s="3">
-        <v>210100</v>
+        <v>210500</v>
       </c>
       <c r="K47" s="3">
         <v>217400</v>
@@ -3903,7 +3903,7 @@
         <v>12700</v>
       </c>
       <c r="F48" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="G48" s="3">
         <v>2200</v>
@@ -3986,13 +3986,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="E49" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="F49" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="G49" s="3">
         <v>27000</v>
@@ -4001,10 +4001,10 @@
         <v>26800</v>
       </c>
       <c r="I49" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="J49" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="K49" s="3">
         <v>27600</v>
@@ -4253,25 +4253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>104200</v>
+        <v>104400</v>
       </c>
       <c r="E52" s="3">
-        <v>113600</v>
+        <v>113800</v>
       </c>
       <c r="F52" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="G52" s="3">
-        <v>198100</v>
+        <v>198600</v>
       </c>
       <c r="H52" s="3">
-        <v>208400</v>
+        <v>208800</v>
       </c>
       <c r="I52" s="3">
-        <v>217300</v>
+        <v>217800</v>
       </c>
       <c r="J52" s="3">
-        <v>220500</v>
+        <v>221000</v>
       </c>
       <c r="K52" s="3">
         <v>233300</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>776100</v>
+        <v>777800</v>
       </c>
       <c r="E54" s="3">
-        <v>929100</v>
+        <v>931100</v>
       </c>
       <c r="F54" s="3">
-        <v>966700</v>
+        <v>968800</v>
       </c>
       <c r="G54" s="3">
-        <v>1155700</v>
+        <v>1158200</v>
       </c>
       <c r="H54" s="3">
-        <v>1204300</v>
+        <v>1206900</v>
       </c>
       <c r="I54" s="3">
-        <v>1367300</v>
+        <v>1370300</v>
       </c>
       <c r="J54" s="3">
-        <v>1508300</v>
+        <v>1511600</v>
       </c>
       <c r="K54" s="3">
         <v>1597500</v>
@@ -4675,25 +4675,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>48000</v>
+        <v>48100</v>
       </c>
       <c r="E58" s="3">
-        <v>101100</v>
+        <v>101300</v>
       </c>
       <c r="F58" s="3">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="G58" s="3">
-        <v>129400</v>
+        <v>129700</v>
       </c>
       <c r="H58" s="3">
-        <v>153000</v>
+        <v>153400</v>
       </c>
       <c r="I58" s="3">
-        <v>156300</v>
+        <v>156600</v>
       </c>
       <c r="J58" s="3">
-        <v>209100</v>
+        <v>209600</v>
       </c>
       <c r="K58" s="3">
         <v>284100</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166400</v>
+        <v>166800</v>
       </c>
       <c r="E59" s="3">
-        <v>244200</v>
+        <v>244700</v>
       </c>
       <c r="F59" s="3">
-        <v>222700</v>
+        <v>223200</v>
       </c>
       <c r="G59" s="3">
-        <v>171000</v>
+        <v>171400</v>
       </c>
       <c r="H59" s="3">
-        <v>179200</v>
+        <v>179600</v>
       </c>
       <c r="I59" s="3">
-        <v>204100</v>
+        <v>204500</v>
       </c>
       <c r="J59" s="3">
-        <v>261800</v>
+        <v>262300</v>
       </c>
       <c r="K59" s="3">
         <v>216300</v>
@@ -4853,25 +4853,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>214400</v>
+        <v>214900</v>
       </c>
       <c r="E60" s="3">
-        <v>345300</v>
+        <v>346000</v>
       </c>
       <c r="F60" s="3">
-        <v>348700</v>
+        <v>349500</v>
       </c>
       <c r="G60" s="3">
-        <v>300400</v>
+        <v>301100</v>
       </c>
       <c r="H60" s="3">
-        <v>332300</v>
+        <v>333000</v>
       </c>
       <c r="I60" s="3">
-        <v>360400</v>
+        <v>361100</v>
       </c>
       <c r="J60" s="3">
-        <v>470900</v>
+        <v>471900</v>
       </c>
       <c r="K60" s="3">
         <v>500500</v>
@@ -4954,13 +4954,13 @@
         <v>17300</v>
       </c>
       <c r="H61" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="I61" s="3">
-        <v>62600</v>
+        <v>62700</v>
       </c>
       <c r="J61" s="3">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K61" s="3">
         <v>90800</v>
@@ -5043,7 +5043,7 @@
         <v>26000</v>
       </c>
       <c r="H62" s="3">
-        <v>26000</v>
+        <v>26100</v>
       </c>
       <c r="I62" s="3">
         <v>1600</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>225900</v>
+        <v>226400</v>
       </c>
       <c r="E66" s="3">
-        <v>364000</v>
+        <v>364800</v>
       </c>
       <c r="F66" s="3">
-        <v>371200</v>
+        <v>372000</v>
       </c>
       <c r="G66" s="3">
-        <v>343700</v>
+        <v>344500</v>
       </c>
       <c r="H66" s="3">
-        <v>396000</v>
+        <v>396800</v>
       </c>
       <c r="I66" s="3">
-        <v>424600</v>
+        <v>425500</v>
       </c>
       <c r="J66" s="3">
-        <v>545100</v>
+        <v>546300</v>
       </c>
       <c r="K66" s="3">
         <v>609300</v>
@@ -5874,16 +5874,16 @@
         <v>1300</v>
       </c>
       <c r="G72" s="3">
-        <v>210200</v>
+        <v>210700</v>
       </c>
       <c r="H72" s="3">
-        <v>228200</v>
+        <v>228700</v>
       </c>
       <c r="I72" s="3">
-        <v>393400</v>
+        <v>394200</v>
       </c>
       <c r="J72" s="3">
-        <v>412200</v>
+        <v>413000</v>
       </c>
       <c r="K72" s="3">
         <v>407600</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>550200</v>
+        <v>551400</v>
       </c>
       <c r="E76" s="3">
-        <v>565000</v>
+        <v>566200</v>
       </c>
       <c r="F76" s="3">
-        <v>595500</v>
+        <v>596800</v>
       </c>
       <c r="G76" s="3">
-        <v>812000</v>
+        <v>813800</v>
       </c>
       <c r="H76" s="3">
-        <v>808300</v>
+        <v>810100</v>
       </c>
       <c r="I76" s="3">
-        <v>942700</v>
+        <v>944800</v>
       </c>
       <c r="J76" s="3">
-        <v>963200</v>
+        <v>965300</v>
       </c>
       <c r="K76" s="3">
         <v>988200</v>
@@ -6499,13 +6499,13 @@
         <v>10900</v>
       </c>
       <c r="F81" s="3">
-        <v>-77000</v>
+        <v>-77200</v>
       </c>
       <c r="G81" s="3">
         <v>-18000</v>
       </c>
       <c r="H81" s="3">
-        <v>-39400</v>
+        <v>-39500</v>
       </c>
       <c r="I81" s="3">
         <v>-18800</v>
